--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1041">
   <si>
     <t>Description</t>
   </si>
@@ -873,9 +873,6 @@
     <t>Purch Order No_10</t>
   </si>
   <si>
-    <t>1307100107</t>
-  </si>
-  <si>
     <t>Entry Date</t>
   </si>
   <si>
@@ -3190,6 +3187,9 @@
   </si>
   <si>
     <t>170710157</t>
+  </si>
+  <si>
+    <t>A21707105328</t>
   </si>
 </sst>
 </file>
@@ -3957,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4007,7 +4007,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="31"/>
@@ -4022,7 +4022,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4050,7 +4050,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -4079,7 +4079,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6"/>
@@ -4093,7 +4093,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4122,7 +4122,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4196,7 +4196,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -4225,7 +4225,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -4240,7 +4240,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4255,7 +4255,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4284,7 +4284,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -4314,7 +4314,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -4436,7 +4436,7 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4454,7 +4454,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="26"/>
@@ -4470,7 +4470,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4502,7 +4502,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -4518,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="15"/>
@@ -4534,7 +4534,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="15"/>
@@ -4549,7 +4549,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4581,7 +4581,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4661,7 +4661,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="46"/>
@@ -4693,7 +4693,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="46"/>
@@ -4709,7 +4709,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4725,7 +4725,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4757,7 +4757,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="59"/>
@@ -4789,7 +4789,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -4821,7 +4821,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -4837,7 +4837,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -4892,7 +4892,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4908,7 +4908,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4924,7 +4924,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5055,10 +5055,10 @@
         <v>218</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5140,46 +5140,46 @@
         <v>75</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>144</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>302</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>303</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>148</v>
       </c>
       <c r="K1" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>305</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>306</v>
       </c>
       <c r="M1" s="30" t="s">
         <v>83</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>152</v>
       </c>
       <c r="P1" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q1" s="30" t="s">
         <v>308</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5187,52 +5187,52 @@
         <v>1307</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>313</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>314</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>233</v>
       </c>
       <c r="I2" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="K2" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="M2" s="30" t="s">
+      <c r="N2" s="30" t="s">
         <v>317</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>318</v>
       </c>
       <c r="O2" s="30" t="s">
         <v>249</v>
       </c>
       <c r="P2" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q2" s="30" t="s">
         <v>319</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +5263,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5313,10 +5313,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>293</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5361,16 +5361,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" t="s">
         <v>296</v>
-      </c>
-      <c r="F1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5384,13 +5384,13 @@
         <v>1307700041</v>
       </c>
       <c r="D2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" t="s">
         <v>298</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>299</v>
-      </c>
-      <c r="F2" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3">
         <v>1307700043</v>
@@ -5649,7 +5649,7 @@
         <v>214</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C2" s="61"/>
       <c r="E2" s="61"/>
@@ -5664,7 +5664,7 @@
         <v>218</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
@@ -5677,47 +5677,47 @@
         <v>247</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -5748,7 +5748,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5768,7 +5768,7 @@
         <v>251</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5799,7 +5799,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5819,7 +5819,7 @@
         <v>251</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5909,10 +5909,10 @@
         <v>236</v>
       </c>
       <c r="H1" s="27" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>974</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>975</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>146</v>
@@ -5927,10 +5927,10 @@
         <v>237</v>
       </c>
       <c r="N1" s="27" t="s">
+        <v>976</v>
+      </c>
+      <c r="O1" s="27" t="s">
         <v>977</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>978</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>150</v>
@@ -5945,10 +5945,10 @@
         <v>238</v>
       </c>
       <c r="T1" s="27" t="s">
+        <v>978</v>
+      </c>
+      <c r="U1" s="27" t="s">
         <v>979</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>980</v>
       </c>
       <c r="V1" s="27" t="s">
         <v>154</v>
@@ -5963,10 +5963,10 @@
         <v>239</v>
       </c>
       <c r="Z1" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="AA1" s="27" t="s">
         <v>981</v>
-      </c>
-      <c r="AA1" s="27" t="s">
-        <v>982</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>158</v>
@@ -5981,10 +5981,10 @@
         <v>240</v>
       </c>
       <c r="AF1" s="27" t="s">
+        <v>982</v>
+      </c>
+      <c r="AG1" s="27" t="s">
         <v>983</v>
-      </c>
-      <c r="AG1" s="27" t="s">
-        <v>984</v>
       </c>
       <c r="AH1" s="27" t="s">
         <v>162</v>
@@ -5999,10 +5999,10 @@
         <v>241</v>
       </c>
       <c r="AL1" s="27" t="s">
+        <v>984</v>
+      </c>
+      <c r="AM1" s="27" t="s">
         <v>985</v>
-      </c>
-      <c r="AM1" s="27" t="s">
-        <v>986</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>166</v>
@@ -6017,10 +6017,10 @@
         <v>242</v>
       </c>
       <c r="AR1" s="27" t="s">
+        <v>986</v>
+      </c>
+      <c r="AS1" s="27" t="s">
         <v>987</v>
-      </c>
-      <c r="AS1" s="27" t="s">
-        <v>988</v>
       </c>
       <c r="AT1" s="27" t="s">
         <v>170</v>
@@ -6035,10 +6035,10 @@
         <v>243</v>
       </c>
       <c r="AX1" s="27" t="s">
+        <v>988</v>
+      </c>
+      <c r="AY1" s="27" t="s">
         <v>989</v>
-      </c>
-      <c r="AY1" s="27" t="s">
-        <v>990</v>
       </c>
       <c r="AZ1" s="27" t="s">
         <v>174</v>
@@ -6053,10 +6053,10 @@
         <v>244</v>
       </c>
       <c r="BD1" s="27" t="s">
+        <v>990</v>
+      </c>
+      <c r="BE1" s="27" t="s">
         <v>991</v>
-      </c>
-      <c r="BE1" s="27" t="s">
-        <v>992</v>
       </c>
       <c r="BF1" s="27" t="s">
         <v>178</v>
@@ -6071,10 +6071,10 @@
         <v>245</v>
       </c>
       <c r="BJ1" s="27" t="s">
+        <v>992</v>
+      </c>
+      <c r="BK1" s="27" t="s">
         <v>993</v>
-      </c>
-      <c r="BK1" s="27" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
@@ -6082,14 +6082,14 @@
         <v>1707</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" t="s">
         <v>392</v>
-      </c>
-      <c r="E2" t="s">
-        <v>393</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -6098,10 +6098,10 @@
         <v>500</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -6191,13 +6191,13 @@
         <v>236</v>
       </c>
       <c r="H1" s="27" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>974</v>
       </c>
-      <c r="I1" s="27" t="s">
-        <v>975</v>
-      </c>
       <c r="J1" s="27" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>146</v>
@@ -6212,13 +6212,13 @@
         <v>237</v>
       </c>
       <c r="O1" s="27" t="s">
+        <v>976</v>
+      </c>
+      <c r="P1" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="P1" s="27" t="s">
-        <v>978</v>
-      </c>
       <c r="Q1" s="27" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R1" s="27" t="s">
         <v>150</v>
@@ -6233,13 +6233,13 @@
         <v>238</v>
       </c>
       <c r="V1" s="27" t="s">
+        <v>978</v>
+      </c>
+      <c r="W1" s="27" t="s">
         <v>979</v>
       </c>
-      <c r="W1" s="27" t="s">
-        <v>980</v>
-      </c>
       <c r="X1" s="27" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>154</v>
@@ -6254,13 +6254,13 @@
         <v>239</v>
       </c>
       <c r="AC1" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="AD1" s="27" t="s">
         <v>981</v>
       </c>
-      <c r="AD1" s="27" t="s">
-        <v>982</v>
-      </c>
       <c r="AE1" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AF1" s="27" t="s">
         <v>158</v>
@@ -6275,13 +6275,13 @@
         <v>240</v>
       </c>
       <c r="AJ1" s="27" t="s">
+        <v>982</v>
+      </c>
+      <c r="AK1" s="27" t="s">
         <v>983</v>
       </c>
-      <c r="AK1" s="27" t="s">
-        <v>984</v>
-      </c>
       <c r="AL1" s="27" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AM1" s="27" t="s">
         <v>162</v>
@@ -6296,13 +6296,13 @@
         <v>241</v>
       </c>
       <c r="AQ1" s="27" t="s">
+        <v>984</v>
+      </c>
+      <c r="AR1" s="27" t="s">
         <v>985</v>
       </c>
-      <c r="AR1" s="27" t="s">
-        <v>986</v>
-      </c>
       <c r="AS1" s="27" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AT1" s="27" t="s">
         <v>166</v>
@@ -6317,13 +6317,13 @@
         <v>242</v>
       </c>
       <c r="AX1" s="27" t="s">
+        <v>986</v>
+      </c>
+      <c r="AY1" s="27" t="s">
         <v>987</v>
       </c>
-      <c r="AY1" s="27" t="s">
-        <v>988</v>
-      </c>
       <c r="AZ1" s="27" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="BA1" s="27" t="s">
         <v>170</v>
@@ -6338,13 +6338,13 @@
         <v>243</v>
       </c>
       <c r="BE1" s="27" t="s">
+        <v>988</v>
+      </c>
+      <c r="BF1" s="27" t="s">
         <v>989</v>
       </c>
-      <c r="BF1" s="27" t="s">
-        <v>990</v>
-      </c>
       <c r="BG1" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="BH1" s="27" t="s">
         <v>174</v>
@@ -6359,13 +6359,13 @@
         <v>244</v>
       </c>
       <c r="BL1" s="27" t="s">
+        <v>990</v>
+      </c>
+      <c r="BM1" s="27" t="s">
         <v>991</v>
       </c>
-      <c r="BM1" s="27" t="s">
-        <v>992</v>
-      </c>
       <c r="BN1" s="27" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="BO1" s="27" t="s">
         <v>178</v>
@@ -6380,13 +6380,13 @@
         <v>245</v>
       </c>
       <c r="BS1" s="27" t="s">
+        <v>992</v>
+      </c>
+      <c r="BT1" s="27" t="s">
         <v>993</v>
       </c>
-      <c r="BT1" s="27" t="s">
-        <v>994</v>
-      </c>
       <c r="BU1" s="27" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
@@ -6394,14 +6394,14 @@
         <v>1707</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" t="s">
         <v>392</v>
-      </c>
-      <c r="E2" t="s">
-        <v>393</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -6410,13 +6410,13 @@
         <v>500</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -6447,7 +6447,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6484,7 +6484,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6526,10 +6526,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" t="s">
         <v>327</v>
-      </c>
-      <c r="B2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6558,7 +6558,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" s="93">
         <v>43783</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B7">
         <v>4500</v>
@@ -6574,15 +6574,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
         <v>332</v>
-      </c>
-      <c r="B8" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
         <v>196</v>
@@ -6623,10 +6623,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6639,26 +6639,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>324</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -6702,34 +6702,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" t="s">
         <v>277</v>
-      </c>
-      <c r="B3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" t="s">
         <v>279</v>
-      </c>
-      <c r="B4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="81" t="s">
         <v>281</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="81" t="s">
         <v>283</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6765,42 +6765,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>279</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="89" t="s">
         <v>285</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="82" t="s">
         <v>288</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="83" t="s">
         <v>290</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6827,15 +6827,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>805</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2" s="30">
         <v>83.62</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B3" s="30">
         <v>1.39</v>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B4" s="30">
         <v>4.72</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B5" s="30">
         <v>323363078.55000001</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B6" s="30">
         <v>323325.90999999997</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="30">
         <v>1.1100000000000001</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B8" s="30">
         <v>1.24</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B9" s="30">
         <v>4.55</v>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B10" s="30">
         <v>135.61000000000001</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B11" s="30">
         <v>589.11</v>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B12" s="30">
         <v>2.19</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B13" s="30">
         <v>430.35</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B14" s="30">
         <v>53.58</v>
@@ -6939,170 +6939,170 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>822</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>823</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7110,879 +7110,879 @@
         <v>117</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>836</v>
+      </c>
+      <c r="B45" s="30" t="s">
         <v>837</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>838</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>839</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>873</v>
+      </c>
+      <c r="B80" s="30" t="s">
         <v>874</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>875</v>
+      </c>
+      <c r="B81" s="30" t="s">
         <v>876</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>885</v>
+      </c>
+      <c r="B90" s="30" t="s">
         <v>886</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>892</v>
+      </c>
+      <c r="B96" s="30" t="s">
         <v>893</v>
-      </c>
-      <c r="B96" s="30" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>908</v>
+      </c>
+      <c r="B111" s="30" t="s">
         <v>909</v>
-      </c>
-      <c r="B111" s="30" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>920</v>
+      </c>
+      <c r="B123" s="30" t="s">
         <v>921</v>
-      </c>
-      <c r="B123" s="30" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>942</v>
+      </c>
+      <c r="B145" s="30" t="s">
         <v>943</v>
-      </c>
-      <c r="B145" s="30" t="s">
-        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>72</v>
@@ -8026,34 +8026,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>277</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>279</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="88" t="s">
         <v>283</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -8070,7 +8070,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8090,10 +8090,10 @@
         <v>257</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>258</v>
@@ -8134,16 +8134,16 @@
         <v>1707</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="F2" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -8178,11 +8178,9 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B2" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8198,7 +8196,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8216,11 +8214,9 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B2" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8263,18 +8259,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>378</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -8322,7 +8318,7 @@
         <v>214</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8330,15 +8326,15 @@
         <v>0</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>337</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8351,10 +8347,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>339</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -8395,16 +8391,16 @@
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>253</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -8415,22 +8411,22 @@
         <v>1307</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>352</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>353</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>117</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -8466,7 +8462,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2">
         <v>1307100244</v>
@@ -8514,22 +8510,22 @@
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>341</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>342</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>253</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8540,25 +8536,25 @@
         <v>1307</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>348</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>349</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>199</v>
@@ -8597,19 +8593,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" t="s">
         <v>355</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>356</v>
-      </c>
-      <c r="G1" t="s">
-        <v>357</v>
       </c>
       <c r="H1" t="s">
         <v>128</v>
@@ -8618,7 +8614,7 @@
         <v>214</v>
       </c>
       <c r="J1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8629,22 +8625,22 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" t="s">
         <v>359</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>360</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>361</v>
-      </c>
-      <c r="F2" t="s">
-        <v>362</v>
       </c>
       <c r="G2">
         <v>111413</v>
       </c>
       <c r="H2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I2">
         <v>1307200433</v>
@@ -8693,2018 +8689,2018 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" t="s">
         <v>399</v>
-      </c>
-      <c r="B4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" t="s">
         <v>401</v>
-      </c>
-      <c r="B5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" t="s">
         <v>404</v>
-      </c>
-      <c r="B7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" t="s">
         <v>408</v>
-      </c>
-      <c r="B10" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B11" t="s">
         <v>410</v>
-      </c>
-      <c r="B11" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" t="s">
         <v>414</v>
-      </c>
-      <c r="B14" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" t="s">
         <v>416</v>
-      </c>
-      <c r="B15" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>418</v>
+      </c>
+      <c r="B17" t="s">
         <v>419</v>
-      </c>
-      <c r="B17" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" t="s">
         <v>421</v>
-      </c>
-      <c r="B18" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B19" t="s">
         <v>423</v>
-      </c>
-      <c r="B19" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" t="s">
         <v>425</v>
-      </c>
-      <c r="B20" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" t="s">
         <v>427</v>
-      </c>
-      <c r="B21" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" t="s">
         <v>430</v>
-      </c>
-      <c r="B23" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>431</v>
+      </c>
+      <c r="B24" t="s">
         <v>432</v>
-      </c>
-      <c r="B24" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" t="s">
         <v>434</v>
-      </c>
-      <c r="B25" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>435</v>
+      </c>
+      <c r="B26" t="s">
         <v>436</v>
-      </c>
-      <c r="B26" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>437</v>
+      </c>
+      <c r="B27" t="s">
         <v>438</v>
-      </c>
-      <c r="B27" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B28" t="s">
         <v>440</v>
-      </c>
-      <c r="B28" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30" t="s">
         <v>443</v>
-      </c>
-      <c r="B30" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B31" t="s">
         <v>445</v>
-      </c>
-      <c r="B31" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B32" t="s">
         <v>447</v>
-      </c>
-      <c r="B32" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" t="s">
         <v>449</v>
-      </c>
-      <c r="B33" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>450</v>
+      </c>
+      <c r="B34" t="s">
         <v>451</v>
-      </c>
-      <c r="B34" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>453</v>
+      </c>
+      <c r="B36" t="s">
         <v>454</v>
-      </c>
-      <c r="B36" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37" t="s">
         <v>456</v>
-      </c>
-      <c r="B37" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" t="s">
         <v>458</v>
-      </c>
-      <c r="B38" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B41" t="s">
         <v>462</v>
-      </c>
-      <c r="B41" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>463</v>
+      </c>
+      <c r="B42" t="s">
         <v>464</v>
-      </c>
-      <c r="B42" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>466</v>
+      </c>
+      <c r="B44" t="s">
         <v>467</v>
-      </c>
-      <c r="B44" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>468</v>
+      </c>
+      <c r="B45" t="s">
         <v>469</v>
-      </c>
-      <c r="B45" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>470</v>
+      </c>
+      <c r="B46" t="s">
         <v>471</v>
-      </c>
-      <c r="B46" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>472</v>
+      </c>
+      <c r="B47" t="s">
         <v>473</v>
-      </c>
-      <c r="B47" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>474</v>
+      </c>
+      <c r="B48" t="s">
         <v>475</v>
-      </c>
-      <c r="B48" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B49" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B50" t="s">
         <v>478</v>
-      </c>
-      <c r="B50" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>481</v>
+      </c>
+      <c r="B53" t="s">
         <v>482</v>
-      </c>
-      <c r="B53" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>483</v>
+      </c>
+      <c r="B54" t="s">
         <v>484</v>
-      </c>
-      <c r="B54" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B56" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>487</v>
+      </c>
+      <c r="B57" t="s">
         <v>488</v>
-      </c>
-      <c r="B57" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>489</v>
+      </c>
+      <c r="B58" t="s">
         <v>490</v>
-      </c>
-      <c r="B58" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>491</v>
+      </c>
+      <c r="B59" t="s">
         <v>492</v>
-      </c>
-      <c r="B59" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B60" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>494</v>
+      </c>
+      <c r="B61" t="s">
         <v>495</v>
-      </c>
-      <c r="B61" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>496</v>
+      </c>
+      <c r="B62" t="s">
         <v>497</v>
-      </c>
-      <c r="B62" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B63" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>499</v>
+      </c>
+      <c r="B64" t="s">
         <v>500</v>
-      </c>
-      <c r="B64" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>501</v>
+      </c>
+      <c r="B65" t="s">
         <v>502</v>
-      </c>
-      <c r="B65" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>503</v>
+      </c>
+      <c r="B66" t="s">
         <v>504</v>
-      </c>
-      <c r="B66" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>506</v>
+      </c>
+      <c r="B68" t="s">
         <v>507</v>
-      </c>
-      <c r="B68" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>508</v>
+      </c>
+      <c r="B69" t="s">
         <v>509</v>
-      </c>
-      <c r="B69" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>510</v>
+      </c>
+      <c r="B70" t="s">
         <v>511</v>
-      </c>
-      <c r="B70" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B71" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>513</v>
+      </c>
+      <c r="B72" t="s">
         <v>514</v>
-      </c>
-      <c r="B72" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>516</v>
+      </c>
+      <c r="B74" t="s">
         <v>517</v>
-      </c>
-      <c r="B74" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>520</v>
+      </c>
+      <c r="B77" t="s">
         <v>521</v>
-      </c>
-      <c r="B77" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>523</v>
+      </c>
+      <c r="B79" t="s">
         <v>524</v>
-      </c>
-      <c r="B79" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>525</v>
+      </c>
+      <c r="B80" t="s">
         <v>526</v>
-      </c>
-      <c r="B80" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>527</v>
+      </c>
+      <c r="B81" t="s">
         <v>528</v>
-      </c>
-      <c r="B81" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B82" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>530</v>
+      </c>
+      <c r="B83" t="s">
         <v>531</v>
-      </c>
-      <c r="B83" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B85" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B86" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>535</v>
+      </c>
+      <c r="B87" t="s">
         <v>536</v>
-      </c>
-      <c r="B87" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B88" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>538</v>
+      </c>
+      <c r="B89" t="s">
         <v>539</v>
-      </c>
-      <c r="B89" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>540</v>
+      </c>
+      <c r="B90" t="s">
         <v>541</v>
-      </c>
-      <c r="B90" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B91" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>543</v>
+      </c>
+      <c r="B92" t="s">
         <v>544</v>
-      </c>
-      <c r="B92" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>545</v>
+      </c>
+      <c r="B93" t="s">
         <v>546</v>
-      </c>
-      <c r="B93" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B95" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B96" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>552</v>
+      </c>
+      <c r="B99" t="s">
         <v>553</v>
-      </c>
-      <c r="B99" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>554</v>
+      </c>
+      <c r="B100" t="s">
         <v>555</v>
-      </c>
-      <c r="B100" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>556</v>
+      </c>
+      <c r="B101" t="s">
         <v>557</v>
-      </c>
-      <c r="B101" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B102" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>559</v>
+      </c>
+      <c r="B103" t="s">
         <v>560</v>
-      </c>
-      <c r="B103" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>561</v>
+      </c>
+      <c r="B104" t="s">
         <v>562</v>
-      </c>
-      <c r="B104" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>563</v>
+      </c>
+      <c r="B105" t="s">
         <v>564</v>
-      </c>
-      <c r="B105" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>565</v>
+      </c>
+      <c r="B106" t="s">
         <v>566</v>
-      </c>
-      <c r="B106" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>567</v>
+      </c>
+      <c r="B107" t="s">
         <v>568</v>
-      </c>
-      <c r="B107" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>569</v>
+      </c>
+      <c r="B108" t="s">
         <v>570</v>
-      </c>
-      <c r="B108" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>571</v>
+      </c>
+      <c r="B109" t="s">
         <v>572</v>
-      </c>
-      <c r="B109" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>573</v>
+      </c>
+      <c r="B110" t="s">
         <v>574</v>
-      </c>
-      <c r="B110" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>575</v>
+      </c>
+      <c r="B111" t="s">
         <v>576</v>
-      </c>
-      <c r="B111" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>577</v>
+      </c>
+      <c r="B112" t="s">
         <v>578</v>
-      </c>
-      <c r="B112" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>580</v>
+      </c>
+      <c r="B114" t="s">
         <v>581</v>
-      </c>
-      <c r="B114" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>582</v>
+      </c>
+      <c r="B115" t="s">
         <v>583</v>
-      </c>
-      <c r="B115" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B116" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>585</v>
+      </c>
+      <c r="B117" t="s">
         <v>586</v>
-      </c>
-      <c r="B117" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>587</v>
+      </c>
+      <c r="B118" t="s">
         <v>588</v>
-      </c>
-      <c r="B118" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>589</v>
+      </c>
+      <c r="B119" t="s">
         <v>590</v>
-      </c>
-      <c r="B119" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>591</v>
+      </c>
+      <c r="B120" t="s">
         <v>592</v>
-      </c>
-      <c r="B120" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>593</v>
+      </c>
+      <c r="B121" t="s">
         <v>594</v>
-      </c>
-      <c r="B121" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>595</v>
+      </c>
+      <c r="B122" t="s">
         <v>596</v>
-      </c>
-      <c r="B122" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B123" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B124" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>599</v>
+      </c>
+      <c r="B125" t="s">
         <v>600</v>
-      </c>
-      <c r="B125" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>601</v>
+      </c>
+      <c r="B126" t="s">
         <v>602</v>
-      </c>
-      <c r="B126" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>603</v>
+      </c>
+      <c r="B127" t="s">
         <v>604</v>
-      </c>
-      <c r="B127" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B128" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>606</v>
+      </c>
+      <c r="B129" t="s">
         <v>607</v>
-      </c>
-      <c r="B129" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>608</v>
+      </c>
+      <c r="B130" t="s">
         <v>609</v>
-      </c>
-      <c r="B130" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>610</v>
+      </c>
+      <c r="B131" t="s">
         <v>611</v>
-      </c>
-      <c r="B131" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>612</v>
+      </c>
+      <c r="B132" t="s">
         <v>613</v>
-      </c>
-      <c r="B132" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>614</v>
+      </c>
+      <c r="B133" t="s">
         <v>615</v>
-      </c>
-      <c r="B133" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B134" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B135" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>618</v>
+      </c>
+      <c r="B136" t="s">
         <v>619</v>
-      </c>
-      <c r="B136" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>620</v>
+      </c>
+      <c r="B137" t="s">
         <v>621</v>
-      </c>
-      <c r="B137" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>622</v>
+      </c>
+      <c r="B138" t="s">
         <v>623</v>
-      </c>
-      <c r="B138" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>624</v>
+      </c>
+      <c r="B139" t="s">
         <v>625</v>
-      </c>
-      <c r="B139" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>626</v>
+      </c>
+      <c r="B140" t="s">
         <v>627</v>
-      </c>
-      <c r="B140" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B141" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B142" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B143" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B144" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>632</v>
+      </c>
+      <c r="B145" t="s">
         <v>633</v>
-      </c>
-      <c r="B145" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>634</v>
+      </c>
+      <c r="B146" t="s">
         <v>635</v>
-      </c>
-      <c r="B146" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B147" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>637</v>
+      </c>
+      <c r="B148" t="s">
         <v>638</v>
-      </c>
-      <c r="B148" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B149" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>640</v>
+      </c>
+      <c r="B150" t="s">
         <v>641</v>
-      </c>
-      <c r="B150" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B151" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>643</v>
+      </c>
+      <c r="B152" t="s">
         <v>644</v>
-      </c>
-      <c r="B152" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B153" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B154" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>647</v>
+      </c>
+      <c r="B155" t="s">
         <v>648</v>
-      </c>
-      <c r="B155" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>649</v>
+      </c>
+      <c r="B156" t="s">
         <v>650</v>
-      </c>
-      <c r="B156" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>651</v>
+      </c>
+      <c r="B157" t="s">
         <v>652</v>
-      </c>
-      <c r="B157" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>653</v>
+      </c>
+      <c r="B158" t="s">
         <v>654</v>
-      </c>
-      <c r="B158" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B159" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>656</v>
+      </c>
+      <c r="B160" t="s">
         <v>657</v>
-      </c>
-      <c r="B160" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B161" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B162" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B163" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>661</v>
+      </c>
+      <c r="B164" t="s">
         <v>662</v>
-      </c>
-      <c r="B164" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B165" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>664</v>
+      </c>
+      <c r="B166" t="s">
         <v>665</v>
-      </c>
-      <c r="B166" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B167" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B168" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B169" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>669</v>
+      </c>
+      <c r="B170" t="s">
         <v>670</v>
-      </c>
-      <c r="B170" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>671</v>
+      </c>
+      <c r="B171" t="s">
         <v>672</v>
-      </c>
-      <c r="B171" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>673</v>
+      </c>
+      <c r="B172" t="s">
         <v>674</v>
-      </c>
-      <c r="B172" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>675</v>
+      </c>
+      <c r="B173" t="s">
         <v>676</v>
-      </c>
-      <c r="B173" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>677</v>
+      </c>
+      <c r="B174" t="s">
         <v>678</v>
-      </c>
-      <c r="B174" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B175" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B176" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>682</v>
+      </c>
+      <c r="B178" t="s">
         <v>683</v>
-      </c>
-      <c r="B178" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>684</v>
+      </c>
+      <c r="B179" t="s">
         <v>685</v>
-      </c>
-      <c r="B179" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>686</v>
+      </c>
+      <c r="B180" t="s">
         <v>687</v>
-      </c>
-      <c r="B180" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>688</v>
+      </c>
+      <c r="B181" t="s">
         <v>689</v>
-      </c>
-      <c r="B181" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B182" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>691</v>
+      </c>
+      <c r="B183" t="s">
         <v>692</v>
-      </c>
-      <c r="B183" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B184" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B185" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>695</v>
+      </c>
+      <c r="B186" t="s">
         <v>696</v>
-      </c>
-      <c r="B186" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B187" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>698</v>
+      </c>
+      <c r="B188" t="s">
         <v>699</v>
-      </c>
-      <c r="B188" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>700</v>
+      </c>
+      <c r="B189" t="s">
         <v>701</v>
-      </c>
-      <c r="B189" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>702</v>
+      </c>
+      <c r="B190" t="s">
         <v>703</v>
-      </c>
-      <c r="B190" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B191" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B192" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B193" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B194" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B195" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B196" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B197" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B198" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>712</v>
+      </c>
+      <c r="B199" t="s">
         <v>713</v>
-      </c>
-      <c r="B199" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B200" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>715</v>
+      </c>
+      <c r="B201" t="s">
         <v>716</v>
-      </c>
-      <c r="B201" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>717</v>
+      </c>
+      <c r="B202" t="s">
         <v>718</v>
-      </c>
-      <c r="B202" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B203" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>720</v>
+      </c>
+      <c r="B204" t="s">
         <v>721</v>
-      </c>
-      <c r="B204" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>722</v>
+      </c>
+      <c r="B205" t="s">
         <v>723</v>
-      </c>
-      <c r="B205" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>724</v>
+      </c>
+      <c r="B206" t="s">
         <v>725</v>
-      </c>
-      <c r="B206" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>726</v>
+      </c>
+      <c r="B207" t="s">
         <v>727</v>
-      </c>
-      <c r="B207" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B208" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B209" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B210" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B211" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>732</v>
+      </c>
+      <c r="B212" t="s">
         <v>733</v>
-      </c>
-      <c r="B212" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>734</v>
+      </c>
+      <c r="B213" t="s">
         <v>735</v>
-      </c>
-      <c r="B213" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>736</v>
+      </c>
+      <c r="B214" t="s">
         <v>737</v>
-      </c>
-      <c r="B214" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B215" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>739</v>
+      </c>
+      <c r="B216" t="s">
         <v>740</v>
-      </c>
-      <c r="B216" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>741</v>
+      </c>
+      <c r="B217" t="s">
         <v>742</v>
-      </c>
-      <c r="B217" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>743</v>
+      </c>
+      <c r="B218" t="s">
         <v>744</v>
-      </c>
-      <c r="B218" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>745</v>
+      </c>
+      <c r="B219" t="s">
         <v>746</v>
-      </c>
-      <c r="B219" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>747</v>
+      </c>
+      <c r="B220" t="s">
         <v>748</v>
-      </c>
-      <c r="B220" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B221" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>750</v>
+      </c>
+      <c r="B222" t="s">
         <v>751</v>
-      </c>
-      <c r="B222" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B223" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>753</v>
+      </c>
+      <c r="B224" t="s">
         <v>754</v>
-      </c>
-      <c r="B224" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>755</v>
+      </c>
+      <c r="B225" t="s">
         <v>756</v>
-      </c>
-      <c r="B225" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>757</v>
+      </c>
+      <c r="B226" t="s">
         <v>758</v>
-      </c>
-      <c r="B226" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>759</v>
+      </c>
+      <c r="B227" t="s">
         <v>760</v>
-      </c>
-      <c r="B227" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>761</v>
+      </c>
+      <c r="B228" t="s">
         <v>762</v>
-      </c>
-      <c r="B228" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B229" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B230" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B231" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>766</v>
+      </c>
+      <c r="B232" t="s">
         <v>767</v>
-      </c>
-      <c r="B232" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>768</v>
+      </c>
+      <c r="B233" t="s">
         <v>769</v>
-      </c>
-      <c r="B233" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B234" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>771</v>
+      </c>
+      <c r="B235" t="s">
         <v>772</v>
-      </c>
-      <c r="B235" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>773</v>
+      </c>
+      <c r="B236" t="s">
         <v>774</v>
-      </c>
-      <c r="B236" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>775</v>
+      </c>
+      <c r="B237" t="s">
         <v>776</v>
-      </c>
-      <c r="B237" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B238" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B239" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>779</v>
+      </c>
+      <c r="B240" t="s">
         <v>780</v>
-      </c>
-      <c r="B240" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>781</v>
+      </c>
+      <c r="B241" t="s">
         <v>782</v>
-      </c>
-      <c r="B241" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>783</v>
+      </c>
+      <c r="B242" t="s">
         <v>784</v>
-      </c>
-      <c r="B242" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>785</v>
+      </c>
+      <c r="B243" t="s">
         <v>786</v>
-      </c>
-      <c r="B243" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B244" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>788</v>
+      </c>
+      <c r="B245" t="s">
         <v>789</v>
-      </c>
-      <c r="B245" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>790</v>
+      </c>
+      <c r="B246" t="s">
         <v>791</v>
-      </c>
-      <c r="B246" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B247" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>793</v>
+      </c>
+      <c r="B248" t="s">
         <v>794</v>
-      </c>
-      <c r="B248" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>795</v>
+      </c>
+      <c r="B249" t="s">
         <v>796</v>
-      </c>
-      <c r="B249" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B250" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B251" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>799</v>
+      </c>
+      <c r="B252" t="s">
         <v>800</v>
-      </c>
-      <c r="B252" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>801</v>
+      </c>
+      <c r="B253" t="s">
         <v>802</v>
-      </c>
-      <c r="B253" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B254" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -10736,7 +10732,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10749,31 +10745,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>365</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>367</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" s="30">
         <v>131885</v>
@@ -10781,10 +10777,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -10815,7 +10811,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10828,31 +10824,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" s="30">
         <v>131885</v>
@@ -11020,7 +11016,7 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="94">
         <v>1319</v>
@@ -11032,10 +11028,10 @@
         <v>1319200043</v>
       </c>
       <c r="E2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" t="s">
         <v>374</v>
-      </c>
-      <c r="F2" t="s">
-        <v>375</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -11092,7 +11088,7 @@
         <v>201</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="40"/>
@@ -11111,7 +11107,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="97" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="40"/>
@@ -11130,7 +11126,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="40"/>
@@ -11149,7 +11145,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="40"/>
@@ -11168,7 +11164,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="40"/>
@@ -11187,7 +11183,7 @@
         <v>203</v>
       </c>
       <c r="B7" s="97" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="40"/>
@@ -11206,7 +11202,7 @@
         <v>204</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="40"/>
@@ -11225,7 +11221,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="40"/>
@@ -11244,7 +11240,7 @@
         <v>206</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="40"/>
@@ -11263,7 +11259,7 @@
         <v>207</v>
       </c>
       <c r="B11" s="98" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="41"/>
@@ -11313,7 +11309,7 @@
         <v>183</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11321,7 +11317,7 @@
         <v>184</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11329,7 +11325,7 @@
         <v>186</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11337,7 +11333,7 @@
         <v>187</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11345,7 +11341,7 @@
         <v>188</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11353,7 +11349,7 @@
         <v>189</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -11361,7 +11357,7 @@
         <v>190</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11369,7 +11365,7 @@
         <v>191</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -11377,7 +11373,7 @@
         <v>193</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11385,7 +11381,7 @@
         <v>194</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -11393,7 +11389,7 @@
         <v>195</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -11401,7 +11397,7 @@
         <v>197</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11409,7 +11405,7 @@
         <v>198</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11417,7 +11413,7 @@
         <v>200</v>
       </c>
       <c r="B15" s="101" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -11473,7 +11469,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -11506,7 +11502,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -11550,7 +11546,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="32"/>
@@ -11572,7 +11568,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="32"/>
@@ -11605,7 +11601,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7"/>
@@ -11616,7 +11612,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -11870,7 +11866,7 @@
   </sheetPr>
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -11921,7 +11917,7 @@
         <v>214</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>142</v>
@@ -11936,10 +11932,10 @@
         <v>145</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>146</v>
@@ -11954,10 +11950,10 @@
         <v>149</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>150</v>
@@ -11972,10 +11968,10 @@
         <v>153</v>
       </c>
       <c r="T1" s="27" t="s">
+        <v>958</v>
+      </c>
+      <c r="U1" s="27" t="s">
         <v>959</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>960</v>
       </c>
       <c r="V1" s="27" t="s">
         <v>154</v>
@@ -11990,10 +11986,10 @@
         <v>157</v>
       </c>
       <c r="Z1" s="27" t="s">
+        <v>956</v>
+      </c>
+      <c r="AA1" s="27" t="s">
         <v>957</v>
-      </c>
-      <c r="AA1" s="27" t="s">
-        <v>958</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>158</v>
@@ -12008,10 +12004,10 @@
         <v>161</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AH1" s="27" t="s">
         <v>162</v>
@@ -12026,10 +12022,10 @@
         <v>165</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>166</v>
@@ -12044,10 +12040,10 @@
         <v>169</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AT1" s="27" t="s">
         <v>170</v>
@@ -12062,10 +12058,10 @@
         <v>173</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AZ1" s="27" t="s">
         <v>174</v>
@@ -12080,10 +12076,10 @@
         <v>177</v>
       </c>
       <c r="BD1" s="27" t="s">
+        <v>946</v>
+      </c>
+      <c r="BE1" s="27" t="s">
         <v>947</v>
-      </c>
-      <c r="BE1" s="27" t="s">
-        <v>948</v>
       </c>
       <c r="BF1" s="27" t="s">
         <v>178</v>
@@ -12098,10 +12094,10 @@
         <v>181</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
@@ -12110,13 +12106,13 @@
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -12131,10 +12127,10 @@
         <v>998312</v>
       </c>
       <c r="J2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K2" t="s">
         <v>389</v>
-      </c>
-      <c r="K2" t="s">
-        <v>390</v>
       </c>
       <c r="L2">
         <v>7</v>
@@ -12149,10 +12145,10 @@
         <v>998312</v>
       </c>
       <c r="P2" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q2" t="s">
         <v>392</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>393</v>
       </c>
       <c r="R2">
         <v>25</v>
@@ -12493,7 +12489,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12507,7 +12503,7 @@
         <v>127</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="29" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1042">
   <si>
     <t>Description</t>
   </si>
@@ -3135,15 +3135,6 @@
     <t>Vendor Invoice NO</t>
   </si>
   <si>
-    <t>1707103534</t>
-  </si>
-  <si>
-    <t>1707105339</t>
-  </si>
-  <si>
-    <t>A11707105328</t>
-  </si>
-  <si>
     <t>1707_TestEmployeeAutomation</t>
   </si>
   <si>
@@ -3168,9 +3159,6 @@
     <t>02/10/2020</t>
   </si>
   <si>
-    <t>1707108225</t>
-  </si>
-  <si>
     <t>07</t>
   </si>
   <si>
@@ -3186,10 +3174,25 @@
     <t>1707_AutomationEmpy@gmail.com</t>
   </si>
   <si>
-    <t>170710157</t>
-  </si>
-  <si>
-    <t>A21707105328</t>
+    <t>1707103535</t>
+  </si>
+  <si>
+    <t>1707103536</t>
+  </si>
+  <si>
+    <t>1707105340</t>
+  </si>
+  <si>
+    <t>1707105341</t>
+  </si>
+  <si>
+    <t>B21707105328</t>
+  </si>
+  <si>
+    <t>Z11707105328</t>
+  </si>
+  <si>
+    <t>Z21707105328</t>
   </si>
 </sst>
 </file>
@@ -4022,7 +4025,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4093,7 +4096,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4122,7 +4125,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4196,7 +4199,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -4225,7 +4228,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -4240,7 +4243,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4255,7 +4258,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4284,7 +4287,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -4314,7 +4317,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -4470,7 +4473,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4549,7 +4552,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4581,7 +4584,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4661,7 +4664,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="46"/>
@@ -4693,7 +4696,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="46"/>
@@ -4709,7 +4712,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4725,7 +4728,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4757,7 +4760,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="59"/>
@@ -4789,7 +4792,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -4821,7 +4824,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -4837,7 +4840,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5249,7 +5252,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5270,7 +5273,9 @@
       <c r="A2" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="62" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -5459,7 +5464,7 @@
   <dimension ref="A1:FK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5648,9 +5653,6 @@
       <c r="A2" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>1022</v>
-      </c>
       <c r="C2" s="61"/>
       <c r="E2" s="61"/>
       <c r="F2" s="62"/>
@@ -5663,9 +5665,6 @@
       <c r="A3" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>1039</v>
-      </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -5676,48 +5675,30 @@
       <c r="A5" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>1020</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>1033</v>
-      </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>379</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -6117,8 +6098,8 @@
   </sheetPr>
   <dimension ref="A1:BU2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6396,7 +6377,9 @@
       <c r="B2" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="61" t="s">
+        <v>1036</v>
+      </c>
       <c r="D2" t="s">
         <v>391</v>
       </c>
@@ -6426,43 +6409,6 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="62"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6491,7 +6437,48 @@
       <c r="A2" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="62" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>1038</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8070,7 +8057,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8133,6 +8120,9 @@
       <c r="A2">
         <v>1707</v>
       </c>
+      <c r="B2">
+        <v>1707105342</v>
+      </c>
       <c r="C2" s="61" t="s">
         <v>396</v>
       </c>
@@ -8140,10 +8130,10 @@
         <v>396</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -8160,7 +8150,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8173,14 +8163,16 @@
         <v>5</v>
       </c>
       <c r="B1">
-        <v>1307</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="61" t="s">
+        <v>1040</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8195,8 +8187,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8209,14 +8201,16 @@
         <v>5</v>
       </c>
       <c r="B1">
-        <v>1307</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="61" t="s">
+        <v>1041</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11866,8 +11860,8 @@
   </sheetPr>
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12104,7 +12098,9 @@
       <c r="A2">
         <v>1707</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="61" t="s">
+        <v>1035</v>
+      </c>
       <c r="C2" s="61" t="s">
         <v>387</v>
       </c>
@@ -12503,7 +12499,7 @@
         <v>127</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="29" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -5463,7 +5463,7 @@
   </sheetPr>
   <dimension ref="A1:FK10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -8187,7 +8187,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="40" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -54,8 +54,10 @@
     <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId40"/>
     <sheet name="Reverse Invoice" sheetId="41" r:id="rId41"/>
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId43"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId44"/>
+    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId43"/>
+    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId44"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId45"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId46"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1047">
   <si>
     <t>Description</t>
   </si>
@@ -3193,13 +3195,28 @@
   </si>
   <si>
     <t>Z21707105328</t>
+  </si>
+  <si>
+    <t>Client Number</t>
+  </si>
+  <si>
+    <t>Brand Number</t>
+  </si>
+  <si>
+    <t>Brand Name</t>
+  </si>
+  <si>
+    <t>103558001</t>
+  </si>
+  <si>
+    <t>Radisson Temple Bay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3241,6 +3258,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3453,7 +3476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3651,6 +3674,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5463,7 +5488,7 @@
   </sheetPr>
   <dimension ref="A1:FK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -11043,6 +11068,115 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B2">
+        <v>103558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B2">
+        <v>103558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:M11"/>
@@ -11273,7 +11407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3489,9 +3489,6 @@
     <t>No.2  Ward No.8456</t>
   </si>
   <si>
-    <t>1707105271</t>
-  </si>
-  <si>
     <t>3543224602</t>
   </si>
   <si>
@@ -3511,6 +3508,9 @@
   </si>
   <si>
     <t>AutoGlobalProduct 04March2020 16:24:02</t>
+  </si>
+  <si>
+    <t>1707105274</t>
   </si>
 </sst>
 </file>
@@ -5982,7 +5982,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6037,7 +6037,7 @@
         <v>991</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
@@ -6045,7 +6045,7 @@
         <v>992</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.25">
@@ -6058,7 +6058,7 @@
         <v>1069</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
@@ -6066,7 +6066,7 @@
         <v>1070</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
@@ -6074,7 +6074,7 @@
         <v>1071</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6082,7 +6082,7 @@
         <v>1072</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6090,7 +6090,7 @@
         <v>1073</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6098,7 +6098,7 @@
         <v>1074</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6106,7 +6106,7 @@
         <v>1075</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6114,7 +6114,7 @@
         <v>1076</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -11525,7 +11525,7 @@
         <v>1043</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="46" activeTab="49"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -55,19 +55,25 @@
     <sheet name="Reverse Invoice" sheetId="41" r:id="rId41"/>
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
     <sheet name="CreateClient" sheetId="57" r:id="rId43"/>
-    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId44"/>
-    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId45"/>
-    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId46"/>
-    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId47"/>
-    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId48"/>
-    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId49"/>
-    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId50"/>
-    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId51"/>
-    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId52"/>
-    <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId53"/>
-    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId54"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId55"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId56"/>
+    <sheet name="CreateCompanyClient" sheetId="59" r:id="rId44"/>
+    <sheet name="CreateCompanyBrand" sheetId="60" r:id="rId45"/>
+    <sheet name="CreateGlobalBrand" sheetId="63" r:id="rId46"/>
+    <sheet name="CreateGlobalProduct" sheetId="64" r:id="rId47"/>
+    <sheet name="AmendCompanyClient" sheetId="61" r:id="rId48"/>
+    <sheet name="AmendCompanyBrand" sheetId="62" r:id="rId49"/>
+    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId50"/>
+    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId51"/>
+    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId52"/>
+    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId53"/>
+    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId54"/>
+    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId55"/>
+    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId56"/>
+    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId57"/>
+    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId58"/>
+    <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId59"/>
+    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId60"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId61"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId62"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -79,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1174">
   <si>
     <t>Description</t>
   </si>
@@ -3511,6 +3517,96 @@
   </si>
   <si>
     <t>1707105274</t>
+  </si>
+  <si>
+    <t>1712_INR_Billable_Price_List</t>
+  </si>
+  <si>
+    <t>JobPricelListSales</t>
+  </si>
+  <si>
+    <t>25 Days</t>
+  </si>
+  <si>
+    <t>ControlAccountNo</t>
+  </si>
+  <si>
+    <t>17129905</t>
+  </si>
+  <si>
+    <t>AccountDirectorNo</t>
+  </si>
+  <si>
+    <t>matheww@oglivy.com</t>
+  </si>
+  <si>
+    <t>mathew@oglivy.com</t>
+  </si>
+  <si>
+    <t>mathew</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>Settling company</t>
+  </si>
+  <si>
+    <t>1707_AutoClient 24February2020 15:20:12</t>
+  </si>
+  <si>
+    <t>Testo India Private Limited</t>
+  </si>
+  <si>
+    <t>107734</t>
+  </si>
+  <si>
+    <t>107739</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 24February2020 16:44:49</t>
+  </si>
+  <si>
+    <t>1707_AutoClient 24February2020 16:44:49</t>
+  </si>
+  <si>
+    <t>107738001</t>
+  </si>
+  <si>
+    <t>107738</t>
+  </si>
+  <si>
+    <t>contact@mdfiindia.com</t>
+  </si>
+  <si>
+    <t>+91 2261083101</t>
+  </si>
+  <si>
+    <t>contact@mdndia.com</t>
+  </si>
+  <si>
+    <t>+91 2261083232</t>
+  </si>
+  <si>
+    <t>cok111</t>
+  </si>
+  <si>
+    <t>Default Name</t>
+  </si>
+  <si>
+    <t>Pepsi1</t>
+  </si>
+  <si>
+    <t>3543214642</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Pespi</t>
+  </si>
+  <si>
+    <t>c1011</t>
   </si>
 </sst>
 </file>
@@ -3784,7 +3880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3987,6 +4083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11438,8 +11535,8 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11675,179 +11772,389 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="106" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>984</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="59" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>236</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="59" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B8" s="100" t="s">
-        <v>1134</v>
+        <v>1095</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="106" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>984</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="59" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>985</v>
       </c>
-      <c r="B4" s="102" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>986</v>
       </c>
-      <c r="B5" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B10" s="100" t="s">
-        <v>1128</v>
+        <v>1095</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>974</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11856,16 +12163,16 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11878,23 +12185,250 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>1112</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B4">
+        <v>107742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>236</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B14" t="s">
         <v>375</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B21">
+        <v>17079905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B30">
+        <v>464576457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B31">
+        <v>34576457</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11903,16 +12437,16 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11925,39 +12459,255 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>1115</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>1033</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>985</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>1114</v>
+        <v>984</v>
+      </c>
+      <c r="B4">
+        <v>107742</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>986</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1126</v>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>998</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B22">
+        <v>17079905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B31">
+        <v>464576457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B32">
+        <v>34576457</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11969,21 +12719,21 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
-        <v>1707</v>
+      <c r="B1" s="50" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11991,7 +12741,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>993</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12004,23 +12754,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>985</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>994</v>
+        <v>1022</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>986</v>
-      </c>
-      <c r="B5" t="s">
-        <v>995</v>
+        <v>1023</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12029,16 +12779,16 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12054,7 +12804,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>993</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12065,9 +12815,41 @@
         <v>375</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>985</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>986</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12337,6 +13119,404 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="101">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="101">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="101">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="101">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="101">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B5" t="s">
+        <v>995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12395,7 +13575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12458,7 +13638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12521,7 +13701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12816,467 +13996,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>987</v>
-      </c>
-      <c r="B2">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>988</v>
-      </c>
-      <c r="B3">
-        <v>107444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>989</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="37">
-        <v>1707</v>
-      </c>
-      <c r="C1" s="37">
-        <v>1712</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>942</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>943</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>944</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>945</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="95" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>946</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>947</v>
-      </c>
-      <c r="C8" s="95" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>948</v>
-      </c>
-      <c r="C9" s="95" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>949</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>950</v>
-      </c>
-      <c r="C11" s="96" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="98" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="96" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>967</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13417,6 +14136,467 @@
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B3">
+        <v>107444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="37">
+        <v>1707</v>
+      </c>
+      <c r="C1" s="37">
+        <v>1712</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>942</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>943</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>944</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>945</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>946</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>947</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>948</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>949</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>950</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>967</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="46" activeTab="49"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="40" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -63,17 +63,20 @@
     <sheet name="AmendCompanyBrand" sheetId="62" r:id="rId49"/>
     <sheet name="AmendGlobalClient" sheetId="55" r:id="rId50"/>
     <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId51"/>
-    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId52"/>
-    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId53"/>
-    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId54"/>
-    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId55"/>
-    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId56"/>
-    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId57"/>
-    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId58"/>
-    <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId59"/>
-    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId60"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId61"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId62"/>
+    <sheet name="AmendGlobalVendor" sheetId="65" r:id="rId52"/>
+    <sheet name="AmendCompanyVendor" sheetId="66" r:id="rId53"/>
+    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId54"/>
+    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId55"/>
+    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId56"/>
+    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId57"/>
+    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId58"/>
+    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId59"/>
+    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId60"/>
+    <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId61"/>
+    <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId62"/>
+    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId63"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId64"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId65"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -85,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1184">
   <si>
     <t>Description</t>
   </si>
@@ -3607,6 +3610,36 @@
   </si>
   <si>
     <t>c1011</t>
+  </si>
+  <si>
+    <t>GlobalVendor_1</t>
+  </si>
+  <si>
+    <t>Global1@yahoo.com</t>
+  </si>
+  <si>
+    <t>TaxNo</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Global@gmail.com</t>
+  </si>
+  <si>
+    <t>Payment Mode</t>
+  </si>
+  <si>
+    <t>IN - NEFT - 1</t>
+  </si>
+  <si>
+    <t>Settling_Company</t>
+  </si>
+  <si>
+    <t>Global@yahoo.com</t>
+  </si>
+  <si>
+    <t>BRISK OFFICE AUTOMATION</t>
   </si>
 </sst>
 </file>
@@ -11536,7 +11569,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11774,8 +11807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13121,7 +13154,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -13297,6 +13330,164 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B5">
+        <v>9586786246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B6" s="59">
+        <v>84625318710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B7" s="59">
+        <v>84625318710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B4">
+        <v>958647231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13339,7 +13530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13402,7 +13593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13465,7 +13656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13512,7 +13703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13575,7 +13766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13635,367 +13826,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>987</v>
-      </c>
-      <c r="B2">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3">
-        <v>107433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="100" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B5">
-        <v>9683254705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B8">
-        <v>6000056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B27">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B28">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14151,6 +13981,502 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3">
+        <v>107433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B5">
+        <v>9683254705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B8">
+        <v>6000056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B28">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B4">
+        <v>9846201537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14206,7 +14532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -14461,7 +14787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -11438,7 +11438,7 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -13431,8 +13431,8 @@
   </sheetPr>
   <dimension ref="A1:BK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13667,13 +13667,10 @@
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1707</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>982</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>368</v>
+        <v>1712</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1016</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
@@ -13694,30 +13691,21 @@
         <v>998312</v>
       </c>
       <c r="J2" t="s">
-        <v>370</v>
+        <v>1017</v>
       </c>
       <c r="K2" t="s">
-        <v>371</v>
-      </c>
-      <c r="L2">
-        <v>25</v>
-      </c>
-      <c r="M2">
-        <v>500</v>
-      </c>
-      <c r="N2">
-        <v>998312</v>
-      </c>
-      <c r="O2">
-        <v>998312</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1712</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1016</v>
+        <v>1707</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>982</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>368</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -13738,10 +13726,22 @@
         <v>998312</v>
       </c>
       <c r="J3" t="s">
-        <v>1017</v>
+        <v>370</v>
       </c>
       <c r="K3" t="s">
-        <v>1018</v>
+        <v>371</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>500</v>
+      </c>
+      <c r="N3">
+        <v>998312</v>
+      </c>
+      <c r="O3">
+        <v>998312</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="40" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1181">
   <si>
     <t>Description</t>
   </si>
@@ -1191,12 +1191,6 @@
     <t>1707_TestAutomationJob</t>
   </si>
   <si>
-    <t>Template Number</t>
-  </si>
-  <si>
-    <t>ZZ1707_RB101_TM-CP</t>
-  </si>
-  <si>
     <t>Client Billable Time</t>
   </si>
   <si>
@@ -3136,9 +3130,6 @@
   </si>
   <si>
     <t>1712_TestAutomationJob</t>
-  </si>
-  <si>
-    <t>ZZ1712_RB102_TM-CP</t>
   </si>
   <si>
     <t>E1024</t>
@@ -4476,7 +4467,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="31"/>
@@ -4491,7 +4482,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4533,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -4562,7 +4553,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4591,7 +4582,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4665,7 +4656,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -4694,7 +4685,7 @@
         <v>51</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -4709,7 +4700,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4724,7 +4715,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4753,7 +4744,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
@@ -4783,7 +4774,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -4923,7 +4914,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="26"/>
@@ -4939,7 +4930,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4987,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="15"/>
@@ -5018,7 +5009,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -5050,7 +5041,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -5130,7 +5121,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="44"/>
@@ -5162,7 +5153,7 @@
         <v>51</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="44"/>
@@ -5178,7 +5169,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -5194,7 +5185,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -5226,7 +5217,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="57"/>
@@ -5258,7 +5249,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -5290,7 +5281,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5306,7 +5297,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5718,7 +5709,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5732,7 +5723,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5740,7 +5731,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5921,8 +5912,8 @@
   </sheetPr>
   <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6112,7 +6103,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6139,112 +6130,112 @@
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="14" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6280,7 +6271,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6300,7 +6291,7 @@
         <v>234</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6331,7 +6322,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6351,7 +6342,7 @@
         <v>234</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6430,7 +6421,7 @@
         <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>127</v>
@@ -6445,10 +6436,10 @@
         <v>130</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>131</v>
@@ -6463,10 +6454,10 @@
         <v>134</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>135</v>
@@ -6481,10 +6472,10 @@
         <v>138</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="W1" s="27" t="s">
         <v>139</v>
@@ -6499,10 +6490,10 @@
         <v>142</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AC1" s="27" t="s">
         <v>143</v>
@@ -6517,10 +6508,10 @@
         <v>146</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AH1" s="27" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AI1" s="27" t="s">
         <v>147</v>
@@ -6535,10 +6526,10 @@
         <v>150</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="AO1" s="27" t="s">
         <v>151</v>
@@ -6553,10 +6544,10 @@
         <v>154</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="AT1" s="27" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AU1" s="27" t="s">
         <v>155</v>
@@ -6571,10 +6562,10 @@
         <v>158</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AZ1" s="27" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="BA1" s="27" t="s">
         <v>159</v>
@@ -6589,10 +6580,10 @@
         <v>162</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="BF1" s="27" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="BG1" s="27" t="s">
         <v>163</v>
@@ -6607,10 +6598,10 @@
         <v>166</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="BL1" s="27" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
@@ -6618,11 +6609,11 @@
         <v>1707</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I2" s="59"/>
       <c r="J2" s="59"/>
@@ -6703,7 +6694,7 @@
         <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>127</v>
@@ -6718,10 +6709,10 @@
         <v>130</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>131</v>
@@ -6736,10 +6727,10 @@
         <v>134</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>135</v>
@@ -6754,10 +6745,10 @@
         <v>138</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="W1" s="27" t="s">
         <v>139</v>
@@ -6772,10 +6763,10 @@
         <v>142</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AC1" s="27" t="s">
         <v>143</v>
@@ -6790,10 +6781,10 @@
         <v>146</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AH1" s="27" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AI1" s="27" t="s">
         <v>147</v>
@@ -6808,10 +6799,10 @@
         <v>150</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="AO1" s="27" t="s">
         <v>151</v>
@@ -6826,10 +6817,10 @@
         <v>154</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="AT1" s="27" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AU1" s="27" t="s">
         <v>155</v>
@@ -6844,10 +6835,10 @@
         <v>158</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AZ1" s="27" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="BA1" s="27" t="s">
         <v>159</v>
@@ -6862,10 +6853,10 @@
         <v>162</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="BF1" s="27" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="BG1" s="27" t="s">
         <v>163</v>
@@ -6880,10 +6871,10 @@
         <v>166</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="BL1" s="27" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
@@ -6891,11 +6882,11 @@
         <v>1707</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I2" s="59"/>
       <c r="J2" s="59"/>
@@ -6905,16 +6896,16 @@
         <v>1712</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="G3">
         <v>25</v>
@@ -6923,10 +6914,10 @@
         <v>500</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -6957,7 +6948,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6994,7 +6985,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7002,7 +6993,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -7339,15 +7330,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B2" s="30">
         <v>83.62</v>
@@ -7355,7 +7346,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B3" s="30">
         <v>1.39</v>
@@ -7363,7 +7354,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B4" s="30">
         <v>4.72</v>
@@ -7371,7 +7362,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B5" s="30">
         <v>323363078.55000001</v>
@@ -7379,7 +7370,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B6" s="30">
         <v>323325.90999999997</v>
@@ -7387,7 +7378,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B7" s="30">
         <v>1.1100000000000001</v>
@@ -7403,7 +7394,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B9" s="30">
         <v>4.55</v>
@@ -7411,7 +7402,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B10" s="30">
         <v>135.61000000000001</v>
@@ -7419,7 +7410,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B11" s="30">
         <v>589.11</v>
@@ -7427,7 +7418,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B12" s="30">
         <v>2.19</v>
@@ -7435,7 +7426,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B13" s="30">
         <v>430.35</v>
@@ -7443,7 +7434,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B14" s="30">
         <v>53.58</v>
@@ -7451,170 +7442,170 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7622,879 +7613,879 @@
         <v>110</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -8605,7 +8596,7 @@
         <v>251</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>241</v>
@@ -8646,16 +8637,16 @@
         <v>1707</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F2" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -9207,28 +9198,28 @@
         <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
         <v>330</v>
@@ -9236,47 +9227,47 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B12" t="s">
         <v>330</v>
@@ -9284,183 +9275,183 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B27" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B31" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B35" t="s">
         <v>330</v>
@@ -9468,31 +9459,31 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B36" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B37" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B38" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B39" t="s">
         <v>330</v>
@@ -9500,7 +9491,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B40" t="s">
         <v>330</v>
@@ -9508,71 +9499,71 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B41" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B43" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B44" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B46" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B48" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s">
         <v>330</v>
@@ -9580,191 +9571,191 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B50" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B54" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B55" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B56" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B58" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B59" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B60" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B61" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B62" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B64" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B65" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B68" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B70" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B71" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s">
         <v>330</v>
@@ -9772,15 +9763,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B75" t="s">
         <v>330</v>
@@ -9788,183 +9779,183 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B76" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B77" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B78" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B79" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B80" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B81" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B82" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B85" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B86" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B87" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B88" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B89" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B90" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B91" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B92" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B93" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B94" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B95" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B96" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B97" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B98" t="s">
         <v>330</v>
@@ -9972,359 +9963,359 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B99" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B100" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B101" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B102" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B103" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B104" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B105" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B106" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B107" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B108" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B109" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B110" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B111" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B112" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B113" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B114" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B115" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B116" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B117" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B118" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B119" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B120" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B121" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B122" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B123" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B124" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B125" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B126" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B127" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B128" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B129" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B130" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B131" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B132" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B133" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B134" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B135" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B136" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B137" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B138" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B139" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B140" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B141" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B142" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B143" t="s">
         <v>330</v>
@@ -10332,47 +10323,47 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B144" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B145" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B146" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B147" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B148" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B149" t="s">
         <v>330</v>
@@ -10380,159 +10371,159 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B150" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B151" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B152" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B153" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B154" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B155" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B156" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B157" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B158" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B159" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B160" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B161" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B162" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B163" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B164" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B165" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B166" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B167" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B168" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B169" t="s">
         <v>330</v>
@@ -10540,47 +10531,47 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B170" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B171" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B172" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B173" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B174" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B175" t="s">
         <v>330</v>
@@ -10588,15 +10579,15 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B176" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B177" t="s">
         <v>330</v>
@@ -10604,63 +10595,63 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B178" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B179" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B180" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B181" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B182" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B183" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B184" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B185" t="s">
         <v>330</v>
@@ -10668,47 +10659,47 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B186" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B187" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B188" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B189" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B190" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B191" t="s">
         <v>330</v>
@@ -10716,135 +10707,135 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B193" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B194" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B195" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B196" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B198" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B199" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B200" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B201" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B202" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B203" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B204" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B205" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B206" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B207" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B208" t="s">
         <v>330</v>
@@ -10852,167 +10843,167 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B209" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B210" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B211" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B212" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B213" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B214" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B215" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B216" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B217" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B218" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B219" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B220" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B221" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B222" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B223" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B224" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B225" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B226" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B227" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B228" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B229" t="s">
         <v>330</v>
@@ -11020,71 +11011,71 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B230" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B231" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B232" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B233" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B234" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B235" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B236" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B237" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B238" t="s">
         <v>330</v>
@@ -11092,47 +11083,47 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B239" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B240" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B241" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B242" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B243" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B244" t="s">
         <v>330</v>
@@ -11140,47 +11131,47 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B245" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B246" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B247" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B248" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B249" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B250" t="s">
         <v>330</v>
@@ -11188,31 +11179,31 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B251" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B252" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B253" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B254" t="s">
         <v>330</v>
@@ -11591,39 +11582,39 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11639,23 +11630,23 @@
         <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11663,23 +11654,23 @@
         <v>236</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B12" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B13" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11687,36 +11678,36 @@
         <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B15" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B18">
         <v>17079905</v>
@@ -11727,44 +11718,44 @@
         <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B20" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B21" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B22" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B23" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B24">
         <v>33</v>
@@ -11772,15 +11763,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B25" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B26">
         <v>464576457</v>
@@ -11788,7 +11779,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B27">
         <v>34576457</v>
@@ -11807,7 +11798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -11823,10 +11814,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="106" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11834,13 +11825,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>363</v>
@@ -11848,24 +11839,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11873,21 +11864,21 @@
         <v>236</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11895,21 +11886,21 @@
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C7" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B8" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C8" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -11917,65 +11908,65 @@
         <v>29</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B11" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C11" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B12" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C12" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B14" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C14" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -12008,10 +11999,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="106" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12019,13 +12010,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>363</v>
@@ -12033,42 +12024,42 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="59" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12076,21 +12067,21 @@
         <v>236</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12098,21 +12089,21 @@
         <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C9" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B10" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C10" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12120,65 +12111,65 @@
         <v>29</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B13" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C13" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B14" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C14" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B16" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C16" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -12221,20 +12212,20 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B4">
         <v>107742</v>
@@ -12242,42 +12233,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B6" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B7" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12293,23 +12284,23 @@
         <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12317,23 +12308,23 @@
         <v>236</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B15" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B16" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12341,36 +12332,36 @@
         <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B18" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B21">
         <v>17079905</v>
@@ -12381,52 +12372,52 @@
         <v>238</v>
       </c>
       <c r="B22" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B23" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B24" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B25" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B26" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B27" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B28">
         <v>33</v>
@@ -12434,15 +12425,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B29" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B30">
         <v>464576457</v>
@@ -12450,7 +12441,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B31">
         <v>34576457</v>
@@ -12495,20 +12486,20 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B4">
         <v>107742</v>
@@ -12516,47 +12507,47 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B6" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B7" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B8" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12572,23 +12563,23 @@
         <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12596,23 +12587,23 @@
         <v>236</v>
       </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B16" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B17" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -12620,36 +12611,36 @@
         <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B19" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B22">
         <v>17079905</v>
@@ -12660,52 +12651,52 @@
         <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B24" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B25" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B26" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B27" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B28" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B29">
         <v>33</v>
@@ -12713,15 +12704,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B30" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B31">
         <v>464576457</v>
@@ -12729,7 +12720,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B32">
         <v>34576457</v>
@@ -12766,15 +12757,15 @@
         <v>5</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12782,23 +12773,23 @@
         <v>236</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
   </sheetData>
@@ -12829,15 +12820,15 @@
         <v>5</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12845,39 +12836,39 @@
         <v>236</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B7" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -12937,10 +12928,10 @@
         <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -12963,10 +12954,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -12976,10 +12967,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -13018,7 +13009,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -13031,7 +13022,7 @@
         <v>364</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="8"/>
@@ -13044,7 +13035,7 @@
         <v>217</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -13057,7 +13048,7 @@
         <v>365</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="8"/>
@@ -13067,10 +13058,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -13080,10 +13071,10 @@
         <v>58</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="32"/>
@@ -13093,10 +13084,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="69"/>
@@ -13109,7 +13100,7 @@
         <v>366</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
@@ -13174,10 +13165,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13185,38 +13176,38 @@
         <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B4" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -13255,10 +13246,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13266,54 +13257,54 @@
         <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B6" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -13357,10 +13348,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13368,12 +13359,12 @@
         <v>29</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B5">
         <v>9586786246</v>
@@ -13381,7 +13372,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B6" s="59">
         <v>84625318710</v>
@@ -13389,7 +13380,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B7" s="59">
         <v>84625318710</v>
@@ -13397,10 +13388,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -13447,12 +13438,12 @@
         <v>29</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B4">
         <v>958647231</v>
@@ -13460,18 +13451,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B6" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
@@ -13510,10 +13501,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13521,7 +13512,7 @@
         <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -13557,10 +13548,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13568,23 +13559,23 @@
         <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -13620,10 +13611,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13631,23 +13622,23 @@
         <v>236</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -13678,15 +13669,15 @@
         <v>5</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13694,7 +13685,7 @@
         <v>236</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -13730,7 +13721,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B2" s="1">
         <v>103115</v>
@@ -13741,23 +13732,23 @@
         <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -13793,7 +13784,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B2" s="105">
         <v>103132</v>
@@ -13804,23 +13795,23 @@
         <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -14000,7 +13991,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -14016,10 +14007,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14027,7 +14018,7 @@
         <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -14066,15 +14057,15 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B3" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14082,12 +14073,12 @@
         <v>29</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B5">
         <v>9683254705</v>
@@ -14098,20 +14089,20 @@
         <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B7" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B8">
         <v>6000056</v>
@@ -14119,10 +14110,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B9" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14135,90 +14126,90 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B13" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B14" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B15" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B16" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B17" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B18" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B20" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B21" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14226,44 +14217,44 @@
         <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B23" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B24" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B25" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B26" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -14271,7 +14262,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B28">
         <v>300000</v>
@@ -14279,47 +14270,47 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B29" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B30" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B31" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B32" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B33" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B34" t="s">
         <v>313</v>
@@ -14358,10 +14349,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -14369,12 +14360,12 @@
         <v>29</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B4">
         <v>9846201537</v>
@@ -14382,42 +14373,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B5" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B6" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B7" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B8" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B9" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14425,20 +14416,20 @@
         <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B11" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -14446,7 +14437,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B13">
         <v>100000</v>
@@ -14457,7 +14448,7 @@
         <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -14496,7 +14487,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -14504,7 +14495,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B3">
         <v>107444</v>
@@ -14512,10 +14503,10 @@
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14523,7 +14514,7 @@
         <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -14576,10 +14567,10 @@
         <v>186</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -14597,10 +14588,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -14618,10 +14609,10 @@
         <v>187</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -14639,10 +14630,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -14663,7 +14654,7 @@
         <v>362</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -14681,10 +14672,10 @@
         <v>188</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -14702,10 +14693,10 @@
         <v>189</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -14723,10 +14714,10 @@
         <v>190</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -14744,10 +14735,10 @@
         <v>191</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -14765,10 +14756,10 @@
         <v>192</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -14817,7 +14808,7 @@
         <v>168</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -14825,7 +14816,7 @@
         <v>169</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14833,7 +14824,7 @@
         <v>171</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14841,7 +14832,7 @@
         <v>172</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14849,7 +14840,7 @@
         <v>173</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -14857,7 +14848,7 @@
         <v>174</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -14865,7 +14856,7 @@
         <v>175</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -14873,7 +14864,7 @@
         <v>176</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14881,7 +14872,7 @@
         <v>178</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -14889,7 +14880,7 @@
         <v>179</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -14897,7 +14888,7 @@
         <v>180</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -14905,7 +14896,7 @@
         <v>182</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -14913,7 +14904,7 @@
         <v>183</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14921,7 +14912,7 @@
         <v>185</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -14935,52 +14926,51 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BK3"/>
+  <dimension ref="A1:BJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>67</v>
       </c>
@@ -14988,266 +14978,257 @@
         <v>197</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>130</v>
+        <v>939</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>940</v>
+        <v>131</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>134</v>
+        <v>937</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>938</v>
+        <v>135</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>138</v>
+        <v>934</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>937</v>
+        <v>139</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y1" s="27" t="s">
-        <v>142</v>
+        <v>932</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>935</v>
+        <v>143</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AC1" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AD1" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>146</v>
+        <v>931</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>932</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>150</v>
+        <v>929</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>930</v>
+        <v>151</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO1" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AP1" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AQ1" s="27" t="s">
-        <v>154</v>
+        <v>927</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>928</v>
+        <v>155</v>
       </c>
       <c r="AT1" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AU1" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AV1" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AW1" s="27" t="s">
-        <v>158</v>
+        <v>925</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>926</v>
+        <v>159</v>
       </c>
       <c r="AZ1" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BA1" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BB1" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BC1" s="27" t="s">
-        <v>162</v>
+        <v>922</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>925</v>
+        <v>163</v>
       </c>
       <c r="BF1" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BG1" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BH1" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BI1" s="27" t="s">
-        <v>166</v>
+        <v>921</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>923</v>
-      </c>
-      <c r="BK1" s="27" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1707</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>982</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>368</v>
+        <v>980</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>369</v>
+        <v>367</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>998312</v>
       </c>
       <c r="H2">
         <v>998312</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>500</v>
+      </c>
+      <c r="M2">
         <v>998312</v>
-      </c>
-      <c r="J2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K2" t="s">
-        <v>371</v>
-      </c>
-      <c r="L2">
-        <v>25</v>
-      </c>
-      <c r="M2">
-        <v>500</v>
       </c>
       <c r="N2">
         <v>998312</v>
       </c>
-      <c r="O2">
-        <v>998312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1712</v>
       </c>
       <c r="C3" t="s">
-        <v>1016</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>369</v>
+        <v>367</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>998312</v>
       </c>
       <c r="H3">
         <v>998312</v>
       </c>
-      <c r="I3">
-        <v>998312</v>
+      <c r="I3" t="s">
+        <v>1014</v>
       </c>
       <c r="J3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -15576,7 +15557,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15584,7 +15565,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15592,7 +15573,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1180">
   <si>
     <t>Description</t>
   </si>
@@ -3504,15 +3504,9 @@
     <t>AutoGlobalBrand 04March2020 16:24:02</t>
   </si>
   <si>
-    <t>107762001001</t>
-  </si>
-  <si>
     <t>AutoGlobalProduct 04March2020 16:24:02</t>
   </si>
   <si>
-    <t>1707105274</t>
-  </si>
-  <si>
     <t>1712_INR_Billable_Price_List</t>
   </si>
   <si>
@@ -3631,6 +3625,9 @@
   </si>
   <si>
     <t>BRISK OFFICE AUTOMATION</t>
+  </si>
+  <si>
+    <t>1707105275</t>
   </si>
 </sst>
 </file>
@@ -5912,8 +5909,8 @@
   </sheetPr>
   <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,7 +6100,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1140</v>
+        <v>1179</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6210,16 +6207,13 @@
       <c r="A18" s="30" t="s">
         <v>1070</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>1138</v>
-      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>1071</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -11817,7 +11811,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11842,10 +11836,10 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11853,10 +11847,10 @@
         <v>1030</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11872,13 +11866,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11897,10 +11891,10 @@
         <v>1092</v>
       </c>
       <c r="B8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -11908,26 +11902,26 @@
         <v>29</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B11" t="s">
         <v>1044</v>
@@ -11941,21 +11935,21 @@
         <v>1095</v>
       </c>
       <c r="B12" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C12" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B13" s="59" t="s">
         <v>1054</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12002,7 +11996,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12027,10 +12021,10 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12039,7 +12033,7 @@
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12047,10 +12041,10 @@
         <v>1030</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12059,7 +12053,7 @@
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="59" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12075,13 +12069,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12100,10 +12094,10 @@
         <v>1092</v>
       </c>
       <c r="B10" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C10" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12111,26 +12105,26 @@
         <v>29</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B13" t="s">
         <v>1044</v>
@@ -12144,21 +12138,21 @@
         <v>1095</v>
       </c>
       <c r="B14" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C14" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B15" s="59" t="s">
         <v>1054</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12236,15 +12230,15 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B6" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12300,7 +12294,7 @@
         <v>1040</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12393,10 +12387,10 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B25" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -12515,15 +12509,15 @@
         <v>996</v>
       </c>
       <c r="B6" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B7" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12579,7 +12573,7 @@
         <v>1040</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12672,10 +12666,10 @@
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B26" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -12781,7 +12775,7 @@
         <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12789,7 +12783,7 @@
         <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -12844,7 +12838,7 @@
         <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12852,7 +12846,7 @@
         <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13351,7 +13345,7 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13359,7 +13353,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13380,7 +13374,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B7" s="59">
         <v>84625318710</v>
@@ -13388,7 +13382,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
@@ -13438,7 +13432,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13451,7 +13445,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B5" t="s">
         <v>373</v>
@@ -13459,10 +13453,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B6" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
   </sheetData>
@@ -14349,7 +14343,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1003</v>
@@ -14360,7 +14354,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14424,7 +14418,7 @@
         <v>1000</v>
       </c>
       <c r="B11" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="60" activeTab="62"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="1174">
   <si>
     <t>Description</t>
   </si>
@@ -3045,18 +3045,6 @@
     <t>Brand Name</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>CompanyVendor Number</t>
-  </si>
-  <si>
-    <t>CompanyVendor Name</t>
-  </si>
-  <si>
-    <t>AARUN AASHIYANA</t>
-  </si>
-  <si>
     <t>Blocked Global Brand No</t>
   </si>
   <si>
@@ -3093,9 +3081,6 @@
     <t>Vendor Name</t>
   </si>
   <si>
-    <t>30 SECONDS OF FAME</t>
-  </si>
-  <si>
     <t>1707-Wunderman Thompson Mumbai</t>
   </si>
   <si>
@@ -3312,9 +3297,6 @@
     <t>Amended Global Brand No</t>
   </si>
   <si>
-    <t>12 1st cross street</t>
-  </si>
-  <si>
     <t>Post</t>
   </si>
   <si>
@@ -3360,9 +3342,6 @@
     <t>BankAcctNo</t>
   </si>
   <si>
-    <t>3894700</t>
-  </si>
-  <si>
     <t>SortCode</t>
   </si>
   <si>
@@ -3471,18 +3450,6 @@
     <t>No.2  Ward No.83343</t>
   </si>
   <si>
-    <t>8796504345</t>
-  </si>
-  <si>
-    <t>GlobalVendor</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>Automationglobalvendor@yahoo.com</t>
-  </si>
-  <si>
     <t>AutoUseroneEmailone@gmail.com</t>
   </si>
   <si>
@@ -3597,21 +3564,12 @@
     <t>c1011</t>
   </si>
   <si>
-    <t>GlobalVendor_1</t>
-  </si>
-  <si>
-    <t>Global1@yahoo.com</t>
-  </si>
-  <si>
     <t>TaxNo</t>
   </si>
   <si>
     <t>currency</t>
   </si>
   <si>
-    <t>Global@gmail.com</t>
-  </si>
-  <si>
     <t>Payment Mode</t>
   </si>
   <si>
@@ -3621,13 +3579,37 @@
     <t>Settling_Company</t>
   </si>
   <si>
-    <t>Global@yahoo.com</t>
-  </si>
-  <si>
-    <t>BRISK OFFICE AUTOMATION</t>
-  </si>
-  <si>
     <t>1707105275</t>
+  </si>
+  <si>
+    <t>Nathabhai@yahoo.com</t>
+  </si>
+  <si>
+    <t>Govindbhai Nathabhai Tank</t>
+  </si>
+  <si>
+    <t>21st cross street</t>
+  </si>
+  <si>
+    <t>vglobal@yahoo.com</t>
+  </si>
+  <si>
+    <t>Vendor_Global</t>
+  </si>
+  <si>
+    <t>IDBI</t>
+  </si>
+  <si>
+    <t>3894700114</t>
+  </si>
+  <si>
+    <t>nathabhai@gmail.com</t>
+  </si>
+  <si>
+    <t>Govindbhai Nathabhai</t>
+  </si>
+  <si>
+    <t>Govindbhai@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3901,7 +3883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4105,6 +4087,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5909,14 +5924,14 @@
   </sheetPr>
   <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="30" customWidth="1"/>
     <col min="3" max="3" width="51.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="167" width="32" style="30" customWidth="1"/>
     <col min="168" max="16384" width="9.140625" style="30"/>
@@ -5929,7 +5944,9 @@
       <c r="B1" s="14">
         <v>1707</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="107" t="s">
+        <v>1137</v>
+      </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -6100,7 +6117,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6152,84 +6169,84 @@
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="14" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6415,7 +6432,7 @@
         <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>127</v>
@@ -6688,7 +6705,7 @@
         <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>127</v>
@@ -6896,10 +6913,10 @@
         <v>950</v>
       </c>
       <c r="E3" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="F3" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="G3">
         <v>25</v>
@@ -6987,7 +7004,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -8631,16 +8648,16 @@
         <v>1707</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F2" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -11576,39 +11593,39 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B3" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B4" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11624,23 +11641,23 @@
         <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11653,18 +11670,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B12" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B13" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11672,36 +11689,36 @@
         <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B15" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B18">
         <v>17079905</v>
@@ -11712,44 +11729,44 @@
         <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B20" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B21" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="B22" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="B23" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="B24">
         <v>33</v>
@@ -11757,15 +11774,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B25" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B26">
         <v>464576457</v>
@@ -11773,7 +11790,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B27">
         <v>34576457</v>
@@ -11811,7 +11828,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11819,13 +11836,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>363</v>
@@ -11836,21 +11853,21 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11866,13 +11883,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11880,21 +11897,21 @@
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C7" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B8" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="C8" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -11902,65 +11919,65 @@
         <v>29</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="B11" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C11" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="B12" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="C12" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B14" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C14" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -11996,7 +12013,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12004,13 +12021,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>363</v>
@@ -12021,10 +12038,10 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12033,18 +12050,18 @@
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12053,7 +12070,7 @@
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="59" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12069,13 +12086,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12083,21 +12100,21 @@
         <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C9" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B10" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="C10" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12105,65 +12122,65 @@
         <v>29</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="B13" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C13" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="B14" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="C14" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B16" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C16" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -12206,15 +12223,15 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B3" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12230,39 +12247,39 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="B6" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B7" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12278,23 +12295,23 @@
         <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12307,18 +12324,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B15" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B16" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12326,36 +12343,36 @@
         <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B18" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B21">
         <v>17079905</v>
@@ -12366,52 +12383,52 @@
         <v>238</v>
       </c>
       <c r="B22" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B23" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B24" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="B25" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="B26" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="B27" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="B28">
         <v>33</v>
@@ -12419,15 +12436,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B29" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B30">
         <v>464576457</v>
@@ -12435,7 +12452,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B31">
         <v>34576457</v>
@@ -12480,15 +12497,15 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B3" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12506,42 +12523,42 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B6" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="B7" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B8" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12557,23 +12574,23 @@
         <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12586,18 +12603,18 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B16" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B17" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -12605,36 +12622,36 @@
         <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B19" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B22">
         <v>17079905</v>
@@ -12645,52 +12662,52 @@
         <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B24" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B25" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="B26" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="B27" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="B28" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="B29">
         <v>33</v>
@@ -12698,15 +12715,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B30" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B31">
         <v>464576457</v>
@@ -12714,7 +12731,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B32">
         <v>34576457</v>
@@ -12759,7 +12776,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12772,18 +12789,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
@@ -12822,7 +12839,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12835,18 +12852,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12854,7 +12871,7 @@
         <v>983</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12862,7 +12879,7 @@
         <v>984</v>
       </c>
       <c r="B7" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
@@ -12922,10 +12939,10 @@
         <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -12948,10 +12965,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -12961,10 +12978,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -13003,7 +13020,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -13016,7 +13033,7 @@
         <v>364</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="8"/>
@@ -13029,7 +13046,7 @@
         <v>217</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -13042,7 +13059,7 @@
         <v>365</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="8"/>
@@ -13052,10 +13069,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -13065,10 +13082,10 @@
         <v>58</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="32"/>
@@ -13078,10 +13095,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="69"/>
@@ -13094,7 +13111,7 @@
         <v>366</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
@@ -13162,7 +13179,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13175,33 +13192,33 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B4" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
     </row>
   </sheetData>
@@ -13243,7 +13260,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13259,7 +13276,7 @@
         <v>983</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13267,38 +13284,38 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B6" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -13318,7 +13335,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13328,63 +13345,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="B1">
-        <v>1707</v>
+      <c r="B1" s="118">
+        <v>1712</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="118" t="s">
         <v>218</v>
       </c>
+      <c r="B2" s="118">
+        <v>107612</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1169</v>
+      <c r="A3" s="118" t="s">
+        <v>996</v>
+      </c>
+      <c r="B3" s="118" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="100" t="s">
-        <v>1170</v>
+      <c r="B4" s="121" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B5">
-        <v>9586786246</v>
+      <c r="A5" s="118" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B5" s="118">
+        <v>9586783246</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B6" s="59">
-        <v>84625318710</v>
+      <c r="A6" s="118" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B6" s="120">
+        <v>846253110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B7" s="59">
-        <v>84625318710</v>
+      <c r="A7" s="118" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B7" s="120">
+        <v>846253110</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="118" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B8" s="118" t="s">
         <v>373</v>
       </c>
     </row>
@@ -13405,7 +13425,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13415,48 +13435,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="116" t="s">
         <v>239</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="115">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="115" t="s">
         <v>218</v>
       </c>
+      <c r="B2" s="115">
+        <v>107612</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="100" t="s">
-        <v>1173</v>
+      <c r="B3" s="117" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B4">
-        <v>958647231</v>
+      <c r="A4" s="115" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B4" s="115">
+        <v>9564207231</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="115" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B5" s="115" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1175</v>
+      <c r="A6" s="115" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>1161</v>
       </c>
     </row>
   </sheetData>
@@ -13498,7 +13521,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13545,7 +13568,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13561,7 +13584,7 @@
         <v>983</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13569,7 +13592,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
@@ -13608,7 +13631,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13624,7 +13647,7 @@
         <v>983</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13632,7 +13655,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -13671,7 +13694,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13734,7 +13757,7 @@
         <v>983</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13742,7 +13765,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -13794,18 +13817,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -13963,10 +13986,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13976,42 +13999,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="B1">
-        <v>1707</v>
+      <c r="B1" s="122">
+        <v>1712</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>985</v>
-      </c>
-      <c r="B2">
-        <v>1707</v>
+      <c r="A2" s="122" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="122">
+        <v>107612</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3">
-        <v>107433</v>
+      <c r="A3" s="122" t="s">
+        <v>996</v>
+      </c>
+      <c r="B3" s="122" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A4" s="122" t="s">
         <v>236</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" s="122" t="s">
         <v>373</v>
       </c>
     </row>
@@ -14028,8 +14043,8 @@
   </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A22" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14039,274 +14054,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="111">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1002</v>
+      <c r="B2" s="112" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="111" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="114" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="111" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B5" s="111">
+        <v>9007464705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="111" t="s">
+        <v>996</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B8" s="111">
+        <v>6000056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="111" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="111" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B11" s="113">
+        <v>2204253187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="111" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B12" s="113">
+        <v>84548662531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="111" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="111" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="111" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B15" s="111" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="111" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="111" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="111" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B18" s="111" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="111" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="111" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="111" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B21" s="111" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="111" t="s">
         <v>1032</v>
       </c>
-      <c r="B3" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="100" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B5">
-        <v>9683254705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B8">
-        <v>6000056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="111" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B23" s="111" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="111" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B24" s="111" t="s">
         <v>1078</v>
       </c>
-      <c r="B11" s="59" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="111" t="s">
         <v>1088</v>
       </c>
-      <c r="B18" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B25" s="111" t="s">
         <v>1089</v>
       </c>
-      <c r="B19" s="59" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="111" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B26" s="111" t="s">
         <v>1091</v>
       </c>
-      <c r="B20" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="111" t="s">
         <v>1092</v>
       </c>
-      <c r="B21" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B27" s="111">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="111" t="s">
         <v>1093</v>
       </c>
-      <c r="B23" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B28" s="111">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="111" t="s">
         <v>1094</v>
       </c>
-      <c r="B24" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B29" s="111" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="111" t="s">
         <v>1095</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" s="111" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="111" t="s">
         <v>1097</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" s="111" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="111" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B32" s="111" t="s">
         <v>1099</v>
       </c>
-      <c r="B27">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="111" t="s">
         <v>1100</v>
       </c>
-      <c r="B28">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B33" s="111" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="111" t="s">
         <v>1101</v>
       </c>
-      <c r="B29" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B34" s="111" t="s">
         <v>313</v>
       </c>
     </row>
@@ -14324,7 +14339,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14334,115 +14349,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="B1">
-        <v>1712</v>
+      <c r="B1" s="108">
+        <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1003</v>
+      <c r="A2" s="108" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="100" t="s">
-        <v>1177</v>
+      <c r="B3" s="110" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B4">
-        <v>9846201537</v>
+      <c r="A4" s="108" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B4" s="108">
+        <v>9878421036</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="108" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="108" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="108" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="108" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="108" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="108" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>996</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="108" t="s">
         <v>1092</v>
       </c>
-      <c r="B5" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B12" s="108">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="108" t="s">
         <v>1093</v>
       </c>
-      <c r="B6" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B13">
-        <v>100000</v>
+      <c r="B13" s="108">
+        <v>15000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="B14" t="s">
-        <v>1037</v>
+      <c r="B14" s="108" t="s">
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -14459,10 +14474,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14472,44 +14487,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="125" t="s">
         <v>239</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="124">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>985</v>
-      </c>
-      <c r="B2">
-        <v>1707</v>
+      <c r="A2" s="124" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="124">
+        <v>107612</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>986</v>
-      </c>
-      <c r="B3">
-        <v>107444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>987</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A3" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B3" s="124" t="s">
         <v>373</v>
       </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="103"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14564,7 +14566,7 @@
         <v>940</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -14585,7 +14587,7 @@
         <v>941</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -14606,7 +14608,7 @@
         <v>942</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -14627,7 +14629,7 @@
         <v>943</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -14648,7 +14650,7 @@
         <v>362</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -14669,7 +14671,7 @@
         <v>944</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -14690,7 +14692,7 @@
         <v>945</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -14711,7 +14713,7 @@
         <v>946</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -14732,7 +14734,7 @@
         <v>947</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -14753,7 +14755,7 @@
         <v>948</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -15219,10 +15221,10 @@
         <v>998312</v>
       </c>
       <c r="I3" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="J3" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -15559,7 +15561,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15567,7 +15569,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="60" activeTab="62"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="40" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="1175">
   <si>
     <t>Description</t>
   </si>
@@ -3456,9 +3456,6 @@
     <t>No.2  Ward No.8456</t>
   </si>
   <si>
-    <t>3543224602</t>
-  </si>
-  <si>
     <t>107762</t>
   </si>
   <si>
@@ -3610,6 +3607,12 @@
   </si>
   <si>
     <t>Govindbhai@gmail.com</t>
+  </si>
+  <si>
+    <t>2313167867</t>
+  </si>
+  <si>
+    <t>3543245765</t>
   </si>
 </sst>
 </file>
@@ -5945,7 +5948,7 @@
         <v>1707</v>
       </c>
       <c r="C1" s="107" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -6117,7 +6120,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6172,7 +6175,7 @@
         <v>985</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
@@ -6180,7 +6183,7 @@
         <v>986</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.25">
@@ -6193,7 +6196,7 @@
         <v>1061</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
@@ -6201,7 +6204,7 @@
         <v>1062</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
@@ -6209,7 +6212,7 @@
         <v>1063</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6217,7 +6220,7 @@
         <v>1064</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6230,7 +6233,7 @@
         <v>1066</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6238,7 +6241,7 @@
         <v>1067</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6246,7 +6249,7 @@
         <v>1068</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -11570,8 +11573,8 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11648,16 +11651,16 @@
       <c r="A9" t="s">
         <v>1033</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>1034</v>
+      <c r="B9" s="120" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1035</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>1122</v>
+      <c r="B10" s="120" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11828,7 +11831,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11853,10 +11856,10 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11864,10 +11867,10 @@
         <v>1025</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11883,13 +11886,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11908,10 +11911,10 @@
         <v>1085</v>
       </c>
       <c r="B8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -11919,26 +11922,26 @@
         <v>29</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B11" t="s">
         <v>1039</v>
@@ -11952,21 +11955,21 @@
         <v>1088</v>
       </c>
       <c r="B12" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C12" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B13" s="59" t="s">
         <v>1049</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12013,7 +12016,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12038,10 +12041,10 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12050,7 +12053,7 @@
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12058,10 +12061,10 @@
         <v>1025</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12070,7 +12073,7 @@
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="59" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12086,13 +12089,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12111,10 +12114,10 @@
         <v>1085</v>
       </c>
       <c r="B10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12122,26 +12125,26 @@
         <v>29</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B13" t="s">
         <v>1039</v>
@@ -12155,21 +12158,21 @@
         <v>1088</v>
       </c>
       <c r="B14" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C14" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B15" s="59" t="s">
         <v>1049</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12247,15 +12250,15 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B6" t="s">
         <v>1152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12311,7 +12314,7 @@
         <v>1035</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12404,10 +12407,10 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B25" t="s">
         <v>1155</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -12526,15 +12529,15 @@
         <v>992</v>
       </c>
       <c r="B6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B7" t="s">
         <v>1152</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12590,7 +12593,7 @@
         <v>1035</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12683,10 +12686,10 @@
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B26" t="s">
         <v>1155</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -12792,7 +12795,7 @@
         <v>1014</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12800,7 +12803,7 @@
         <v>1015</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
@@ -12855,7 +12858,7 @@
         <v>1014</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12863,7 +12866,7 @@
         <v>1015</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13365,7 +13368,7 @@
         <v>996</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13373,7 +13376,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="121" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13394,7 +13397,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B7" s="120">
         <v>846253110</v>
@@ -13402,7 +13405,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="118" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B8" s="118" t="s">
         <v>373</v>
@@ -13455,7 +13458,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="117" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13468,7 +13471,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B5" s="115" t="s">
         <v>373</v>
@@ -13476,10 +13479,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="115" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B6" s="115" t="s">
         <v>1160</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>1161</v>
       </c>
     </row>
   </sheetData>
@@ -14019,7 +14022,7 @@
         <v>996</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14074,7 +14077,7 @@
         <v>1027</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14082,7 +14085,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14106,7 +14109,7 @@
         <v>996</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -14178,7 +14181,7 @@
         <v>1079</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14202,7 +14205,7 @@
         <v>1083</v>
       </c>
       <c r="B19" s="113" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -14358,7 +14361,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B2" s="109" t="s">
         <v>997</v>
@@ -14369,7 +14372,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14433,7 +14436,7 @@
         <v>996</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -14476,7 +14479,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1181">
   <si>
     <t>Description</t>
   </si>
@@ -3628,6 +3628,9 @@
   </si>
   <si>
     <t>1707105275</t>
+  </si>
+  <si>
+    <t>107762001001</t>
   </si>
 </sst>
 </file>
@@ -5909,8 +5912,8 @@
   </sheetPr>
   <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6207,6 +6210,9 @@
       <c r="A18" s="30" t="s">
         <v>1070</v>
       </c>
+      <c r="B18" s="30" t="s">
+        <v>1180</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="40" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="43" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1177">
   <si>
     <t>Description</t>
   </si>
@@ -3540,9 +3540,6 @@
     <t>+91 2261083232</t>
   </si>
   <si>
-    <t>cok111</t>
-  </si>
-  <si>
     <t>Default Name</t>
   </si>
   <si>
@@ -3613,6 +3610,15 @@
   </si>
   <si>
     <t>3543245765</t>
+  </si>
+  <si>
+    <t>107742</t>
+  </si>
+  <si>
+    <t>cok1112</t>
+  </si>
+  <si>
+    <t>3543215664</t>
   </si>
 </sst>
 </file>
@@ -4407,48 +4413,59 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="73">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="73">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="94" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="94" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6120,7 +6137,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -11573,7 +11590,7 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -11652,7 +11669,7 @@
         <v>1033</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -11660,7 +11677,7 @@
         <v>1035</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12203,8 +12220,8 @@
   </sheetPr>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12241,8 +12258,8 @@
       <c r="A4" t="s">
         <v>982</v>
       </c>
-      <c r="B4">
-        <v>107742</v>
+      <c r="B4" s="120" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12250,15 +12267,15 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1150</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B6" t="s">
         <v>1151</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12313,8 +12330,8 @@
       <c r="A13" t="s">
         <v>1035</v>
       </c>
-      <c r="B13" s="59" t="s">
-        <v>1153</v>
+      <c r="B13" s="120" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12407,10 +12424,10 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B25" t="s">
         <v>1154</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -12529,15 +12546,15 @@
         <v>992</v>
       </c>
       <c r="B6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B7" t="s">
         <v>1151</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12593,7 +12610,7 @@
         <v>1035</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12686,10 +12703,10 @@
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B26" t="s">
         <v>1154</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -13368,7 +13385,7 @@
         <v>996</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13376,7 +13393,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="121" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13397,7 +13414,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B7" s="120">
         <v>846253110</v>
@@ -13405,7 +13422,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="118" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B8" s="118" t="s">
         <v>373</v>
@@ -13458,7 +13475,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="117" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13471,7 +13488,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B5" s="115" t="s">
         <v>373</v>
@@ -13479,10 +13496,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="115" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B6" s="115" t="s">
         <v>1159</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>1160</v>
       </c>
     </row>
   </sheetData>
@@ -14022,7 +14039,7 @@
         <v>996</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14077,7 +14094,7 @@
         <v>1027</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14085,7 +14102,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14109,7 +14126,7 @@
         <v>996</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -14181,7 +14198,7 @@
         <v>1079</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14205,7 +14222,7 @@
         <v>1083</v>
       </c>
       <c r="B19" s="113" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -14361,7 +14378,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B2" s="109" t="s">
         <v>997</v>
@@ -14372,7 +14389,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14436,7 +14453,7 @@
         <v>996</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1176">
   <si>
     <t>Description</t>
   </si>
@@ -3615,10 +3615,7 @@
     <t>107742</t>
   </si>
   <si>
-    <t>cok1112</t>
-  </si>
-  <si>
-    <t>3543215664</t>
+    <t>cok500</t>
   </si>
 </sst>
 </file>
@@ -12221,7 +12218,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12331,7 +12328,7 @@
         <v>1035</v>
       </c>
       <c r="B13" s="120" t="s">
-        <v>1176</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="43" activeTab="45"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="60" activeTab="61"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3576,12 +3576,6 @@
     <t>1707105275</t>
   </si>
   <si>
-    <t>Nathabhai@yahoo.com</t>
-  </si>
-  <si>
-    <t>Govindbhai Nathabhai Tank</t>
-  </si>
-  <si>
     <t>21st cross street</t>
   </si>
   <si>
@@ -3616,6 +3610,12 @@
   </si>
   <si>
     <t>cok500</t>
+  </si>
+  <si>
+    <t>Lemurian@yahoo.com</t>
+  </si>
+  <si>
+    <t>Lemurian Production</t>
   </si>
 </sst>
 </file>
@@ -3889,7 +3889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4096,11 +4096,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11665,16 +11660,16 @@
       <c r="A9" t="s">
         <v>1033</v>
       </c>
-      <c r="B9" s="120" t="s">
-        <v>1172</v>
+      <c r="B9" s="117" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1035</v>
       </c>
-      <c r="B10" s="120" t="s">
-        <v>1173</v>
+      <c r="B10" s="117" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12217,7 +12212,7 @@
   </sheetPr>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -12255,8 +12250,8 @@
       <c r="A4" t="s">
         <v>982</v>
       </c>
-      <c r="B4" s="120" t="s">
-        <v>1174</v>
+      <c r="B4" s="117" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12264,7 +12259,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12327,7 +12322,7 @@
       <c r="A13" t="s">
         <v>1035</v>
       </c>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="117" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -13362,66 +13357,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="116" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="118">
+      <c r="B1" s="115">
         <v>1712</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="118">
+      <c r="B2" s="115">
         <v>107612</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="115" t="s">
         <v>996</v>
       </c>
-      <c r="B3" s="118" t="s">
-        <v>1170</v>
+      <c r="B3" s="115" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="121" t="s">
-        <v>1171</v>
+      <c r="B4" s="118" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="115" t="s">
         <v>1014</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="115">
         <v>9586783246</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="115" t="s">
         <v>1073</v>
       </c>
-      <c r="B6" s="120">
+      <c r="B6" s="117">
         <v>846253110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="115" t="s">
         <v>1156</v>
       </c>
-      <c r="B7" s="120">
+      <c r="B7" s="117">
         <v>846253110</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="115" t="s">
         <v>1157</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="115" t="s">
         <v>373</v>
       </c>
     </row>
@@ -13452,50 +13447,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="113" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="115">
+      <c r="B1" s="112">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="115">
+      <c r="B2" s="112">
         <v>107612</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="117" t="s">
-        <v>1169</v>
+      <c r="B3" s="114" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="112" t="s">
         <v>1014</v>
       </c>
-      <c r="B4" s="115">
+      <c r="B4" s="112">
         <v>9564207231</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="112" t="s">
         <v>1157</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="112" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="112" t="s">
         <v>1158</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -14016,34 +14011,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="122">
+      <c r="B1" s="119">
         <v>1712</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="122">
+      <c r="B2" s="119">
         <v>107612</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="119" t="s">
         <v>996</v>
       </c>
-      <c r="B3" s="122" t="s">
-        <v>1170</v>
+      <c r="B3" s="119" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="119" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="119" t="s">
         <v>373</v>
       </c>
     </row>
@@ -14071,274 +14066,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="111">
+      <c r="B1" s="108">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="109" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="108" t="s">
         <v>1027</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="108" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="108" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B5" s="108">
+        <v>9007464705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="108" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="108" t="s">
+        <v>996</v>
+      </c>
+      <c r="B7" s="108" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="114" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="108" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B8" s="108">
+        <v>6000056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="108" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B11" s="110">
+        <v>2204253187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="108" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B12" s="110">
+        <v>84548662531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="108" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="108" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="108" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="108" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B16" s="108" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B5" s="111">
-        <v>9007464705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="111" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
-        <v>996</v>
-      </c>
-      <c r="B7" s="111" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="108" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B18" s="108" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="108" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B19" s="110" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B8" s="111">
-        <v>6000056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="111" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="111" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B11" s="113">
-        <v>2204253187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="111" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B12" s="113">
-        <v>84548662531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B13" s="111" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="111" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B14" s="111" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="111" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B15" s="111" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="108" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B20" s="108" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="111" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B16" s="111" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="111" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B17" s="111" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="111" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B18" s="111" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="108" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B21" s="108" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="111" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B19" s="113" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="111" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B20" s="111" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="108" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="108" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="108" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B23" s="108" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="108" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B24" s="108" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="111" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B21" s="111" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="108" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B25" s="108" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="108" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B26" s="108" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="108" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B27" s="108">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="108" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B28" s="108">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="108" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B29" s="108" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="108" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B30" s="108" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="108" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B31" s="108" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="108" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B32" s="108" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="108" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B33" s="108" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" s="111" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="111" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B23" s="111" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="111" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B24" s="111" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="111" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B25" s="111" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="111" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B26" s="111" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="111" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B27" s="111">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="111" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B28" s="111">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B29" s="111" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="111" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B30" s="111" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="111" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B31" s="111" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="111" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B32" s="111" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="111" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B33" s="111" t="s">
-        <v>1078</v>
-      </c>
-    </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="108" t="s">
         <v>1101</v>
       </c>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="108" t="s">
         <v>313</v>
       </c>
     </row>
@@ -14355,8 +14350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14366,15 +14361,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="121" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="108">
+      <c r="B1" s="121">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="121" t="s">
         <v>1160</v>
       </c>
       <c r="B2" s="109" t="s">
@@ -14382,98 +14377,98 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="110" t="s">
-        <v>1162</v>
+      <c r="B3" s="118" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="121" t="s">
         <v>1014</v>
       </c>
-      <c r="B4" s="108">
-        <v>9878421036</v>
+      <c r="B4" s="121">
+        <v>9878421512</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="121" t="s">
         <v>1085</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="121" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="121" t="s">
         <v>1086</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="121" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="121" t="s">
         <v>1087</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="121" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="121" t="s">
         <v>1088</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="121" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="121" t="s">
         <v>1090</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="121" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="121" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="121" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="121" t="s">
         <v>996</v>
       </c>
-      <c r="B11" s="108" t="s">
-        <v>1163</v>
+      <c r="B11" s="121" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="121" t="s">
         <v>1092</v>
       </c>
-      <c r="B12" s="108">
+      <c r="B12" s="121">
         <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="121" t="s">
         <v>1093</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="121">
         <v>15000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="121" t="s">
         <v>1032</v>
       </c>
     </row>
@@ -14504,26 +14499,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="124">
+      <c r="B1" s="121">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="124">
+      <c r="B2" s="121">
         <v>107612</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="121" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="121" t="s">
         <v>373</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -3612,10 +3612,10 @@
     <t>cok500</t>
   </si>
   <si>
-    <t>Lemurian@yahoo.com</t>
-  </si>
-  <si>
-    <t>Lemurian Production</t>
+    <t>Lemuriann Production</t>
+  </si>
+  <si>
+    <t>Lemuriann@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -14351,7 +14351,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14381,7 +14381,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14445,7 +14445,7 @@
         <v>996</v>
       </c>
       <c r="B11" s="121" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1178">
   <si>
     <t>Description</t>
   </si>
@@ -3603,19 +3603,25 @@
     <t>2313167867</t>
   </si>
   <si>
-    <t>3543245765</t>
-  </si>
-  <si>
     <t>107742</t>
   </si>
   <si>
     <t>cok500</t>
   </si>
   <si>
-    <t>Lemuriann Production</t>
-  </si>
-  <si>
-    <t>Lemuriann@yahoo.com</t>
+    <t>3543245564</t>
+  </si>
+  <si>
+    <t>107763</t>
+  </si>
+  <si>
+    <t>1712_AutoClient 10March2020 13:04:37</t>
+  </si>
+  <si>
+    <t>PAWAN KUMAR &amp; BROS</t>
+  </si>
+  <si>
+    <t>kumar@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -5936,8 +5942,8 @@
   </sheetPr>
   <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6207,6 +6213,9 @@
       <c r="B14" s="30" t="s">
         <v>1122</v>
       </c>
+      <c r="C14" s="30" t="s">
+        <v>1174</v>
+      </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -6214,6 +6223,9 @@
       </c>
       <c r="B15" s="30" t="s">
         <v>1123</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
@@ -11583,7 +11595,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11669,7 +11681,7 @@
         <v>1035</v>
       </c>
       <c r="B10" s="117" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11822,13 +11834,13 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12251,7 +12263,7 @@
         <v>982</v>
       </c>
       <c r="B4" s="117" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12259,7 +12271,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14351,7 +14363,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14381,7 +14393,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14445,7 +14457,7 @@
         <v>996</v>
       </c>
       <c r="B11" s="121" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="60" activeTab="61"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -5942,8 +5942,8 @@
   </sheetPr>
   <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14362,8 +14362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -4413,8 +4413,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5942,7 +5942,7 @@
   </sheetPr>
   <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3606,22 +3606,22 @@
     <t>107742</t>
   </si>
   <si>
-    <t>cok500</t>
-  </si>
-  <si>
     <t>3543245564</t>
   </si>
   <si>
-    <t>107763</t>
-  </si>
-  <si>
-    <t>1712_AutoClient 10March2020 13:04:37</t>
-  </si>
-  <si>
-    <t>PAWAN KUMAR &amp; BROS</t>
-  </si>
-  <si>
-    <t>kumar@yahoo.com</t>
+    <t>107764</t>
+  </si>
+  <si>
+    <t>1712_AutoClient 10March2020 13:35:11</t>
+  </si>
+  <si>
+    <t>PERFECT TEN FILMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flims@gmail.com </t>
+  </si>
+  <si>
+    <t>cok501</t>
   </si>
 </sst>
 </file>
@@ -4413,7 +4413,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5942,8 +5942,8 @@
   </sheetPr>
   <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6214,7 +6214,7 @@
         <v>1122</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
@@ -6225,7 +6225,7 @@
         <v>1123</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
@@ -11681,7 +11681,7 @@
         <v>1035</v>
       </c>
       <c r="B10" s="117" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12225,7 +12225,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12271,7 +12271,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14363,7 +14363,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14393,7 +14393,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14457,7 +14457,7 @@
         <v>996</v>
       </c>
       <c r="B11" s="121" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="60" activeTab="61"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -5942,8 +5942,8 @@
   </sheetPr>
   <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14362,8 +14362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="60" activeTab="61"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1182">
   <si>
     <t>Description</t>
   </si>
@@ -3622,6 +3622,18 @@
   </si>
   <si>
     <t>cok501</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 10March2020 13:35:11</t>
+  </si>
+  <si>
+    <t>107764001</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 10March2020 13:35:11</t>
+  </si>
+  <si>
+    <t>107764001001</t>
   </si>
 </sst>
 </file>
@@ -5942,8 +5954,8 @@
   </sheetPr>
   <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6235,29 +6247,41 @@
       <c r="B16" s="30" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="30" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>1064</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="30" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="30" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>1066</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="30" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>1067</v>
       </c>
@@ -6265,7 +6289,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>1068</v>
       </c>
@@ -6273,7 +6297,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>218</v>
       </c>
@@ -14362,7 +14386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\741496\Documents\bau_environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1182">
   <si>
     <t>Description</t>
   </si>
@@ -5952,10 +5952,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK22"/>
+  <dimension ref="A1:FK23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6302,6 +6302,11 @@
         <v>218</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1182">
   <si>
     <t>Description</t>
   </si>
@@ -5954,8 +5954,8 @@
   </sheetPr>
   <dimension ref="A1:FK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6303,8 +6303,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="121" t="s">
         <v>996</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>1175</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\741496\Documents\bau_environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1182">
   <si>
     <t>Description</t>
   </si>
@@ -3615,12 +3615,6 @@
     <t>1712_AutoClient 10March2020 13:35:11</t>
   </si>
   <si>
-    <t>PERFECT TEN FILMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flims@gmail.com </t>
-  </si>
-  <si>
     <t>cok501</t>
   </si>
   <si>
@@ -3634,6 +3628,12 @@
   </si>
   <si>
     <t>107764001001</t>
+  </si>
+  <si>
+    <t>datum@yahoo.com</t>
+  </si>
+  <si>
+    <t>DATUM HINDUSTAN PVT LTD</t>
   </si>
 </sst>
 </file>
@@ -5954,7 +5954,7 @@
   </sheetPr>
   <dimension ref="A1:FK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -6248,7 +6248,7 @@
         <v>1124</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6259,7 +6259,7 @@
         <v>1125</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6267,7 +6267,7 @@
         <v>1065</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6278,7 +6278,7 @@
         <v>1126</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6306,8 +6306,8 @@
       <c r="A23" s="121" t="s">
         <v>996</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>1175</v>
+      <c r="B23" s="121" t="s">
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -12303,7 +12303,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14395,7 +14395,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14425,7 +14425,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14433,7 +14433,7 @@
         <v>1014</v>
       </c>
       <c r="B4" s="121">
-        <v>9878421512</v>
+        <v>9878420512</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14488,9 +14488,7 @@
       <c r="A11" s="121" t="s">
         <v>996</v>
       </c>
-      <c r="B11" s="121" t="s">
-        <v>1175</v>
-      </c>
+      <c r="B11" s="121"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="121" t="s">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="59" activeTab="61"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="1180">
   <si>
     <t>Description</t>
   </si>
@@ -3609,31 +3609,25 @@
     <t>3543245564</t>
   </si>
   <si>
-    <t>107764</t>
-  </si>
-  <si>
-    <t>1712_AutoClient 10March2020 13:35:11</t>
-  </si>
-  <si>
     <t>cok501</t>
   </si>
   <si>
-    <t>AutoGlobalBrand 10March2020 13:35:11</t>
-  </si>
-  <si>
-    <t>107764001</t>
-  </si>
-  <si>
-    <t>AutoGlobalProduct 10March2020 13:35:11</t>
-  </si>
-  <si>
-    <t>107764001001</t>
-  </si>
-  <si>
     <t>datum@yahoo.com</t>
   </si>
   <si>
     <t>DATUM HINDUSTAN PVT LTD</t>
+  </si>
+  <si>
+    <t>1712_AutoClient 11March2020 08:48:57</t>
+  </si>
+  <si>
+    <t>107768</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 11March2020 08:48:57</t>
+  </si>
+  <si>
+    <t>107768001</t>
   </si>
 </sst>
 </file>
@@ -5954,8 +5948,8 @@
   </sheetPr>
   <dimension ref="A1:FK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6226,7 +6220,7 @@
         <v>1122</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
@@ -6237,7 +6231,7 @@
         <v>1123</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
@@ -6248,7 +6242,7 @@
         <v>1124</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6259,16 +6253,13 @@
         <v>1125</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>1065</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>1179</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
@@ -6277,9 +6268,6 @@
       <c r="B19" s="30" t="s">
         <v>1126</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>1178</v>
-      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -6307,7 +6295,7 @@
         <v>996</v>
       </c>
       <c r="B23" s="121" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
   </sheetData>
@@ -12303,7 +12291,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14394,8 +14382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14425,7 +14413,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1183">
   <si>
     <t>Description</t>
   </si>
@@ -3631,6 +3631,12 @@
   </si>
   <si>
     <t>107762001001</t>
+  </si>
+  <si>
+    <t>Fixed Asset PO Number</t>
+  </si>
+  <si>
+    <t>1707109744</t>
   </si>
 </sst>
 </file>
@@ -5910,10 +5916,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK22"/>
+  <dimension ref="A1:FK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6127,6 +6133,9 @@
       <c r="A5" s="30" t="s">
         <v>230</v>
       </c>
+      <c r="B5" s="30" t="s">
+        <v>1182</v>
+      </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
@@ -6241,6 +6250,14 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>1182</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="62" activeTab="63"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -75,8 +75,9 @@
     <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId61"/>
     <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId62"/>
     <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId63"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId64"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId65"/>
+    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId64"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId65"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId66"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1199">
   <si>
     <t>Description</t>
   </si>
@@ -3171,9 +3172,6 @@
     <t>01/03/2020</t>
   </si>
   <si>
-    <t>08</t>
-  </si>
-  <si>
     <t>1707105266</t>
   </si>
   <si>
@@ -3637,6 +3635,57 @@
   </si>
   <si>
     <t>1707109744</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>OpCo</t>
+  </si>
+  <si>
+    <t>Vendor/Client_1</t>
+  </si>
+  <si>
+    <t>Job Number_1</t>
+  </si>
+  <si>
+    <t>Debit_1</t>
+  </si>
+  <si>
+    <t>Credit_1</t>
+  </si>
+  <si>
+    <t>Job Type</t>
+  </si>
+  <si>
+    <t>Job Department</t>
+  </si>
+  <si>
+    <t>Job BusinessUnit</t>
+  </si>
+  <si>
+    <t>Vendor/Client_2</t>
+  </si>
+  <si>
+    <t>Job Number_2</t>
+  </si>
+  <si>
+    <t>Debit_2</t>
+  </si>
+  <si>
+    <t>Credit_2</t>
+  </si>
+  <si>
+    <t>1707P</t>
+  </si>
+  <si>
+    <t>1707B</t>
+  </si>
+  <si>
+    <t>1010000-01</t>
+  </si>
+  <si>
+    <t>5010000-01</t>
   </si>
 </sst>
 </file>
@@ -5918,7 +5967,7 @@
   </sheetPr>
   <dimension ref="A1:FK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6109,7 +6158,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6134,7 +6183,7 @@
         <v>230</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
@@ -6151,23 +6200,32 @@
       <c r="A8" s="30" t="s">
         <v>976</v>
       </c>
+      <c r="B8" s="30" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>977</v>
       </c>
+      <c r="B9" s="30" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>978</v>
       </c>
+      <c r="B10" s="30" t="s">
+        <v>1182</v>
+      </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>989</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
@@ -6175,76 +6233,76 @@
         <v>990</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="14" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6254,10 +6312,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>1181</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>1182</v>
       </c>
     </row>
   </sheetData>
@@ -7010,7 +7068,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -11604,34 +11662,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B3" t="s">
         <v>1030</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B4" t="s">
         <v>1032</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>1034</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11647,23 +11705,23 @@
         <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B9" s="59" t="s">
         <v>1038</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11676,18 +11734,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B12" t="s">
         <v>1041</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B13" t="s">
         <v>1043</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11695,15 +11753,15 @@
         <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B15" t="s">
         <v>1046</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -11711,7 +11769,7 @@
         <v>1020</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -11719,12 +11777,12 @@
         <v>1019</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B18">
         <v>17079905</v>
@@ -11735,44 +11793,44 @@
         <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B20" t="s">
         <v>1051</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B21" t="s">
         <v>1053</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B22" t="s">
         <v>1055</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B23" t="s">
         <v>1057</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B24">
         <v>33</v>
@@ -11780,15 +11838,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B25" t="s">
         <v>1060</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B26">
         <v>464576457</v>
@@ -11796,7 +11854,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B27">
         <v>34576457</v>
@@ -11813,6 +11871,9 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11834,7 +11895,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11859,21 +11920,21 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11889,13 +11950,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11903,21 +11964,21 @@
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -11925,65 +11986,65 @@
         <v>29</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B11" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C11" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B12" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C12" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B14" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C14" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -11998,6 +12059,9 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12019,7 +12083,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12044,10 +12108,10 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12056,18 +12120,18 @@
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12076,7 +12140,7 @@
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="59" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12092,13 +12156,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12106,21 +12170,21 @@
         <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12128,65 +12192,65 @@
         <v>29</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B16" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C16" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -12234,10 +12298,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B3" t="s">
         <v>1030</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12253,39 +12317,39 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B6" t="s">
         <v>1163</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B7" t="s">
         <v>1032</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>1034</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12301,23 +12365,23 @@
         <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B12" s="59" t="s">
         <v>1038</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12330,18 +12394,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B15" t="s">
         <v>1041</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B16" t="s">
         <v>1043</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12349,15 +12413,15 @@
         <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B18" t="s">
         <v>1046</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -12365,7 +12429,7 @@
         <v>1020</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -12373,12 +12437,12 @@
         <v>1019</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B21">
         <v>17079905</v>
@@ -12389,52 +12453,52 @@
         <v>238</v>
       </c>
       <c r="B22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B23" t="s">
         <v>1051</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B24" t="s">
         <v>1053</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B25" t="s">
         <v>1166</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B26" t="s">
         <v>1055</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B27" t="s">
         <v>1057</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B28">
         <v>33</v>
@@ -12442,15 +12506,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B29" t="s">
         <v>1060</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B30">
         <v>464576457</v>
@@ -12458,7 +12522,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B31">
         <v>34576457</v>
@@ -12508,10 +12572,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B3" t="s">
         <v>1030</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12532,39 +12596,39 @@
         <v>996</v>
       </c>
       <c r="B6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B7" t="s">
         <v>1163</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B8" t="s">
         <v>1032</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B9" s="59" t="s">
         <v>1034</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12580,23 +12644,23 @@
         <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B13" s="59" t="s">
         <v>1038</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12609,18 +12673,18 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B16" t="s">
         <v>1041</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B17" t="s">
         <v>1043</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -12628,15 +12692,15 @@
         <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B19" t="s">
         <v>1046</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -12644,7 +12708,7 @@
         <v>1020</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -12652,12 +12716,12 @@
         <v>1019</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B22">
         <v>17079905</v>
@@ -12668,52 +12732,52 @@
         <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B24" t="s">
         <v>1051</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B25" t="s">
         <v>1053</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B26" t="s">
         <v>1166</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B27" t="s">
         <v>1055</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B28" t="s">
         <v>1057</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B29">
         <v>33</v>
@@ -12721,15 +12785,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B30" t="s">
         <v>1060</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B31">
         <v>464576457</v>
@@ -12737,7 +12801,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B32">
         <v>34576457</v>
@@ -12782,7 +12846,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12798,7 +12862,7 @@
         <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12806,7 +12870,7 @@
         <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
   </sheetData>
@@ -12845,7 +12909,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12861,7 +12925,7 @@
         <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12869,7 +12933,7 @@
         <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12877,7 +12941,7 @@
         <v>983</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12885,7 +12949,7 @@
         <v>984</v>
       </c>
       <c r="B7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -13185,7 +13249,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13201,7 +13265,7 @@
         <v>1016</v>
       </c>
       <c r="B4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13224,7 +13288,7 @@
         <v>1020</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -13266,7 +13330,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13282,7 +13346,7 @@
         <v>983</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13290,7 +13354,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13298,7 +13362,7 @@
         <v>1016</v>
       </c>
       <c r="B6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -13321,7 +13385,7 @@
         <v>1020</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -13368,7 +13432,7 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13376,7 +13440,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13389,7 +13453,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="59">
         <v>84625318710</v>
@@ -13397,7 +13461,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B7" s="59">
         <v>84625318710</v>
@@ -13405,7 +13469,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
@@ -13455,7 +13519,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13468,7 +13532,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B5" t="s">
         <v>373</v>
@@ -13476,10 +13540,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B6" t="s">
         <v>1174</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1175</v>
       </c>
     </row>
   </sheetData>
@@ -13521,7 +13585,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13568,7 +13632,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13584,7 +13648,7 @@
         <v>983</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13592,7 +13656,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -14079,10 +14143,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14090,7 +14154,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14114,12 +14178,12 @@
         <v>1000</v>
       </c>
       <c r="B7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B8">
         <v>6000056</v>
@@ -14127,10 +14191,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B9" t="s">
         <v>1076</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14143,90 +14207,90 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B13" t="s">
         <v>1080</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B14" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B15" t="s">
         <v>1083</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B16" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B17" t="s">
         <v>1086</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B18" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B19" s="59" t="s">
         <v>1089</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B21" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14234,44 +14298,44 @@
         <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B23" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B24" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B25" t="s">
         <v>1095</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B26" t="s">
         <v>1097</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -14279,7 +14343,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B28">
         <v>300000</v>
@@ -14287,7 +14351,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B29" t="s">
         <v>999</v>
@@ -14295,39 +14359,39 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B30" t="s">
         <v>1102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B31" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B32" t="s">
         <v>1105</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B33" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B34" t="s">
         <v>313</v>
@@ -14344,6 +14408,9 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14366,7 +14433,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1003</v>
@@ -14377,7 +14444,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14390,42 +14457,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B9" t="s">
         <v>1097</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14441,12 +14508,12 @@
         <v>1000</v>
       </c>
       <c r="B11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -14454,7 +14521,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B13">
         <v>100000</v>
@@ -14465,7 +14532,7 @@
         <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
@@ -14543,6 +14610,116 @@
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="N1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1707</v>
+      </c>
+      <c r="E2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2">
+        <v>50000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>1198</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:M11"/>
@@ -14587,7 +14764,7 @@
         <v>940</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -14608,7 +14785,7 @@
         <v>941</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -14629,7 +14806,7 @@
         <v>942</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -14650,7 +14827,7 @@
         <v>943</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -14671,7 +14848,7 @@
         <v>362</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -14692,7 +14869,7 @@
         <v>944</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -14713,7 +14890,7 @@
         <v>945</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -14734,7 +14911,7 @@
         <v>946</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -14755,7 +14932,7 @@
         <v>947</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -14776,7 +14953,7 @@
         <v>948</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -14795,7 +14972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -14803,7 +14980,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15559,8 +15736,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15582,7 +15759,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15590,7 +15767,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1027</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -14615,7 +14615,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14696,7 +14696,7 @@
       </c>
       <c r="I2" s="59"/>
       <c r="J2">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="K2" t="s">
         <v>344</v>
@@ -14708,7 +14708,7 @@
         <v>1198</v>
       </c>
       <c r="O2">
-        <v>50000</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="62" activeTab="63"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="62" activeTab="65"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -14614,8 +14614,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14979,8 +14979,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="62" activeTab="65"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="63" activeTab="63"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1202">
   <si>
     <t>Description</t>
   </si>
@@ -3686,6 +3686,15 @@
   </si>
   <si>
     <t>5010000-01</t>
+  </si>
+  <si>
+    <t>General Journal No</t>
+  </si>
+  <si>
+    <t>1707117425</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -5965,7 +5974,7 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK23"/>
+  <dimension ref="A1:FK24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -6318,6 +6327,14 @@
         <v>1181</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14612,10 +14629,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14708,6 +14725,36 @@
         <v>1198</v>
       </c>
       <c r="O2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1708</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3">
+        <v>500</v>
+      </c>
+      <c r="K3" t="s">
+        <v>344</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>1198</v>
+      </c>
+      <c r="O3">
         <v>500</v>
       </c>
     </row>
@@ -14979,8 +15026,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="62" activeTab="65"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="62" activeTab="63"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,10 @@
     <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId61"/>
     <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId62"/>
     <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId63"/>
-    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId64"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId65"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId66"/>
+    <sheet name="ReverseGL" sheetId="69" r:id="rId64"/>
+    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId65"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId66"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId67"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="1202">
   <si>
     <t>Description</t>
   </si>
@@ -3686,6 +3687,15 @@
   </si>
   <si>
     <t>5010000-01</t>
+  </si>
+  <si>
+    <t>JournalNo</t>
+  </si>
+  <si>
+    <t>DateEntry</t>
+  </si>
+  <si>
+    <t>03/13/2020</t>
   </si>
 </sst>
 </file>
@@ -3959,7 +3969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4163,6 +4173,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14610,6 +14631,54 @@
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="109" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="109" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="109"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="108">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="109" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B2" s="110">
+        <v>1707100006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="109" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:P2"/>
@@ -14717,7 +14786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -14972,14 +15041,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="62" activeTab="63"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -5988,8 +5988,8 @@
   </sheetPr>
   <dimension ref="A1:FK23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14635,7 +14635,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="1201">
   <si>
     <t>Description</t>
   </si>
@@ -3692,9 +3692,6 @@
   </si>
   <si>
     <t>1707117425</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
 </sst>
 </file>
@@ -14629,10 +14626,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14725,36 +14722,6 @@
         <v>1198</v>
       </c>
       <c r="O2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1708</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I3" s="59"/>
-      <c r="J3">
-        <v>500</v>
-      </c>
-      <c r="K3" t="s">
-        <v>344</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>1198</v>
-      </c>
-      <c r="O3">
         <v>500</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="63" activeTab="63"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="61" activeTab="63"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,10 @@
     <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId61"/>
     <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId62"/>
     <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId63"/>
-    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId64"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId65"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId66"/>
+    <sheet name="ReverseGL" sheetId="69" r:id="rId64"/>
+    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId65"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId66"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId67"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="1204">
   <si>
     <t>Description</t>
   </si>
@@ -3692,6 +3693,15 @@
   </si>
   <si>
     <t>1707117425</t>
+  </si>
+  <si>
+    <t>JournalNo</t>
+  </si>
+  <si>
+    <t>DateEntry</t>
+  </si>
+  <si>
+    <t>03/13/2020</t>
   </si>
 </sst>
 </file>
@@ -3965,7 +3975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4169,6 +4179,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5973,7 +5994,7 @@
   </sheetPr>
   <dimension ref="A1:FK24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -14624,12 +14645,58 @@
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="109" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="109" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="109"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="108">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="109" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B2" s="110"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="109" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14731,7 +14798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -14986,7 +15053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="61" activeTab="63"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3975,7 +3975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4160,7 +4160,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4476,8 +4475,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4498,8 +4497,8 @@
       <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>362</v>
+      <c r="B2" s="34" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4663,7 +4662,7 @@
       <c r="A9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="99" t="s">
         <v>979</v>
       </c>
       <c r="C9" s="22"/>
@@ -5122,7 +5121,7 @@
       <c r="A9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="99" t="s">
         <v>979</v>
       </c>
       <c r="C9" s="22"/>
@@ -11683,7 +11682,7 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="100">
         <v>1707</v>
       </c>
     </row>
@@ -11803,7 +11802,7 @@
       <c r="A16" t="s">
         <v>1020</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="99" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -11926,10 +11925,10 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="105" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -12020,10 +12019,10 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="99" t="s">
         <v>1145</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="99" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -12114,10 +12113,10 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="105" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -12226,10 +12225,10 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="99" t="s">
         <v>1145</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="99" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -12319,7 +12318,7 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="100">
         <v>1707</v>
       </c>
     </row>
@@ -12463,7 +12462,7 @@
       <c r="A19" t="s">
         <v>1020</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="99" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -12593,7 +12592,7 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="100">
         <v>1707</v>
       </c>
     </row>
@@ -12742,7 +12741,7 @@
       <c r="A20" t="s">
         <v>1020</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="99" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -12880,7 +12879,7 @@
       <c r="A2" t="s">
         <v>982</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="103" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -12943,7 +12942,7 @@
       <c r="A2" t="s">
         <v>982</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="103" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -12975,7 +12974,7 @@
       <c r="A6" t="s">
         <v>983</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="101" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -13275,7 +13274,7 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="100">
         <v>1707</v>
       </c>
     </row>
@@ -13322,7 +13321,7 @@
       <c r="A8" t="s">
         <v>1020</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -13356,7 +13355,7 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="100">
         <v>1707</v>
       </c>
     </row>
@@ -13380,7 +13379,7 @@
       <c r="A4" t="s">
         <v>983</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="101" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -13419,7 +13418,7 @@
       <c r="A10" t="s">
         <v>1020</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="99" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -13474,7 +13473,7 @@
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="99" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -13553,7 +13552,7 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="99" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -13611,7 +13610,7 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="100">
         <v>1707</v>
       </c>
     </row>
@@ -13658,7 +13657,7 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="100">
         <v>1707</v>
       </c>
     </row>
@@ -13682,7 +13681,7 @@
       <c r="A4" t="s">
         <v>983</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="101" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -13721,7 +13720,7 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="100">
         <v>1707</v>
       </c>
     </row>
@@ -13729,7 +13728,7 @@
       <c r="A2" t="s">
         <v>982</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="103" t="s">
         <v>991</v>
       </c>
     </row>
@@ -13745,7 +13744,7 @@
       <c r="A4" t="s">
         <v>983</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="101" t="s">
         <v>992</v>
       </c>
     </row>
@@ -13792,7 +13791,7 @@
       <c r="A2" t="s">
         <v>982</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="103" t="s">
         <v>991</v>
       </c>
     </row>
@@ -13831,7 +13830,7 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="100">
         <v>1707</v>
       </c>
     </row>
@@ -13855,7 +13854,7 @@
       <c r="A4" t="s">
         <v>983</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>998</v>
       </c>
     </row>
@@ -13894,7 +13893,7 @@
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="100">
         <v>1707</v>
       </c>
     </row>
@@ -13902,7 +13901,7 @@
       <c r="A2" t="s">
         <v>982</v>
       </c>
-      <c r="B2" s="105">
+      <c r="B2" s="104">
         <v>103132</v>
       </c>
     </row>
@@ -13918,7 +13917,7 @@
       <c r="A4" t="s">
         <v>994</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>995</v>
       </c>
     </row>
@@ -14125,7 +14124,7 @@
       <c r="A4" t="s">
         <v>1000</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -14188,7 +14187,7 @@
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="99" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -14478,7 +14477,7 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="99" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -14624,7 +14623,7 @@
       <c r="A4" t="s">
         <v>987</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>988</v>
       </c>
     </row>
@@ -14649,36 +14648,36 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="109" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="109" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="109"/>
+    <col min="1" max="1" width="18" style="108" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="108">
+      <c r="B1" s="107">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>1201</v>
       </c>
-      <c r="B2" s="110"/>
+      <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="108" t="s">
         <v>1202</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="110" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -14841,10 +14840,10 @@
       <c r="A2" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="94" t="s">
         <v>940</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>1112</v>
       </c>
       <c r="D2" s="38"/>
@@ -14862,10 +14861,10 @@
       <c r="A3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="94" t="s">
         <v>941</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="94" t="s">
         <v>1113</v>
       </c>
       <c r="D3" s="38"/>
@@ -14883,10 +14882,10 @@
       <c r="A4" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="94" t="s">
         <v>942</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="94" t="s">
         <v>1114</v>
       </c>
       <c r="D4" s="38"/>
@@ -14904,10 +14903,10 @@
       <c r="A5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="94" t="s">
         <v>943</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="94" t="s">
         <v>1115</v>
       </c>
       <c r="D5" s="38"/>
@@ -14925,10 +14924,10 @@
       <c r="A6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="94" t="s">
         <v>1116</v>
       </c>
       <c r="D6" s="38"/>
@@ -14946,10 +14945,10 @@
       <c r="A7" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="94" t="s">
         <v>944</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="94" t="s">
         <v>1117</v>
       </c>
       <c r="D7" s="38"/>
@@ -14967,10 +14966,10 @@
       <c r="A8" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="94" t="s">
         <v>945</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="94" t="s">
         <v>1118</v>
       </c>
       <c r="D8" s="38"/>
@@ -14988,10 +14987,10 @@
       <c r="A9" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="94" t="s">
         <v>946</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="94" t="s">
         <v>1119</v>
       </c>
       <c r="D9" s="38"/>
@@ -15009,10 +15008,10 @@
       <c r="A10" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="94" t="s">
         <v>947</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="94" t="s">
         <v>1120</v>
       </c>
       <c r="D10" s="38"/>
@@ -15030,10 +15029,10 @@
       <c r="A11" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="95" t="s">
         <v>948</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="95" t="s">
         <v>1121</v>
       </c>
       <c r="D11" s="39"/>
@@ -15061,7 +15060,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15071,15 +15070,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>168</v>
       </c>
       <c r="B2" s="34" t="s">
@@ -15087,7 +15086,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="94" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="34" t="s">
@@ -15095,7 +15094,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="94" t="s">
         <v>171</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -15103,7 +15102,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="94" t="s">
         <v>172</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -15111,7 +15110,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="94" t="s">
         <v>173</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -15119,7 +15118,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="94" t="s">
         <v>174</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -15127,7 +15126,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="94" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="34" t="s">
@@ -15135,7 +15134,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="94" t="s">
         <v>176</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -15143,7 +15142,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="94" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -15151,7 +15150,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="94" t="s">
         <v>179</v>
       </c>
       <c r="B11" s="34" t="s">
@@ -15159,7 +15158,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="94" t="s">
         <v>180</v>
       </c>
       <c r="B12" s="34" t="s">
@@ -15167,7 +15166,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="94" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="34" t="s">
@@ -15175,7 +15174,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="94" t="s">
         <v>183</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -15183,10 +15182,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="98" t="s">
         <v>965</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="62" activeTab="64"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -75,8 +75,8 @@
     <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId61"/>
     <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId62"/>
     <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId63"/>
-    <sheet name="ReverseGL" sheetId="69" r:id="rId64"/>
-    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId65"/>
+    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId64"/>
+    <sheet name="ReverseGL" sheetId="70" r:id="rId65"/>
     <sheet name="Agency Users" sheetId="11" r:id="rId66"/>
     <sheet name="SSC Users" sheetId="12" r:id="rId67"/>
   </sheets>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="1204">
   <si>
     <t>Description</t>
   </si>
@@ -4181,7 +4181,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4189,6 +4188,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4475,7 +4475,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -14644,58 +14644,12 @@
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="108"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="107">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B2" s="109"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14794,6 +14748,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="107"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B2" s="108"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="107" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1205">
   <si>
     <t>Description</t>
   </si>
@@ -3702,6 +3702,9 @@
   </si>
   <si>
     <t>03/13/2020</t>
+  </si>
+  <si>
+    <t>1707100010</t>
   </si>
 </sst>
 </file>
@@ -3975,7 +3978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4182,9 +4185,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -14759,7 +14759,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14773,7 +14773,7 @@
       <c r="A1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="109" t="s">
         <v>370</v>
       </c>
     </row>
@@ -14781,13 +14781,15 @@
       <c r="A2" s="107" t="s">
         <v>1201</v>
       </c>
-      <c r="B2" s="108"/>
+      <c r="B2" s="87" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
         <v>1202</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>1203</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="63" activeTab="64"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="1206">
   <si>
     <t>Description</t>
   </si>
@@ -3692,9 +3692,6 @@
     <t>General Journal No</t>
   </si>
   <si>
-    <t>1707117425</t>
-  </si>
-  <si>
     <t>JournalNo</t>
   </si>
   <si>
@@ -3702,6 +3699,15 @@
   </si>
   <si>
     <t>03/13/2020</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Payable</t>
+  </si>
+  <si>
+    <t>1707117445</t>
   </si>
 </sst>
 </file>
@@ -4475,7 +4481,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5994,7 +6000,7 @@
   <dimension ref="A1:FK24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6349,7 +6355,7 @@
         <v>1199</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
     </row>
   </sheetData>
@@ -6741,7 +6747,7 @@
   <dimension ref="A1:BL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14669,16 +14675,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B3" s="110" t="s">
         <v>1202</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>1203</v>
       </c>
     </row>
   </sheetData>
@@ -14692,10 +14698,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14703,15 +14709,17 @@
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1183</v>
       </c>
@@ -14725,69 +14733,114 @@
         <v>1190</v>
       </c>
       <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
         <v>337</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1184</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1185</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1186</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1187</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" t="s">
         <v>338</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>1191</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>1192</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>131</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>1193</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1708</v>
+      </c>
+      <c r="F2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2">
+        <v>500</v>
+      </c>
+      <c r="M2" t="s">
+        <v>344</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Q2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1707</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M3" t="s">
         <v>344</v>
       </c>
-      <c r="G2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2">
-        <v>500</v>
-      </c>
-      <c r="K2" t="s">
-        <v>344</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O3" t="s">
         <v>1196</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="P3" s="59" t="s">
         <v>1198</v>
       </c>
-      <c r="O2">
+      <c r="Q3">
         <v>500</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="63" activeTab="64"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1208">
   <si>
     <t>Description</t>
   </si>
@@ -3638,9 +3638,6 @@
     <t>1707109744</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>OpCo</t>
   </si>
   <si>
@@ -3708,6 +3705,15 @@
   </si>
   <si>
     <t>1707117445</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>170710213</t>
+  </si>
+  <si>
+    <t>1707AutomationEmpy17March2020144913@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4481,8 +4487,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4504,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4532,7 +4538,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4888,7 +4894,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4984,7 +4990,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5081,7 +5087,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>363</v>
+        <v>1002</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="15"/>
@@ -5425,7 +5431,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5555,7 +5561,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5666,7 +5672,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5796,7 +5802,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5843,7 +5849,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5890,7 +5896,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5956,7 +5962,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5997,10 +6003,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK24"/>
+  <dimension ref="A1:FK25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6204,6 +6210,9 @@
       <c r="A3" s="30" t="s">
         <v>201</v>
       </c>
+      <c r="B3" s="30" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -6249,7 +6258,7 @@
         <v>978</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1182</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
@@ -6352,10 +6361,18 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1205</v>
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -6372,7 +6389,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6423,7 +6440,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6474,7 +6491,7 @@
   <dimension ref="A1:BL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6747,7 +6764,7 @@
   <dimension ref="A1:BL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7049,7 +7066,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7086,7 +7103,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7125,7 +7142,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7220,7 +7237,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7293,7 +7310,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7364,7 +7381,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7435,7 +7452,7 @@
   <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8617,7 +8634,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8688,7 +8705,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8778,7 +8795,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8817,7 +8834,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8853,7 +8870,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8908,7 +8925,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8988,7 +9005,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9064,7 +9081,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9103,7 +9120,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9195,7 +9212,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9284,7 +9301,7 @@
   <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11338,7 +11355,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11489,7 +11506,7 @@
   <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11675,7 +11692,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11917,7 +11934,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12105,7 +12122,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12311,7 +12328,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12585,7 +12602,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12864,7 +12881,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12927,7 +12944,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13006,7 +13023,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13267,7 +13284,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13348,7 +13365,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13445,7 +13462,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13532,7 +13549,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13603,7 +13620,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13650,7 +13667,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13713,7 +13730,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13776,7 +13793,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13823,7 +13840,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13886,7 +13903,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13949,7 +13966,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14093,7 +14110,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14156,7 +14173,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14454,7 +14471,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14592,7 +14609,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14655,7 +14672,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14675,16 +14692,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B3" s="110" t="s">
         <v>1201</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -14700,8 +14717,8 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14721,16 +14738,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C1" t="s">
         <v>1188</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1189</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1190</v>
       </c>
       <c r="E1" t="s">
         <v>128</v>
@@ -14739,19 +14756,19 @@
         <v>337</v>
       </c>
       <c r="G1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H1" t="s">
         <v>1184</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1185</v>
       </c>
       <c r="I1" t="s">
         <v>127</v>
       </c>
       <c r="J1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K1" t="s">
         <v>1186</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1187</v>
       </c>
       <c r="L1" t="s">
         <v>132</v>
@@ -14760,19 +14777,19 @@
         <v>338</v>
       </c>
       <c r="N1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O1" t="s">
         <v>1191</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1192</v>
       </c>
       <c r="P1" t="s">
         <v>131</v>
       </c>
       <c r="Q1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R1" t="s">
         <v>1193</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -14783,10 +14800,10 @@
         <v>344</v>
       </c>
       <c r="H2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2">
@@ -14796,10 +14813,10 @@
         <v>344</v>
       </c>
       <c r="O2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q2">
         <v>500</v>
@@ -14810,7 +14827,7 @@
         <v>1707</v>
       </c>
       <c r="E3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F3" t="s">
         <v>343</v>
@@ -14819,26 +14836,26 @@
         <v>372</v>
       </c>
       <c r="H3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="J3" s="59"/>
       <c r="K3">
         <v>500</v>
       </c>
       <c r="L3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M3" t="s">
         <v>344</v>
       </c>
       <c r="O3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P3" s="59" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q3">
         <v>500</v>
@@ -14858,7 +14875,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15113,7 +15130,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15256,7 +15273,7 @@
   <dimension ref="A1:BJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15572,7 +15589,7 @@
   <dimension ref="A1:AR4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15869,8 +15886,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15900,7 +15917,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1182</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1210">
   <si>
     <t>Description</t>
   </si>
@@ -3626,9 +3626,6 @@
     <t>BRISK OFFICE AUTOMATION</t>
   </si>
   <si>
-    <t>1707105275</t>
-  </si>
-  <si>
     <t>107762001001</t>
   </si>
   <si>
@@ -3710,10 +3707,20 @@
     <t>12</t>
   </si>
   <si>
-    <t>170710213</t>
-  </si>
-  <si>
-    <t>1707AutomationEmpy17March2020144913@gmail.com</t>
+    <t xml:space="preserve">D100-Account Management,EC1002-Managing Director,EC1002-Managing Director,EC1002-Managing Director,EC1006-Finance Director,EC1006-Finance Director,EC1006-Finance Director,EC1007-Finance Manager,EC1007-Finance Manager,EC1007-Finance Manager,EC1008-Senior Finance Executive,EC1008-Senior Finance Executive,EC1008-Senior Finance Executive,EC1009-Junior Finance Executive,EC1009-Junior Finance Executive,EC1009-Junior Finance Executive,EC1011-Talent Manager,EC1011-Talent Manager,EC1011-Talent Manager,EC1016-Administration - Level 2,EC1016-Administration - Level 2,EC1016-Administration - Level 2,EC1019-Junior Administration Executive,EC1019-Junior Administration Executive,EC1019-Junior Administration Executive,EC1233-Head of Strategy,EC1233-Head of Strategy,EC1233-Head of Strategy,EC1215-Strategy Planning Manager,EC1215-Strategy Planning Manager,EC1215-Strategy Planning Manager,EC1216-Strategy Planning Supervisor,EC1216-Strategy Planning Supervisor,EC1216-Strategy Planning Supervisor,EC1128-Junior Strategy Executive,EC1128-Junior Strategy Executive,EC1128-Junior Strategy Executive,EC1244-Trainee Strategy Executive,EC1244-Trainee Strategy Executive,EC1244-Trainee Strategy Executive,EC1217-Strategy Planning Trainee,EC1217-Strategy Planning Trainee,EC1217-Strategy Planning Trainee,EC1024-Client Services Director,EC1024-Client Services Director,EC1024-Client Services Director,EC1025-Group Account Director,EC1025-Group Account Director,EC1025-Group Account Director,EC1026-Senior Account Director,EC1026-Senior Account Director,EC1026-Senior Account Director,EC1153-Account Director,EC1153-Account Director,EC1153-Account Director,EC1136-Senior Account Manager,EC1136-Senior Account Manager,EC1136-Senior Account Manager,EC1124-Account Manager,EC1124-Account Manager,EC1124-Account Manager,EC1028-Senior Account Executive,EC1028-Senior Account Executive,EC1028-Senior Account Executive,EC1029-Junior Account Executive,EC1029-Junior Account Executive,EC1029-Junior Account Executive,EC1154-Account Management Trainee,EC1154-Account Management Trainee,EC1154-Account Management Trainee,EC1030-Head of Creative,EC1030-Head of Creative,EC1030-Head of Creative,EC1239-Group Creative Director,EC1239-Group Creative Director,EC1239-Group Creative Director,EC1031-Creative Director,EC1031-Creative Director,EC1031-Creative Director,EC1243-Trainee Creative,EC1243-Trainee Creative,EC1243-Trainee Creative,EC1036-Senior Art Director,EC1036-Senior Art Director,EC1036-Senior Art Director,EC1037-Junior Art Director,EC1037-Junior Art Director,EC1037-Junior Art Director,EC1140-Creative Art Supervisor,EC1140-Creative Art Supervisor,EC1140-Creative Art Supervisor,EC1039-Artworker,EC1039-Artworker,EC1039-Artworker,EC1038-Trainee Artworker,EC1038-Trainee Artworker,EC1038-Trainee Artworker,EC1041-Senior  Creative Copywriter,EC1041-Senior  Creative Copywriter,EC1041-Senior  Creative Copywriter,EC1042-Junior Creative Copywriter,EC1042-Junior Creative Copywriter,EC1042-Junior Creative Copywriter,EC1174-Trainee Creative Copywriter,EC1174-Trainee Creative Copywriter,EC1174-Trainee Creative Copywriter,EC1069-Community Manager,EC1069-Community Manager,EC1069-Community Manager,EC1082-Head of Programming,EC1082-Head of Programming,EC1082-Head of Programming,EC1083-Programming Manager,EC1083-Programming Manager,EC1083-Programming Manager,EC1085-Senior Front End Programmer,EC1085-Senior Front End Programmer,EC1085-Senior Front End Programmer,EC1086-Senior Back End Programmer,EC1086-Senior Back End Programmer,EC1086-Senior Back End Programmer,EC1088-Senior UX Designer,EC1088-Senior UX Designer,EC1088-Senior UX Designer,EC1089-Junior Front End Programmer,EC1089-Junior Front End Programmer,EC1089-Junior Front End Programmer,EC1090-Junior Back End Programmer,EC1090-Junior Back End Programmer,EC1090-Junior Back End Programmer,EC1093-Junior UX Designer,EC1093-Junior UX Designer,EC1093-Junior UX Designer,EC1087-Trainee Front End Programmer,EC1087-Trainee Front End Programmer,EC1087-Trainee Front End Programmer,EC1091-Trainee Back End Programmer,EC1091-Trainee Back End Programmer,EC1091-Trainee Back End Programmer,EC1108-Head of Projects,EC1108-Head of Projects,EC1108-Head of Projects,EC1109-Director of Projects,EC1109-Director of Projects,EC1109-Director of Projects,EC1137-Senior Project Manager,EC1137-Senior Project Manager,EC1137-Senior Project Manager,EC1111-Project Manager,EC1111-Project Manager,EC1111-Project Manager,EC1113-Junior Project Executive,EC1113-Junior Project Executive,EC1113-Junior Project Executive,EC1166-IT Manager,EC1166-IT Manager,EC1166-IT Manager,EC1173-Marketing Manager,EC1173-Marketing Manager,EC1173-Marketing Manager,EC1185-Client Systems QA Manager,EC1185-Client Systems QA Manager,EC1185-Client Systems QA Manager,EC1186-Client Systems QA Senior Executive,EC1186-Client Systems QA Senior Executive,EC1186-Client Systems QA Senior Executive
+</t>
+  </si>
+  <si>
+    <t>ValidateJobtype_CB(Client Billable)</t>
+  </si>
+  <si>
+    <t>1707105280</t>
+  </si>
+  <si>
+    <t>170710214</t>
+  </si>
+  <si>
+    <t>1707AutomationEmpy19March2020141320@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4487,7 +4494,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4537,7 +4544,7 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -4990,7 +4997,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,7 +5221,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>970</v>
+        <v>1205</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="44"/>
@@ -6196,7 +6203,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1178</v>
+        <v>1207</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6211,7 +6218,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
@@ -6224,7 +6231,7 @@
         <v>230</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
@@ -6258,7 +6265,7 @@
         <v>978</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
@@ -6319,7 +6326,7 @@
         <v>1069</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6353,18 +6360,18 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>1180</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6372,7 +6379,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
   </sheetData>
@@ -13022,8 +13029,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13102,7 +13109,7 @@
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>55</v>
+        <v>1206</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>1005</v>
@@ -14692,16 +14699,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B3" s="110" t="s">
         <v>1200</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>1201</v>
       </c>
     </row>
   </sheetData>
@@ -14738,16 +14745,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C1" t="s">
         <v>1187</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1188</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1189</v>
       </c>
       <c r="E1" t="s">
         <v>128</v>
@@ -14756,19 +14763,19 @@
         <v>337</v>
       </c>
       <c r="G1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H1" t="s">
         <v>1183</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1184</v>
       </c>
       <c r="I1" t="s">
         <v>127</v>
       </c>
       <c r="J1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K1" t="s">
         <v>1185</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1186</v>
       </c>
       <c r="L1" t="s">
         <v>132</v>
@@ -14777,19 +14784,19 @@
         <v>338</v>
       </c>
       <c r="N1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="O1" t="s">
         <v>1190</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1191</v>
       </c>
       <c r="P1" t="s">
         <v>131</v>
       </c>
       <c r="Q1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R1" t="s">
         <v>1192</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -14800,10 +14807,10 @@
         <v>344</v>
       </c>
       <c r="H2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2">
@@ -14813,10 +14820,10 @@
         <v>344</v>
       </c>
       <c r="O2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q2">
         <v>500</v>
@@ -14827,7 +14834,7 @@
         <v>1707</v>
       </c>
       <c r="E3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="s">
         <v>343</v>
@@ -14836,26 +14843,26 @@
         <v>372</v>
       </c>
       <c r="H3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="J3" s="59"/>
       <c r="K3">
         <v>500</v>
       </c>
       <c r="L3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="M3" t="s">
         <v>344</v>
       </c>
       <c r="O3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="P3" s="59" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q3">
         <v>500</v>
@@ -15917,7 +15924,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\741496\Documents\bau_environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="62" activeTab="65"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="63" activeTab="66"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -78,8 +78,9 @@
     <sheet name="ReverseGL" sheetId="69" r:id="rId64"/>
     <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId65"/>
     <sheet name="CreateReversingGeneralJournal" sheetId="70" r:id="rId66"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId67"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId68"/>
+    <sheet name="ImportBudgetModel" sheetId="71" r:id="rId67"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId68"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId69"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="1201">
   <si>
     <t>Description</t>
   </si>
@@ -3683,6 +3684,18 @@
   </si>
   <si>
     <t>1010000-06</t>
+  </si>
+  <si>
+    <t>Job_Department</t>
+  </si>
+  <si>
+    <t>RB101</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>-2500.00</t>
   </si>
 </sst>
 </file>
@@ -3956,7 +3969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4171,6 +4184,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14971,7 +14986,7 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -15098,6 +15113,66 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -15351,7 +15426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -34,51 +34,52 @@
     <sheet name="ApproveTimesheet" sheetId="17" r:id="rId20"/>
     <sheet name="RejectTimesheet" sheetId="18" r:id="rId21"/>
     <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId22"/>
-    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId23"/>
-    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId24"/>
-    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId25"/>
-    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId26"/>
-    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId27"/>
-    <sheet name="FixedAssetVal" sheetId="26" r:id="rId28"/>
-    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId29"/>
-    <sheet name="PostEntries" sheetId="28" r:id="rId30"/>
-    <sheet name="VendorInvoice" sheetId="22" r:id="rId31"/>
-    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId32"/>
-    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId33"/>
-    <sheet name="PostVendorJournal" sheetId="44" r:id="rId34"/>
-    <sheet name="AR Single Payment" sheetId="35" r:id="rId35"/>
-    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId36"/>
-    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId37"/>
-    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId38"/>
-    <sheet name="Writingoffbad" sheetId="39" r:id="rId39"/>
-    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId40"/>
-    <sheet name="Reverse Invoice" sheetId="41" r:id="rId41"/>
-    <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
-    <sheet name="CreateClient" sheetId="57" r:id="rId43"/>
-    <sheet name="CreateCompanyClient" sheetId="59" r:id="rId44"/>
-    <sheet name="CreateCompanyBrand" sheetId="60" r:id="rId45"/>
-    <sheet name="CreateGlobalBrand" sheetId="63" r:id="rId46"/>
-    <sheet name="CreateGlobalProduct" sheetId="64" r:id="rId47"/>
-    <sheet name="AmendCompanyClient" sheetId="61" r:id="rId48"/>
-    <sheet name="AmendCompanyBrand" sheetId="62" r:id="rId49"/>
-    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId50"/>
-    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId51"/>
-    <sheet name="AmendGlobalVendor" sheetId="65" r:id="rId52"/>
-    <sheet name="AmendCompanyVendor" sheetId="66" r:id="rId53"/>
-    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId54"/>
-    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId55"/>
-    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId56"/>
-    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId57"/>
-    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId58"/>
-    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId59"/>
-    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId60"/>
-    <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId61"/>
-    <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId62"/>
-    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId63"/>
-    <sheet name="ReverseGL" sheetId="69" r:id="rId64"/>
-    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId65"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId66"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId67"/>
+    <sheet name="Sheet1" sheetId="70" r:id="rId23"/>
+    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId24"/>
+    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId25"/>
+    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId26"/>
+    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId27"/>
+    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId28"/>
+    <sheet name="FixedAssetVal" sheetId="26" r:id="rId29"/>
+    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId30"/>
+    <sheet name="PostEntries" sheetId="28" r:id="rId31"/>
+    <sheet name="VendorInvoice" sheetId="22" r:id="rId32"/>
+    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId33"/>
+    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId34"/>
+    <sheet name="PostVendorJournal" sheetId="44" r:id="rId35"/>
+    <sheet name="AR Single Payment" sheetId="35" r:id="rId36"/>
+    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId37"/>
+    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId38"/>
+    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId39"/>
+    <sheet name="Writingoffbad" sheetId="39" r:id="rId40"/>
+    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId41"/>
+    <sheet name="Reverse Invoice" sheetId="41" r:id="rId42"/>
+    <sheet name="Credit Note With PO" sheetId="42" r:id="rId43"/>
+    <sheet name="CreateClient" sheetId="57" r:id="rId44"/>
+    <sheet name="CreateCompanyClient" sheetId="59" r:id="rId45"/>
+    <sheet name="CreateCompanyBrand" sheetId="60" r:id="rId46"/>
+    <sheet name="CreateGlobalBrand" sheetId="63" r:id="rId47"/>
+    <sheet name="CreateGlobalProduct" sheetId="64" r:id="rId48"/>
+    <sheet name="AmendCompanyClient" sheetId="61" r:id="rId49"/>
+    <sheet name="AmendCompanyBrand" sheetId="62" r:id="rId50"/>
+    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId51"/>
+    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId52"/>
+    <sheet name="AmendGlobalVendor" sheetId="65" r:id="rId53"/>
+    <sheet name="AmendCompanyVendor" sheetId="66" r:id="rId54"/>
+    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId55"/>
+    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId56"/>
+    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId57"/>
+    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId58"/>
+    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId59"/>
+    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId60"/>
+    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId61"/>
+    <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId62"/>
+    <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId63"/>
+    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId64"/>
+    <sheet name="ReverseGL" sheetId="69" r:id="rId65"/>
+    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId66"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId67"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId68"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="1213">
   <si>
     <t>Description</t>
   </si>
@@ -3714,13 +3715,22 @@
     <t>ValidateJobtype_CB(Client Billable)</t>
   </si>
   <si>
-    <t>1707105280</t>
-  </si>
-  <si>
     <t>170710214</t>
   </si>
   <si>
     <t>1707AutomationEmpy19March2020141320@gmail.com</t>
+  </si>
+  <si>
+    <t>Working Estimate</t>
+  </si>
+  <si>
+    <t>Budget Revision No</t>
+  </si>
+  <si>
+    <t>1707105281</t>
+  </si>
+  <si>
+    <t>1707109754</t>
   </si>
 </sst>
 </file>
@@ -4517,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>948</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6010,7 +6020,7 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK25"/>
+  <dimension ref="A1:FK27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -6203,7 +6213,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6218,7 +6228,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
@@ -6231,7 +6241,7 @@
         <v>230</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1180</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
@@ -6379,7 +6389,23 @@
         <v>2</v>
       </c>
       <c r="B25" s="30" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>1209</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6768,10 +6794,26 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:BL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7027,8 +7069,24 @@
       <c r="D2" s="59" t="s">
         <v>950</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="E2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
+        <v>998312</v>
+      </c>
+      <c r="J2">
+        <v>998312</v>
+      </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7058,43 +7116,6 @@
       <c r="J3" s="59" t="s">
         <v>949</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7131,9 +7152,7 @@
       <c r="A2" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>1028</v>
-      </c>
+      <c r="B2" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7142,6 +7161,45 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7236,7 +7294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7309,7 +7367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7372,77 +7430,6 @@
       </c>
       <c r="B6" s="79" t="s">
         <v>266</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="79" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -8646,6 +8633,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -8704,7 +8762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -8794,7 +8852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -8833,7 +8891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -8869,7 +8927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -8924,7 +8982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9004,7 +9062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9080,7 +9138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9119,7 +9177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9203,95 +9261,6 @@
       </c>
       <c r="J2" s="30" t="s">
         <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G2">
-        <v>111413</v>
-      </c>
-      <c r="H2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I2">
-        <v>1307200433</v>
-      </c>
-      <c r="J2">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -11359,6 +11328,95 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2">
+        <v>111413</v>
+      </c>
+      <c r="H2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2">
+        <v>1307200433</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11434,7 +11492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -11505,7 +11563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -11691,7 +11749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11933,7 +11991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12121,7 +12179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12327,7 +12385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12601,7 +12659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12880,7 +12938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12943,7 +13001,268 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1707</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1712</v>
+      </c>
+      <c r="D1" s="67"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1707</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1712</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="68"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="69"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13022,268 +13341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1707</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1712</v>
-      </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1707</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1712</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="68"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="69"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13364,7 +13422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13461,7 +13519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13548,7 +13606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13619,7 +13677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13658,69 +13716,6 @@
       </c>
       <c r="B3" t="s">
         <v>373</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="100">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>983</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>984</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -13743,7 +13738,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13758,15 +13753,15 @@
       <c r="A2" t="s">
         <v>982</v>
       </c>
-      <c r="B2" s="103" t="s">
-        <v>991</v>
+      <c r="B2" s="59" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" t="s">
         <v>373</v>
       </c>
     </row>
@@ -13775,7 +13770,7 @@
         <v>983</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>992</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13783,7 +13778,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>993</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -13793,6 +13788,69 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="100">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>984</v>
+      </c>
+      <c r="B5" t="s">
+        <v>993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13839,7 +13897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13894,69 +13952,6 @@
       </c>
       <c r="B5" t="s">
         <v>999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="100">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B2" s="104">
-        <v>103132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>994</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>996</v>
-      </c>
-      <c r="B5" t="s">
-        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -14122,6 +14117,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="100">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B2" s="104">
+        <v>103132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B5" t="s">
+        <v>997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
   </cols>
@@ -14172,7 +14230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -14470,7 +14528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -14608,7 +14666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -14671,7 +14729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -14717,7 +14775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -14874,7 +14932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -15129,7 +15187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -15277,10 +15335,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BJ3"/>
+  <dimension ref="A1:BJ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15511,7 +15569,7 @@
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>980</v>
@@ -15580,6 +15638,11 @@
       </c>
       <c r="J3" t="s">
         <v>1015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1707</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="62" activeTab="65"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,12 @@
     <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId63"/>
     <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId64"/>
     <sheet name="ReverseGL" sheetId="69" r:id="rId65"/>
-    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId66"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId67"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId68"/>
+    <sheet name="CreateCurrencyJournal" sheetId="71" r:id="rId66"/>
+    <sheet name="CopyGL" sheetId="72" r:id="rId67"/>
+    <sheet name="ReverseGL (2)" sheetId="73" r:id="rId68"/>
+    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId69"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId70"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId71"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="1217">
   <si>
     <t>Description</t>
   </si>
@@ -3731,6 +3734,18 @@
   </si>
   <si>
     <t>1707109754</t>
+  </si>
+  <si>
+    <t>04/13/2020</t>
+  </si>
+  <si>
+    <t>CreatedOn</t>
+  </si>
+  <si>
+    <t>3/17/2020</t>
+  </si>
+  <si>
+    <t>01/13/2020</t>
   </si>
 </sst>
 </file>
@@ -4004,7 +4019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4218,6 +4233,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14777,6 +14793,146 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="107">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="109">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="107">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B2" s="109"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="108" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="108"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="107">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B2" s="109"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
@@ -14932,404 +15088,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="37">
-        <v>1707</v>
-      </c>
-      <c r="C1" s="37">
-        <v>1712</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>940</v>
-      </c>
-      <c r="C2" s="94" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>941</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>942</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>943</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="94" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="94" t="s">
-        <v>944</v>
-      </c>
-      <c r="C7" s="94" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="94" t="s">
-        <v>945</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="94" t="s">
-        <v>946</v>
-      </c>
-      <c r="C9" s="94" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="94" t="s">
-        <v>947</v>
-      </c>
-      <c r="C10" s="94" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>948</v>
-      </c>
-      <c r="C11" s="95" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="98" t="s">
-        <v>965</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -15337,7 +15095,7 @@
   </sheetPr>
   <dimension ref="A1:BJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -15643,6 +15401,404 @@
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1707</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="37">
+        <v>1707</v>
+      </c>
+      <c r="C1" s="37">
+        <v>1712</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>940</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>941</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>942</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>943</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>944</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>945</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>946</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>947</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>948</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>965</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="62" activeTab="65"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="66" activeTab="69"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -81,8 +81,9 @@
     <sheet name="CopyGL" sheetId="72" r:id="rId67"/>
     <sheet name="ReverseGL (2)" sheetId="73" r:id="rId68"/>
     <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId69"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId70"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId71"/>
+    <sheet name="InvoicePreparation" sheetId="74" r:id="rId70"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId71"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId72"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="1218">
   <si>
     <t>Description</t>
   </si>
@@ -3746,6 +3747,9 @@
   </si>
   <si>
     <t>01/13/2020</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -14795,7 +14799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -15412,6 +15416,53 @@
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:M11"/>
@@ -15664,7 +15715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="66" activeTab="69"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="29" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="1223">
   <si>
     <t>Description</t>
   </si>
@@ -3170,12 +3170,6 @@
   </si>
   <si>
     <t>103167006001</t>
-  </si>
-  <si>
-    <t>1707Invoice</t>
-  </si>
-  <si>
-    <t>01/03/2020</t>
   </si>
   <si>
     <t>1707105266</t>
@@ -3731,12 +3725,6 @@
     <t>Budget Revision No</t>
   </si>
   <si>
-    <t>1707105281</t>
-  </si>
-  <si>
-    <t>1707109754</t>
-  </si>
-  <si>
     <t>04/13/2020</t>
   </si>
   <si>
@@ -3750,12 +3738,40 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>E1003</t>
+  </si>
+  <si>
+    <t>Party Resource</t>
+  </si>
+  <si>
+    <t>03/02/2020</t>
+  </si>
+  <si>
+    <t>March04</t>
+  </si>
+  <si>
+    <t>1707117477</t>
+  </si>
+  <si>
+    <t>1707105304</t>
+  </si>
+  <si>
+    <t>1707109769</t>
+  </si>
+  <si>
+    <t>April10</t>
+  </si>
+  <si>
+    <t>1707117479</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4525,13 +4541,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4580,16 +4596,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="57.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.7109375" style="30" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="30" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="59.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="51.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="51.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="30" width="58.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="57.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="30" width="63.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="30" width="45.28515625" collapsed="true"/>
+    <col min="10" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4936,9 +4952,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="30" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="30" width="23.140625" collapsed="true"/>
+    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5032,11 +5048,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="69.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="68.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
+    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5251,7 +5267,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="44"/>
@@ -5473,8 +5489,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5603,8 +5619,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5714,9 +5730,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5839,13 +5855,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5868,7 +5884,7 @@
       <c r="A3" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5891,8 +5907,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5938,11 +5954,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6004,8 +6020,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6042,17 +6058,17 @@
   </sheetPr>
   <dimension ref="A1:FK27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="167" width="32" style="30" customWidth="1"/>
-    <col min="168" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="30" width="27.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="51.7109375" collapsed="true"/>
+    <col min="4" max="167" customWidth="true" style="30" width="32.0" collapsed="true"/>
+    <col min="168" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.25">
@@ -6232,8 +6248,8 @@
       <c r="A2" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>1211</v>
+      <c r="B2" t="s">
+        <v>1219</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6248,7 +6264,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
@@ -6260,19 +6276,25 @@
       <c r="A5" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>1212</v>
+      <c r="B5" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>966</v>
       </c>
+      <c r="B6" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>967</v>
       </c>
+      <c r="B7" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -6295,7 +6317,7 @@
         <v>978</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
@@ -6303,7 +6325,7 @@
         <v>989</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
@@ -6311,76 +6333,76 @@
         <v>990</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="14" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6390,18 +6412,18 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6409,22 +6431,22 @@
         <v>2</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>1211</v>
+        <v>1207</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B27" s="30" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B27" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6447,8 +6469,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6498,8 +6520,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6549,50 +6571,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="11.140625" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="11.140625" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="11.140625" customWidth="1"/>
-    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.140625" customWidth="1"/>
-    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="11.140625" customWidth="1"/>
-    <col min="57" max="58" width="11.140625" customWidth="1"/>
-    <col min="63" max="64" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="21" max="22" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="27" max="28" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="33" max="34" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="39" max="40" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="45" max="46" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="51" max="52" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="57" max="58" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="63" max="64" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
@@ -6833,55 +6855,55 @@
   <dimension ref="A1:BL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="11.140625" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="11.140625" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="11.140625" customWidth="1"/>
-    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.140625" customWidth="1"/>
-    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="11.140625" customWidth="1"/>
-    <col min="57" max="58" width="11.140625" customWidth="1"/>
-    <col min="63" max="64" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="21" max="22" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="27" max="28" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="33" max="34" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="39" max="40" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="45" max="46" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="51" max="52" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="57" max="58" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="63" max="64" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
@@ -7156,8 +7178,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7193,8 +7215,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7210,7 +7232,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -7232,8 +7254,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7327,10 +7349,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="12.42578125" collapsed="true"/>
+    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7400,8 +7422,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7471,7 +7493,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8653,8 +8675,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8724,8 +8746,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8789,17 +8811,17 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -8854,16 +8876,16 @@
         <v>1707</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>1026</v>
+        <v>1216</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>1026</v>
+        <v>1216</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1025</v>
+        <v>1221</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>1221</v>
       </c>
     </row>
   </sheetData>
@@ -8885,7 +8907,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8924,7 +8946,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8960,8 +8982,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9015,9 +9037,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="24.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9095,9 +9117,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9171,8 +9193,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9210,13 +9232,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="30"/>
-    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="30"/>
-    <col min="9" max="9" width="16" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" style="30" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
+    <col min="4" max="8" style="30" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="30" width="27.5703125" collapsed="true"/>
+    <col min="11" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9302,7 +9324,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11356,10 +11378,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11445,9 +11467,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11525,8 +11547,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11596,11 +11618,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -11782,8 +11804,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11804,34 +11826,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11847,23 +11869,23 @@
         <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11876,18 +11898,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B12" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B13" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11895,15 +11917,15 @@
         <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -11911,7 +11933,7 @@
         <v>1020</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -11919,12 +11941,12 @@
         <v>1019</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B18">
         <v>17079905</v>
@@ -11935,44 +11957,44 @@
         <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B20" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B21" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B22" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B23" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B24">
         <v>33</v>
@@ -11980,15 +12002,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B25" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B26">
         <v>464576457</v>
@@ -11996,7 +12018,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B27">
         <v>34576457</v>
@@ -12024,9 +12046,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -12037,7 +12059,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12062,21 +12084,21 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12092,13 +12114,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12106,21 +12128,21 @@
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C7" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B8" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C8" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12128,65 +12150,65 @@
         <v>29</v>
       </c>
       <c r="B9" s="99" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C9" s="99" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B12" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C12" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B14" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C14" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -12212,9 +12234,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -12225,7 +12247,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12250,10 +12272,10 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12262,18 +12284,18 @@
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12282,7 +12304,7 @@
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="59" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12298,13 +12320,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12312,21 +12334,21 @@
         <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B10" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C10" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12334,65 +12356,65 @@
         <v>29</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C11" s="99" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B13" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C13" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B14" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C14" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B16" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C16" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -12418,8 +12440,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12440,10 +12462,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12459,39 +12481,39 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B6" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B7" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12507,23 +12529,23 @@
         <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12536,18 +12558,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B15" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B16" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12555,15 +12577,15 @@
         <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B18" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -12571,7 +12593,7 @@
         <v>1020</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -12579,12 +12601,12 @@
         <v>1019</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B21">
         <v>17079905</v>
@@ -12595,52 +12617,52 @@
         <v>238</v>
       </c>
       <c r="B22" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B23" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B24" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B25" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B26" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B27" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B28">
         <v>33</v>
@@ -12648,15 +12670,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B29" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B30">
         <v>464576457</v>
@@ -12664,7 +12686,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B31">
         <v>34576457</v>
@@ -12692,8 +12714,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12714,10 +12736,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12738,39 +12760,39 @@
         <v>996</v>
       </c>
       <c r="B6" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B7" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B8" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12786,23 +12808,23 @@
         <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12815,18 +12837,18 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B16" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B17" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -12834,15 +12856,15 @@
         <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B19" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -12850,7 +12872,7 @@
         <v>1020</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -12858,12 +12880,12 @@
         <v>1019</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B22">
         <v>17079905</v>
@@ -12874,52 +12896,52 @@
         <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B24" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B25" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B26" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B27" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B28" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B29">
         <v>33</v>
@@ -12927,15 +12949,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B30" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B31">
         <v>464576457</v>
@@ -12943,7 +12965,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B32">
         <v>34576457</v>
@@ -12971,8 +12993,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12988,7 +13010,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13004,7 +13026,7 @@
         <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13012,7 +13034,7 @@
         <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
   </sheetData>
@@ -13034,11 +13056,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="30" width="31.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="45.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13108,7 +13130,7 @@
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>1005</v>
@@ -13295,8 +13317,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13312,7 +13334,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13328,7 +13350,7 @@
         <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13336,7 +13358,7 @@
         <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13344,7 +13366,7 @@
         <v>983</v>
       </c>
       <c r="B6" s="101" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -13352,7 +13374,7 @@
         <v>984</v>
       </c>
       <c r="B7" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
@@ -13374,8 +13396,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13391,7 +13413,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13407,7 +13429,7 @@
         <v>1016</v>
       </c>
       <c r="B4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13430,7 +13452,7 @@
         <v>1020</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
@@ -13455,8 +13477,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13472,7 +13494,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13488,7 +13510,7 @@
         <v>983</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13496,7 +13518,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13504,7 +13526,7 @@
         <v>1016</v>
       </c>
       <c r="B6" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -13527,7 +13549,7 @@
         <v>1020</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -13552,8 +13574,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13574,7 +13596,7 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13582,7 +13604,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13595,7 +13617,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B6" s="59">
         <v>84625318710</v>
@@ -13603,7 +13625,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B7" s="59">
         <v>84625318710</v>
@@ -13611,7 +13633,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
@@ -13639,8 +13661,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13661,7 +13683,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13674,7 +13696,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B5" t="s">
         <v>373</v>
@@ -13682,10 +13704,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B6" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
@@ -13710,8 +13732,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13727,7 +13749,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13757,8 +13779,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13774,7 +13796,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13790,7 +13812,7 @@
         <v>983</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13798,7 +13820,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
   </sheetData>
@@ -13820,8 +13842,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13883,8 +13905,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13930,8 +13952,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13993,10 +14015,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" customWidth="true" style="49" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="49" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="26.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14137,8 +14159,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14200,8 +14222,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14263,8 +14285,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14285,10 +14307,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14296,7 +14318,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14320,12 +14342,12 @@
         <v>1000</v>
       </c>
       <c r="B7" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B8">
         <v>6000056</v>
@@ -14333,10 +14355,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B9" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14349,90 +14371,90 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B13" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B14" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B15" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B16" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B17" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B18" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B21" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14440,44 +14462,44 @@
         <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B23" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B24" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B25" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B26" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -14485,7 +14507,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B28">
         <v>300000</v>
@@ -14493,7 +14515,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B29" t="s">
         <v>999</v>
@@ -14501,39 +14523,39 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B30" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B31" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B32" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B33" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B34" t="s">
         <v>313</v>
@@ -14561,8 +14583,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14575,7 +14597,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1003</v>
@@ -14586,7 +14608,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14599,42 +14621,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B5" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B6" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B7" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B9" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14650,12 +14672,12 @@
         <v>1000</v>
       </c>
       <c r="B11" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -14663,7 +14685,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B13">
         <v>100000</v>
@@ -14674,7 +14696,7 @@
         <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -14699,8 +14721,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14762,9 +14784,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="108"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="108" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="108" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="108" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14777,16 +14799,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -14805,8 +14827,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14827,18 +14849,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B4" s="111" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
@@ -14857,8 +14879,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14871,16 +14893,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
   </sheetData>
@@ -14902,9 +14924,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="108"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="108" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="108" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="108" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14917,16 +14939,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -14948,31 +14970,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D1" t="s">
         <v>1186</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1188</v>
       </c>
       <c r="E1" t="s">
         <v>128</v>
@@ -14981,19 +15003,19 @@
         <v>337</v>
       </c>
       <c r="G1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="I1" t="s">
         <v>127</v>
       </c>
       <c r="J1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="K1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="L1" t="s">
         <v>132</v>
@@ -15002,19 +15024,19 @@
         <v>338</v>
       </c>
       <c r="N1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="O1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="P1" t="s">
         <v>131</v>
       </c>
       <c r="Q1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="R1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -15025,10 +15047,10 @@
         <v>344</v>
       </c>
       <c r="H2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I2" s="59" t="s">
         <v>1193</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>1195</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2">
@@ -15038,10 +15060,10 @@
         <v>344</v>
       </c>
       <c r="O2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="P2" s="59" t="s">
         <v>1194</v>
-      </c>
-      <c r="P2" s="59" t="s">
-        <v>1196</v>
       </c>
       <c r="Q2">
         <v>500</v>
@@ -15052,7 +15074,7 @@
         <v>1707</v>
       </c>
       <c r="E3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="F3" t="s">
         <v>343</v>
@@ -15061,26 +15083,26 @@
         <v>372</v>
       </c>
       <c r="H3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I3" s="59" t="s">
         <v>1193</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>1195</v>
       </c>
       <c r="J3" s="59"/>
       <c r="K3">
         <v>500</v>
       </c>
       <c r="L3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="M3" t="s">
         <v>344</v>
       </c>
       <c r="O3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="P3" s="59" t="s">
         <v>1194</v>
-      </c>
-      <c r="P3" s="59" t="s">
-        <v>1196</v>
       </c>
       <c r="Q3">
         <v>500</v>
@@ -15100,45 +15122,45 @@
   <dimension ref="A1:BJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="56" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -15331,7 +15353,7 @@
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>980</v>
@@ -15370,6 +15392,24 @@
         <v>998312</v>
       </c>
       <c r="N2">
+        <v>998312</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q2">
+        <v>25</v>
+      </c>
+      <c r="R2">
+        <v>500</v>
+      </c>
+      <c r="S2">
+        <v>998312</v>
+      </c>
+      <c r="T2">
         <v>998312</v>
       </c>
     </row>
@@ -15404,7 +15444,7 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
   </sheetData>
@@ -15420,14 +15460,14 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15448,10 +15488,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -15468,14 +15508,14 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="10" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15507,7 +15547,7 @@
         <v>940</v>
       </c>
       <c r="C2" s="94" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -15528,7 +15568,7 @@
         <v>941</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -15549,7 +15589,7 @@
         <v>942</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -15570,7 +15610,7 @@
         <v>943</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -15591,7 +15631,7 @@
         <v>362</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -15612,7 +15652,7 @@
         <v>944</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -15633,7 +15673,7 @@
         <v>945</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -15654,7 +15694,7 @@
         <v>946</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -15675,7 +15715,7 @@
         <v>947</v>
       </c>
       <c r="C10" s="94" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -15696,7 +15736,7 @@
         <v>948</v>
       </c>
       <c r="C11" s="95" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -15728,8 +15768,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15871,47 +15911,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -16169,8 +16209,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16186,7 +16226,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16194,7 +16234,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="29" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -25,69 +25,72 @@
     <sheet name="UserCreation" sheetId="6" r:id="rId11"/>
     <sheet name="EmployeeAsUser" sheetId="7" r:id="rId12"/>
     <sheet name="ChangeEmployee" sheetId="25" r:id="rId13"/>
-    <sheet name="ChangeUser" sheetId="43" r:id="rId14"/>
-    <sheet name="Modify budget" sheetId="32" r:id="rId15"/>
-    <sheet name="CreateQuote" sheetId="16" r:id="rId16"/>
-    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId17"/>
-    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId18"/>
-    <sheet name="Reject Expenses" sheetId="31" r:id="rId19"/>
-    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId20"/>
-    <sheet name="RejectTimesheet" sheetId="18" r:id="rId21"/>
-    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId22"/>
-    <sheet name="Sheet1" sheetId="70" r:id="rId23"/>
-    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId24"/>
-    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId25"/>
-    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId26"/>
-    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId27"/>
-    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId28"/>
-    <sheet name="FixedAssetVal" sheetId="26" r:id="rId29"/>
-    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId30"/>
-    <sheet name="PostEntries" sheetId="28" r:id="rId31"/>
-    <sheet name="VendorInvoice" sheetId="22" r:id="rId32"/>
-    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId33"/>
-    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId34"/>
-    <sheet name="PostVendorJournal" sheetId="44" r:id="rId35"/>
-    <sheet name="AR Single Payment" sheetId="35" r:id="rId36"/>
-    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId37"/>
-    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId38"/>
-    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId39"/>
-    <sheet name="Writingoffbad" sheetId="39" r:id="rId40"/>
-    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId41"/>
-    <sheet name="Reverse Invoice" sheetId="41" r:id="rId42"/>
-    <sheet name="Credit Note With PO" sheetId="42" r:id="rId43"/>
-    <sheet name="CreateClient" sheetId="57" r:id="rId44"/>
-    <sheet name="CreateCompanyClient" sheetId="59" r:id="rId45"/>
-    <sheet name="CreateCompanyBrand" sheetId="60" r:id="rId46"/>
-    <sheet name="CreateGlobalBrand" sheetId="63" r:id="rId47"/>
-    <sheet name="CreateGlobalProduct" sheetId="64" r:id="rId48"/>
-    <sheet name="AmendCompanyClient" sheetId="61" r:id="rId49"/>
-    <sheet name="AmendCompanyBrand" sheetId="62" r:id="rId50"/>
-    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId51"/>
-    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId52"/>
-    <sheet name="AmendGlobalVendor" sheetId="65" r:id="rId53"/>
-    <sheet name="AmendCompanyVendor" sheetId="66" r:id="rId54"/>
-    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId55"/>
-    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId56"/>
-    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId57"/>
-    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId58"/>
-    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId59"/>
-    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId60"/>
-    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId61"/>
-    <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId62"/>
-    <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId63"/>
-    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId64"/>
-    <sheet name="ReverseGL" sheetId="69" r:id="rId65"/>
-    <sheet name="CreateCurrencyJournal" sheetId="71" r:id="rId66"/>
-    <sheet name="CopyGL" sheetId="72" r:id="rId67"/>
-    <sheet name="ReverseGL (2)" sheetId="73" r:id="rId68"/>
-    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId69"/>
-    <sheet name="InvoicePreparation" sheetId="74" r:id="rId70"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId71"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId72"/>
+    <sheet name="ReallocateJobEntries" sheetId="75" r:id="rId14"/>
+    <sheet name="JobClosure" sheetId="76" r:id="rId15"/>
+    <sheet name="BlockUser" sheetId="77" r:id="rId16"/>
+    <sheet name="ChangeUser" sheetId="43" r:id="rId17"/>
+    <sheet name="Modify budget" sheetId="32" r:id="rId18"/>
+    <sheet name="CreateQuote" sheetId="16" r:id="rId19"/>
+    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId20"/>
+    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId21"/>
+    <sheet name="Reject Expenses" sheetId="31" r:id="rId22"/>
+    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId23"/>
+    <sheet name="RejectTimesheet" sheetId="18" r:id="rId24"/>
+    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId25"/>
+    <sheet name="Sheet1" sheetId="70" r:id="rId26"/>
+    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId27"/>
+    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId28"/>
+    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId29"/>
+    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId30"/>
+    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId31"/>
+    <sheet name="FixedAssetVal" sheetId="26" r:id="rId32"/>
+    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId33"/>
+    <sheet name="PostEntries" sheetId="28" r:id="rId34"/>
+    <sheet name="VendorInvoice" sheetId="22" r:id="rId35"/>
+    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId36"/>
+    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId37"/>
+    <sheet name="PostVendorJournal" sheetId="44" r:id="rId38"/>
+    <sheet name="AR Single Payment" sheetId="35" r:id="rId39"/>
+    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId40"/>
+    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId41"/>
+    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId42"/>
+    <sheet name="Writingoffbad" sheetId="39" r:id="rId43"/>
+    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId44"/>
+    <sheet name="Reverse Invoice" sheetId="41" r:id="rId45"/>
+    <sheet name="Credit Note With PO" sheetId="42" r:id="rId46"/>
+    <sheet name="CreateClient" sheetId="57" r:id="rId47"/>
+    <sheet name="CreateCompanyClient" sheetId="59" r:id="rId48"/>
+    <sheet name="CreateCompanyBrand" sheetId="60" r:id="rId49"/>
+    <sheet name="CreateGlobalBrand" sheetId="63" r:id="rId50"/>
+    <sheet name="CreateGlobalProduct" sheetId="64" r:id="rId51"/>
+    <sheet name="AmendCompanyClient" sheetId="61" r:id="rId52"/>
+    <sheet name="AmendCompanyBrand" sheetId="62" r:id="rId53"/>
+    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId54"/>
+    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId55"/>
+    <sheet name="AmendGlobalVendor" sheetId="65" r:id="rId56"/>
+    <sheet name="AmendCompanyVendor" sheetId="66" r:id="rId57"/>
+    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId58"/>
+    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId59"/>
+    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId60"/>
+    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId61"/>
+    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId62"/>
+    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId63"/>
+    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId64"/>
+    <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId65"/>
+    <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId66"/>
+    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId67"/>
+    <sheet name="ReverseGL" sheetId="69" r:id="rId68"/>
+    <sheet name="CreateCurrencyJournal" sheetId="71" r:id="rId69"/>
+    <sheet name="CopyGL" sheetId="72" r:id="rId70"/>
+    <sheet name="ReverseGL (2)" sheetId="73" r:id="rId71"/>
+    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId72"/>
+    <sheet name="InvoicePreparation" sheetId="74" r:id="rId73"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId74"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId75"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -95,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="1234">
   <si>
     <t>Description</t>
   </si>
@@ -3749,12 +3752,6 @@
     <t>03/02/2020</t>
   </si>
   <si>
-    <t>March04</t>
-  </si>
-  <si>
-    <t>1707117477</t>
-  </si>
-  <si>
     <t>1707105304</t>
   </si>
   <si>
@@ -3765,13 +3762,51 @@
   </si>
   <si>
     <t>1707117479</t>
+  </si>
+  <si>
+    <t>1201-AKQA (Shanghai) Ltd</t>
+  </si>
+  <si>
+    <t>1216-Grey Shopper DPI Limited</t>
+  </si>
+  <si>
+    <t>1289-Red Wasabi Marketing Consulting (Shanghai) Co. Ltd</t>
+  </si>
+  <si>
+    <t>RJ_Autom_01</t>
+  </si>
+  <si>
+    <t>1201_TestAutomationJob</t>
+  </si>
+  <si>
+    <t>1216-Retainer Auto Job</t>
+  </si>
+  <si>
+    <t>1289-FPCP job</t>
+  </si>
+  <si>
+    <t>1307200405</t>
+  </si>
+  <si>
+    <t>NewJob_No</t>
+  </si>
+  <si>
+    <t>1307200406</t>
+  </si>
+  <si>
+    <t>1307_TestAutomationJob 14October2019 13:53:34</t>
+  </si>
+  <si>
+    <t>1307_AutomationUser 18October2019 15:21:12</t>
+  </si>
+  <si>
+    <t>1307_TestEmployeeAutomation 11October2019 11:26:39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4039,7 +4074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4254,6 +4289,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4546,8 +4593,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4596,16 +4643,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="59.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="51.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="51.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="30" width="58.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="57.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="30" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="30" width="45.28515625" collapsed="true"/>
-    <col min="10" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="59.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="58.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="57.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45.28515625" style="30" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4952,9 +4999,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5048,11 +5095,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="68.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
-    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5489,8 +5536,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5609,6 +5656,331 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1307</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1201</v>
+      </c>
+      <c r="D1" s="67">
+        <v>1216</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1307</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1201</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1216</v>
+      </c>
+      <c r="E2" s="68">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="114" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1307</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1201</v>
+      </c>
+      <c r="D1" s="67">
+        <v>1216</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1307</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1201</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1216</v>
+      </c>
+      <c r="E2" s="68">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="50">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="51">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="51">
+        <v>130710080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="51">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
@@ -5619,8 +5991,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5717,7 +6089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5730,9 +6102,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5847,7 +6219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5860,8 +6232,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5886,163 +6258,6 @@
       </c>
       <c r="B3" t="s">
         <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="31">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1307</v>
-      </c>
-      <c r="B2">
-        <v>1307</v>
-      </c>
-      <c r="C2">
-        <v>1307700041</v>
-      </c>
-      <c r="D2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6064,11 +6279,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="27.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="51.7109375" collapsed="true"/>
-    <col min="4" max="167" customWidth="true" style="30" width="32.0" collapsed="true"/>
-    <col min="168" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="167" width="32" style="30" customWidth="1" collapsed="1"/>
+    <col min="168" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.25">
@@ -6249,7 +6464,7 @@
         <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6277,7 +6492,7 @@
         <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
@@ -6285,7 +6500,7 @@
         <v>966</v>
       </c>
       <c r="B6" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
@@ -6293,7 +6508,7 @@
         <v>967</v>
       </c>
       <c r="B7" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
@@ -6439,7 +6654,7 @@
         <v>1207</v>
       </c>
       <c r="B26" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6457,6 +6672,119 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="31">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1307</v>
+      </c>
+      <c r="B2">
+        <v>1307</v>
+      </c>
+      <c r="C2">
+        <v>1307700041</v>
+      </c>
+      <c r="D2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6469,36 +6797,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>370</v>
-      </c>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="30"/>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="30"/>
+      <c r="A3" s="30" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>371</v>
+      <c r="A4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6507,7 +6828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6520,8 +6841,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6558,7 +6879,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="30"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6571,50 +6943,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="22" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="27" max="28" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="34" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="39" max="40" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="45" max="46" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="51" max="52" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="57" max="58" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="63" max="64" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="28" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="34" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="40" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="46" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="52" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
@@ -6831,7 +7203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6847,7 +7219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6860,50 +7232,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="22" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="27" max="28" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="34" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="39" max="40" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="45" max="46" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="51" max="52" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="57" max="58" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="63" max="64" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="28" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="34" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="40" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="46" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="52" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
@@ -7165,7 +7537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7178,8 +7550,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7202,7 +7574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7215,8 +7587,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7233,245 +7605,6 @@
       </c>
       <c r="B2" s="60" t="s">
         <v>1026</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="B6" s="91">
-        <v>43783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="12.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="30">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="79" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7493,7 +7626,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8667,7 +8800,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -8675,56 +8808,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>65</v>
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>262</v>
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>268</v>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1307</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="79" t="s">
-        <v>266</v>
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>271</v>
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>1307</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>273</v>
+      <c r="A6" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="91">
+        <v>43783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -8746,56 +8903,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="82" t="s">
+      <c r="A1" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="30">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>260</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>262</v>
+      <c r="A4" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="85" t="s">
+      <c r="A5" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="86" t="s">
-        <v>266</v>
+      <c r="B6" s="30" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -8807,85 +8966,66 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>951</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1707</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>1221</v>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -8895,6 +9035,238 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1707</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -8907,7 +9279,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8933,7 +9305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -8946,7 +9318,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8969,7 +9341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -8982,8 +9354,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9024,7 +9396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9037,9 +9409,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="24.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9096,213 +9468,6 @@
       </c>
       <c r="B7" s="30" t="s">
         <v>322</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="30">
-        <v>1307</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>322</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B2">
-        <v>1307100244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="16.42578125" collapsed="true"/>
-    <col min="2" max="2" style="30" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="4" max="8" style="30" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="30" width="27.5703125" collapsed="true"/>
-    <col min="11" max="16384" style="30" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="30">
-        <v>1307</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -9324,7 +9489,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11366,6 +11531,121 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1307</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2">
+        <v>1307100244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -11378,10 +11658,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="30" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="8" width="9.140625" style="30" collapsed="1"/>
+    <col min="9" max="9" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11392,60 +11675,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H1" t="s">
-        <v>121</v>
+      <c r="E1" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>236</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1" t="s">
-        <v>340</v>
+        <v>325</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G2">
-        <v>111413</v>
-      </c>
-      <c r="H2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I2">
-        <v>1307200433</v>
-      </c>
-      <c r="J2">
-        <v>500</v>
+        <v>170</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1307</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -11454,7 +11737,96 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2">
+        <v>111413</v>
+      </c>
+      <c r="H2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2">
+        <v>1307200433</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -11467,9 +11839,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11534,7 +11906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -11547,8 +11919,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11605,7 +11977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -11618,11 +11990,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -11791,7 +12163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11804,8 +12176,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12033,7 +12405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12046,9 +12418,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -12221,7 +12593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12234,9 +12606,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -12424,622 +12796,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="100">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>982</v>
-      </c>
-      <c r="B4">
-        <v>107742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>984</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>237</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B21">
-        <v>17079905</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>238</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B28">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B30">
-        <v>464576457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B31">
-        <v>34576457</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="100">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>982</v>
-      </c>
-      <c r="B4">
-        <v>107742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>996</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B22">
-        <v>17079905</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B29">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B31">
-        <v>464576457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B32">
-        <v>34576457</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B2" s="103" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13056,11 +12812,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="30" width="31.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="45.42578125" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.85546875" style="30" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="45.42578125" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13305,6 +13061,622 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="100">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B4">
+        <v>107742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>984</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B21">
+        <v>17079905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B30">
+        <v>464576457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B31">
+        <v>34576457</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="100">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B4">
+        <v>107742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>996</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B22">
+        <v>17079905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B31">
+        <v>464576457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B32">
+        <v>34576457</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13317,8 +13689,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13383,7 +13755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13396,8 +13768,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13464,7 +13836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13477,8 +13849,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13561,7 +13933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13574,8 +13946,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13648,7 +14020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13661,8 +14033,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13716,179 +14088,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="100">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="100">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>983</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>984</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="100">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B2" s="103" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>983</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>984</v>
-      </c>
-      <c r="B5" t="s">
-        <v>993</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13905,31 +14104,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>370</v>
+      <c r="B1" s="100">
+        <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>982</v>
       </c>
-      <c r="B2" s="103" t="s">
-        <v>991</v>
+      <c r="B2" s="59" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" t="s">
         <v>373</v>
       </c>
     </row>
@@ -13952,8 +14151,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13968,8 +14167,8 @@
       <c r="A2" t="s">
         <v>982</v>
       </c>
-      <c r="B2" s="1">
-        <v>103115</v>
+      <c r="B2" s="59" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13984,8 +14183,8 @@
       <c r="A4" t="s">
         <v>983</v>
       </c>
-      <c r="B4" s="104" t="s">
-        <v>998</v>
+      <c r="B4" s="101" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13993,7 +14192,7 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>999</v>
+        <v>1120</v>
       </c>
     </row>
   </sheetData>
@@ -14015,10 +14214,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="49" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="49" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="26.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="49" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14159,8 +14358,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14175,32 +14374,32 @@
       <c r="A2" t="s">
         <v>982</v>
       </c>
-      <c r="B2" s="104">
-        <v>103132</v>
+      <c r="B2" s="103" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="59" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>994</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>995</v>
+        <v>983</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -14210,6 +14409,53 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -14222,351 +14468,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="100">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>985</v>
-      </c>
-      <c r="B2">
-        <v>1707</v>
+        <v>982</v>
+      </c>
+      <c r="B2" s="1">
+        <v>103115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3">
-        <v>107433</v>
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>1001</v>
+        <v>983</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>373</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B5">
-        <v>9683254705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B8">
-        <v>6000056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B27">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B28">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B29" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14575,7 +14523,7 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -14583,128 +14531,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1">
-        <v>1712</v>
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="100">
+        <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1003</v>
+        <v>982</v>
+      </c>
+      <c r="B2" s="104">
+        <v>103132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>1174</v>
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B4">
-        <v>9846201537</v>
+        <v>994</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1089</v>
+        <v>996</v>
       </c>
       <c r="B5" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B13">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1034</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14721,8 +14594,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14743,18 +14616,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>986</v>
+        <v>218</v>
       </c>
       <c r="B3">
-        <v>107444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>107433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>988</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14772,6 +14645,505 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B5">
+        <v>9683254705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B8">
+        <v>6000056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B28">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B29" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B4">
+        <v>9846201537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B3">
+        <v>107444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -14784,9 +15156,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="108" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="108" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="108" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="108" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="108" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="108" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14817,7 +15189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -14827,8 +15199,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14866,251 +15238,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="107">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B2" s="109"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="108" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="108" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="108" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="107">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B2" s="109"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="L1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" t="s">
-        <v>338</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="P1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1708</v>
-      </c>
-      <c r="F2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J2" s="59"/>
-      <c r="K2">
-        <v>500</v>
-      </c>
-      <c r="M2" t="s">
-        <v>344</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="P2" s="59" t="s">
-        <v>1194</v>
-      </c>
-      <c r="Q2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1707</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>372</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J3" s="59"/>
-      <c r="K3">
-        <v>500</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="M3" t="s">
-        <v>344</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="P3" s="59" t="s">
-        <v>1194</v>
-      </c>
-      <c r="Q3">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15127,40 +15254,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="56" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -15454,6 +15581,251 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="107">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B2" s="109"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="108" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="108" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="108" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="107">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B2" s="109"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="P1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1708</v>
+      </c>
+      <c r="F2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2">
+        <v>500</v>
+      </c>
+      <c r="M2" t="s">
+        <v>344</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Q2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1707</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M3" t="s">
+        <v>344</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="P3" s="59" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Q3">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -15466,8 +15838,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15500,7 +15872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -15513,9 +15885,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="3" max="10" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15755,7 +16127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -15768,8 +16140,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15911,47 +16283,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -16209,8 +16581,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="29" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="1228">
   <si>
     <t>Description</t>
   </si>
@@ -3485,9 +3485,6 @@
   </si>
   <si>
     <t>No.2  Ward No.8456</t>
-  </si>
-  <si>
-    <t>3543224602</t>
   </si>
   <si>
     <t>107762</t>
@@ -3749,12 +3746,6 @@
     <t>03/02/2020</t>
   </si>
   <si>
-    <t>March04</t>
-  </si>
-  <si>
-    <t>1707117477</t>
-  </si>
-  <si>
     <t>1707105304</t>
   </si>
   <si>
@@ -3765,6 +3756,30 @@
   </si>
   <si>
     <t>1707117479</t>
+  </si>
+  <si>
+    <t>1543224600</t>
+  </si>
+  <si>
+    <t>107771</t>
+  </si>
+  <si>
+    <t>1707_AutoClient 13April2020 12:55:12</t>
+  </si>
+  <si>
+    <t>107771001</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 13April2020 12:55:12</t>
+  </si>
+  <si>
+    <t>107771001001</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 13April2020 12:55:12</t>
+  </si>
+  <si>
+    <t>1707105306</t>
   </si>
 </sst>
 </file>
@@ -5267,7 +5282,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="44"/>
@@ -6249,7 +6264,7 @@
         <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6264,7 +6279,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
@@ -6277,7 +6292,7 @@
         <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
@@ -6285,7 +6300,7 @@
         <v>966</v>
       </c>
       <c r="B6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
@@ -6293,7 +6308,7 @@
         <v>967</v>
       </c>
       <c r="B7" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
@@ -6317,7 +6332,7 @@
         <v>978</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
@@ -6325,7 +6340,7 @@
         <v>989</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
@@ -6333,7 +6348,7 @@
         <v>990</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.25">
@@ -6345,48 +6360,48 @@
       <c r="A14" s="30" t="s">
         <v>1063</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>1131</v>
+      <c r="B14" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>1064</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>1132</v>
+      <c r="B15" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>1065</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>1133</v>
+      <c r="B16" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>1066</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>1134</v>
+      <c r="B17" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>1067</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>1176</v>
+      <c r="B18" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>1068</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1135</v>
+      <c r="B19" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6394,7 +6409,7 @@
         <v>1069</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6402,7 +6417,7 @@
         <v>1070</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6412,18 +6427,18 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>1177</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6431,20 +6446,20 @@
         <v>2</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B26" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B27" t="s">
         <v>232</v>
@@ -8811,7 +8826,7 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -8876,16 +8891,16 @@
         <v>1707</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
   </sheetData>
@@ -11798,8 +11813,8 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11885,7 +11900,7 @@
         <v>1037</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1130</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12059,7 +12074,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12084,10 +12099,10 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12095,10 +12110,10 @@
         <v>1027</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12114,13 +12129,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12139,10 +12154,10 @@
         <v>1089</v>
       </c>
       <c r="B8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12150,26 +12165,26 @@
         <v>29</v>
       </c>
       <c r="B9" s="99" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C9" s="99" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B11" t="s">
         <v>1041</v>
@@ -12183,21 +12198,21 @@
         <v>1092</v>
       </c>
       <c r="B12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B13" s="59" t="s">
         <v>1051</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12247,7 +12262,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12272,10 +12287,10 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12284,7 +12299,7 @@
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12292,10 +12307,10 @@
         <v>1027</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12304,7 +12319,7 @@
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="59" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12320,13 +12335,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12345,10 +12360,10 @@
         <v>1089</v>
       </c>
       <c r="B10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12356,26 +12371,26 @@
         <v>29</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C11" s="99" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B13" t="s">
         <v>1041</v>
@@ -12389,21 +12404,21 @@
         <v>1092</v>
       </c>
       <c r="B14" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C14" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B15" s="59" t="s">
         <v>1051</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12481,15 +12496,15 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B6" t="s">
         <v>1160</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12545,7 +12560,7 @@
         <v>1037</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12638,10 +12653,10 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B25" t="s">
         <v>1163</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -12760,15 +12775,15 @@
         <v>996</v>
       </c>
       <c r="B6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B7" t="s">
         <v>1160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12824,7 +12839,7 @@
         <v>1037</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12917,10 +12932,10 @@
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B26" t="s">
         <v>1163</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -13026,7 +13041,7 @@
         <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13034,7 +13049,7 @@
         <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
@@ -13130,7 +13145,7 @@
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>1005</v>
@@ -13350,7 +13365,7 @@
         <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13358,7 +13373,7 @@
         <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13596,7 +13611,7 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13604,7 +13619,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13625,7 +13640,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B7" s="59">
         <v>84625318710</v>
@@ -13633,7 +13648,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
@@ -13683,7 +13698,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13696,7 +13711,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B5" t="s">
         <v>373</v>
@@ -13704,10 +13719,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B6" t="s">
         <v>1171</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1172</v>
       </c>
     </row>
   </sheetData>
@@ -14597,7 +14612,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1003</v>
@@ -14608,7 +14623,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14672,7 +14687,7 @@
         <v>1000</v>
       </c>
       <c r="B11" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -14799,16 +14814,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B3" s="110" t="s">
         <v>1197</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -14849,18 +14864,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B4" s="111" t="s">
         <v>1210</v>
-      </c>
-      <c r="B4" s="111" t="s">
-        <v>1211</v>
       </c>
     </row>
   </sheetData>
@@ -14893,16 +14908,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
@@ -14939,16 +14954,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B3" s="110" t="s">
         <v>1197</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -14985,16 +15000,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1" t="s">
         <v>1184</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1185</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1186</v>
       </c>
       <c r="E1" t="s">
         <v>128</v>
@@ -15003,19 +15018,19 @@
         <v>337</v>
       </c>
       <c r="G1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H1" t="s">
         <v>1180</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1181</v>
       </c>
       <c r="I1" t="s">
         <v>127</v>
       </c>
       <c r="J1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K1" t="s">
         <v>1182</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1183</v>
       </c>
       <c r="L1" t="s">
         <v>132</v>
@@ -15024,19 +15039,19 @@
         <v>338</v>
       </c>
       <c r="N1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O1" t="s">
         <v>1187</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1188</v>
       </c>
       <c r="P1" t="s">
         <v>131</v>
       </c>
       <c r="Q1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="R1" t="s">
         <v>1189</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -15047,10 +15062,10 @@
         <v>344</v>
       </c>
       <c r="H2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2">
@@ -15060,10 +15075,10 @@
         <v>344</v>
       </c>
       <c r="O2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Q2">
         <v>500</v>
@@ -15074,7 +15089,7 @@
         <v>1707</v>
       </c>
       <c r="E3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F3" t="s">
         <v>343</v>
@@ -15083,26 +15098,26 @@
         <v>372</v>
       </c>
       <c r="H3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="J3" s="59"/>
       <c r="K3">
         <v>500</v>
       </c>
       <c r="L3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="M3" t="s">
         <v>344</v>
       </c>
       <c r="O3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="P3" s="59" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Q3">
         <v>500</v>
@@ -15395,10 +15410,10 @@
         <v>998312</v>
       </c>
       <c r="O2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="P2" t="s">
         <v>1214</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1215</v>
       </c>
       <c r="Q2">
         <v>25</v>
@@ -15488,7 +15503,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>302</v>
@@ -16234,7 +16249,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\SIT-W1_Datasheets\New folder\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="1224">
   <si>
     <t>Description</t>
   </si>
@@ -3490,18 +3490,9 @@
     <t>107762</t>
   </si>
   <si>
-    <t>1707_AutoClient 04March2020 16:24:02</t>
-  </si>
-  <si>
     <t>107762001</t>
   </si>
   <si>
-    <t>AutoGlobalBrand 04March2020 16:24:02</t>
-  </si>
-  <si>
-    <t>AutoGlobalProduct 04March2020 16:24:02</t>
-  </si>
-  <si>
     <t>1712_INR_Billable_Price_List</t>
   </si>
   <si>
@@ -3620,9 +3611,6 @@
   </si>
   <si>
     <t>BRISK OFFICE AUTOMATION</t>
-  </si>
-  <si>
-    <t>107762001001</t>
   </si>
   <si>
     <t>Fixed Asset PO Number</t>
@@ -3746,18 +3734,6 @@
     <t>03/02/2020</t>
   </si>
   <si>
-    <t>1707105304</t>
-  </si>
-  <si>
-    <t>1707109769</t>
-  </si>
-  <si>
-    <t>April10</t>
-  </si>
-  <si>
-    <t>1707117479</t>
-  </si>
-  <si>
     <t>1543224600</t>
   </si>
   <si>
@@ -3780,13 +3756,24 @@
   </si>
   <si>
     <t>1707105306</t>
+  </si>
+  <si>
+    <t>April13</t>
+  </si>
+  <si>
+    <t>1707117480</t>
+  </si>
+  <si>
+    <t>Number of Lines To ADD</t>
+  </si>
+  <si>
+    <t>1707109782</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4561,8 +4548,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4611,16 +4598,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="59.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="51.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="51.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="30" width="58.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="57.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="30" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="30" width="45.28515625" collapsed="true"/>
-    <col min="10" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="59.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="58.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="57.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45.28515625" style="30" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4967,9 +4954,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5063,11 +5050,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="68.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
-    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5282,7 +5269,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="44"/>
@@ -5504,8 +5491,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5634,8 +5621,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5745,9 +5732,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5875,8 +5862,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5922,8 +5909,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5969,11 +5956,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6035,8 +6022,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6079,11 +6066,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="27.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="51.7109375" collapsed="true"/>
-    <col min="4" max="167" customWidth="true" style="30" width="32.0" collapsed="true"/>
-    <col min="168" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="167" width="32" style="30" customWidth="1" collapsed="1"/>
+    <col min="168" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.25">
@@ -6264,7 +6251,7 @@
         <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
@@ -6279,7 +6266,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
@@ -6292,7 +6279,7 @@
         <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
@@ -6300,7 +6287,7 @@
         <v>966</v>
       </c>
       <c r="B6" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
@@ -6308,7 +6295,7 @@
         <v>967</v>
       </c>
       <c r="B7" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
@@ -6332,7 +6319,7 @@
         <v>978</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
@@ -6340,7 +6327,7 @@
         <v>989</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
@@ -6361,7 +6348,7 @@
         <v>1063</v>
       </c>
       <c r="B14" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
@@ -6369,7 +6356,7 @@
         <v>1064</v>
       </c>
       <c r="B15" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
@@ -6377,7 +6364,7 @@
         <v>1065</v>
       </c>
       <c r="B16" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6385,7 +6372,7 @@
         <v>1066</v>
       </c>
       <c r="B17" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6393,7 +6380,7 @@
         <v>1067</v>
       </c>
       <c r="B18" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6401,7 +6388,7 @@
         <v>1068</v>
       </c>
       <c r="B19" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6417,7 +6404,7 @@
         <v>1070</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6427,18 +6414,18 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6446,20 +6433,20 @@
         <v>2</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B26" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B27" t="s">
         <v>232</v>
@@ -6484,8 +6471,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6535,8 +6522,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6586,50 +6573,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="22" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="27" max="28" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="34" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="39" max="40" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="45" max="46" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="51" max="52" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="57" max="58" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="63" max="64" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="28" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="34" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="40" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="46" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="52" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
@@ -6867,61 +6854,62 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BL3"/>
+  <dimension ref="A1:BM3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="22" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="27" max="28" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="34" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="39" max="40" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="45" max="46" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="51" max="52" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="57" max="58" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="63" max="64" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="53" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="58" max="59" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="64" max="65" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>67</v>
       </c>
@@ -6932,190 +6920,193 @@
         <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>1021</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>939</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>938</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>937</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>936</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>934</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>935</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>932</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>933</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AH1" s="27" t="s">
         <v>931</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
         <v>930</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AN1" s="27" t="s">
         <v>929</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="AO1" s="27" t="s">
         <v>928</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="AP1" s="27" t="s">
+      <c r="AQ1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="AQ1" s="27" t="s">
+      <c r="AR1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="AR1" s="27" t="s">
+      <c r="AS1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="AS1" s="27" t="s">
+      <c r="AT1" s="27" t="s">
         <v>927</v>
       </c>
-      <c r="AT1" s="27" t="s">
+      <c r="AU1" s="27" t="s">
         <v>926</v>
       </c>
-      <c r="AU1" s="27" t="s">
+      <c r="AV1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AV1" s="27" t="s">
+      <c r="AW1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AW1" s="27" t="s">
+      <c r="AX1" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AX1" s="27" t="s">
+      <c r="AY1" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AY1" s="27" t="s">
+      <c r="AZ1" s="27" t="s">
         <v>925</v>
       </c>
-      <c r="AZ1" s="27" t="s">
+      <c r="BA1" s="27" t="s">
         <v>924</v>
       </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BB1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="BB1" s="27" t="s">
+      <c r="BC1" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="BC1" s="27" t="s">
+      <c r="BD1" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BE1" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="BE1" s="27" t="s">
+      <c r="BF1" s="27" t="s">
         <v>922</v>
       </c>
-      <c r="BF1" s="27" t="s">
+      <c r="BG1" s="27" t="s">
         <v>923</v>
       </c>
-      <c r="BG1" s="27" t="s">
+      <c r="BH1" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="BH1" s="27" t="s">
+      <c r="BI1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="BI1" s="27" t="s">
+      <c r="BJ1" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="BJ1" s="27" t="s">
+      <c r="BK1" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="BK1" s="27" t="s">
+      <c r="BL1" s="27" t="s">
         <v>921</v>
       </c>
-      <c r="BL1" s="27" t="s">
+      <c r="BM1" s="27" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="59">
         <v>1707</v>
       </c>
@@ -7123,54 +7114,57 @@
         <v>372</v>
       </c>
       <c r="C2" s="59"/>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="59">
+        <v>1</v>
+      </c>
+      <c r="E2" s="59" t="s">
         <v>950</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>368</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>369</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>25</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>500</v>
-      </c>
-      <c r="I2">
-        <v>998312</v>
       </c>
       <c r="J2">
         <v>998312</v>
       </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>998312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1712</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="E3" s="59" t="s">
         <v>950</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1014</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>1015</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>500</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="J3" s="59" t="s">
         <v>949</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="K3" s="59" t="s">
         <v>949</v>
       </c>
     </row>
@@ -7193,8 +7187,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7230,8 +7224,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7269,8 +7263,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7364,10 +7358,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="12.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7437,8 +7431,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7508,7 +7502,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8690,8 +8684,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8761,8 +8755,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8827,16 +8821,16 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -8891,16 +8885,16 @@
         <v>1707</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
@@ -8922,7 +8916,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8961,7 +8955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8997,8 +8991,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9052,9 +9046,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="24.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9132,9 +9126,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9208,8 +9202,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9247,13 +9241,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="16.42578125" collapsed="true"/>
-    <col min="2" max="2" style="30" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="4" max="8" style="30" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="30" width="27.5703125" collapsed="true"/>
-    <col min="11" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="30" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="8" width="9.140625" style="30" collapsed="1"/>
+    <col min="9" max="9" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9339,7 +9333,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11393,10 +11387,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11482,9 +11476,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11562,8 +11556,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11633,11 +11627,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -11813,14 +11807,14 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11900,7 +11894,7 @@
         <v>1037</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12061,9 +12055,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -12074,7 +12068,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12099,10 +12093,10 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12110,10 +12104,10 @@
         <v>1027</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12129,13 +12123,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12154,10 +12148,10 @@
         <v>1089</v>
       </c>
       <c r="B8" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C8" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12165,26 +12159,26 @@
         <v>29</v>
       </c>
       <c r="B9" s="99" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C9" s="99" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B11" t="s">
         <v>1041</v>
@@ -12198,21 +12192,21 @@
         <v>1092</v>
       </c>
       <c r="B12" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C12" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B13" s="59" t="s">
         <v>1051</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12249,9 +12243,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -12262,7 +12256,7 @@
         <v>370</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12287,10 +12281,10 @@
         <v>982</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12299,7 +12293,7 @@
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12307,10 +12301,10 @@
         <v>1027</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12319,7 +12313,7 @@
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="59" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12335,13 +12329,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>370</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12360,10 +12354,10 @@
         <v>1089</v>
       </c>
       <c r="B10" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C10" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12371,26 +12365,26 @@
         <v>29</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C11" s="99" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>972</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B13" t="s">
         <v>1041</v>
@@ -12404,21 +12398,21 @@
         <v>1092</v>
       </c>
       <c r="B14" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C14" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B15" s="59" t="s">
         <v>1051</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12455,8 +12449,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12496,15 +12490,15 @@
         <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B6" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12560,7 +12554,7 @@
         <v>1037</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12653,10 +12647,10 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B25" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -12729,8 +12723,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12775,15 +12769,15 @@
         <v>996</v>
       </c>
       <c r="B6" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B7" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12839,7 +12833,7 @@
         <v>1037</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12932,10 +12926,10 @@
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B26" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -13008,8 +13002,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13041,7 +13035,7 @@
         <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13049,7 +13043,7 @@
         <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
   </sheetData>
@@ -13071,11 +13065,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="30" width="31.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="45.42578125" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.85546875" style="30" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="45.42578125" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13145,7 +13139,7 @@
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>1005</v>
@@ -13332,8 +13326,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13365,7 +13359,7 @@
         <v>1019</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13373,7 +13367,7 @@
         <v>1020</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13411,8 +13405,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13492,8 +13486,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13589,8 +13583,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13611,7 +13605,7 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13619,7 +13613,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13640,7 +13634,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B7" s="59">
         <v>84625318710</v>
@@ -13648,7 +13642,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
@@ -13676,8 +13670,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13698,7 +13692,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13711,7 +13705,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B5" t="s">
         <v>373</v>
@@ -13719,10 +13713,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B6" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -13747,8 +13741,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13794,8 +13788,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13857,8 +13851,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13920,8 +13914,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13967,8 +13961,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14030,10 +14024,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="49" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="49" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="26.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="49" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14174,8 +14168,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14237,8 +14231,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14300,8 +14294,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14598,8 +14592,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14612,7 +14606,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1003</v>
@@ -14623,7 +14617,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14687,7 +14681,7 @@
         <v>1000</v>
       </c>
       <c r="B11" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -14736,8 +14730,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14799,9 +14793,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="108" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="108" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="108" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="108" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="108" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="108" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14814,16 +14808,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
   </sheetData>
@@ -14842,8 +14836,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14864,18 +14858,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B4" s="111" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
   </sheetData>
@@ -14894,8 +14888,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14908,16 +14902,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -14939,9 +14933,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="108" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="108" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="108" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="108" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="108" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="108" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14954,16 +14948,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
   </sheetData>
@@ -14985,31 +14979,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B1" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C1" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D1" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="E1" t="s">
         <v>128</v>
@@ -15018,19 +15012,19 @@
         <v>337</v>
       </c>
       <c r="G1" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="H1" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="I1" t="s">
         <v>127</v>
       </c>
       <c r="J1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="K1" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="L1" t="s">
         <v>132</v>
@@ -15039,19 +15033,19 @@
         <v>338</v>
       </c>
       <c r="N1" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="O1" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="P1" t="s">
         <v>131</v>
       </c>
       <c r="Q1" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="R1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -15062,10 +15056,10 @@
         <v>344</v>
       </c>
       <c r="H2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2">
@@ -15075,10 +15069,10 @@
         <v>344</v>
       </c>
       <c r="O2" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="Q2">
         <v>500</v>
@@ -15089,7 +15083,7 @@
         <v>1707</v>
       </c>
       <c r="E3" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F3" t="s">
         <v>343</v>
@@ -15098,26 +15092,26 @@
         <v>372</v>
       </c>
       <c r="H3" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="J3" s="59"/>
       <c r="K3">
         <v>500</v>
       </c>
       <c r="L3" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="M3" t="s">
         <v>344</v>
       </c>
       <c r="O3" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="P3" s="59" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="Q3">
         <v>500</v>
@@ -15142,40 +15136,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="56" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -15410,10 +15404,10 @@
         <v>998312</v>
       </c>
       <c r="O2" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="P2" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="Q2">
         <v>25</v>
@@ -15481,8 +15475,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15503,7 +15497,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>302</v>
@@ -15528,9 +15522,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="3" max="10" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15783,8 +15777,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15926,47 +15920,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -16224,8 +16218,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16249,7 +16243,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="1204">
   <si>
     <t>Description</t>
   </si>
@@ -3704,6 +3704,9 @@
   </si>
   <si>
     <t>CORE@TESTING1707</t>
+  </si>
+  <si>
+    <t>1707 Finance (TSTAUTO)</t>
   </si>
 </sst>
 </file>
@@ -4470,7 +4473,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4492,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1055</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="70" activeTab="72"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="66" activeTab="69"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="1326">
   <si>
     <t>Description</t>
   </si>
@@ -4075,6 +4075,9 @@
   </si>
   <si>
     <t>E1022</t>
+  </si>
+  <si>
+    <t>1707105309</t>
   </si>
 </sst>
 </file>
@@ -6707,7 +6710,7 @@
   <dimension ref="A1:FK28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6897,7 +6900,7 @@
         <v>196</v>
       </c>
       <c r="B2">
-        <v>1707105376</v>
+        <v>1707105309</v>
       </c>
       <c r="C2"/>
       <c r="E2" s="59"/>
@@ -15954,8 +15957,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15980,7 +15983,7 @@
         <v>366</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1267</v>
+        <v>1325</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -16483,8 +16486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Demo\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\GIT_ProjectLatest\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="1314">
   <si>
     <t>Description</t>
   </si>
@@ -4070,6 +4070,9 @@
   </si>
   <si>
     <t>Invoice preparation Job</t>
+  </si>
+  <si>
+    <t>1707105388</t>
   </si>
 </sst>
 </file>
@@ -8828,7 +8831,7 @@
   <dimension ref="A1:FK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9017,8 +9020,8 @@
       <c r="A2" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B2" t="s">
-        <v>1280</v>
+      <c r="B2" s="59" t="s">
+        <v>1313</v>
       </c>
       <c r="C2"/>
       <c r="E2" s="59"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -4072,7 +4072,7 @@
     <t>Invoice preparation Job</t>
   </si>
   <si>
-    <t>1707105388</t>
+    <t>1707105389</t>
   </si>
 </sst>
 </file>
@@ -8831,7 +8831,7 @@
   <dimension ref="A1:FK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="99" activeTab="100"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -5221,8 +5221,8 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5301,7 +5301,9 @@
       <c r="I2" s="60" t="s">
         <v>1265</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="59" t="s">
+        <v>1313</v>
+      </c>
       <c r="K2">
         <v>100</v>
       </c>
@@ -8830,8 +8832,8 @@
   </sheetPr>
   <dimension ref="A1:FK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9020,9 +9022,6 @@
       <c r="A2" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>1313</v>
-      </c>
       <c r="C2"/>
       <c r="E2" s="59"/>
       <c r="F2" s="60"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="99" activeTab="100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -4072,7 +4072,7 @@
     <t>Invoice preparation Job</t>
   </si>
   <si>
-    <t>1707105389</t>
+    <t>1707105390</t>
   </si>
 </sst>
 </file>
@@ -5221,8 +5221,8 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8832,8 +8832,8 @@
   </sheetPr>
   <dimension ref="A1:FK41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" firstSheet="102" activeTab="105"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="1316">
   <si>
     <t>Description</t>
   </si>
@@ -4346,7 +4346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4552,6 +4552,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4840,8 +4843,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6179,7 +6182,7 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -9308,7 +9311,7 @@
   <dimension ref="A1:FK41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9327,8 +9330,8 @@
       <c r="B1" s="13">
         <v>1707</v>
       </c>
-      <c r="C1" s="13">
-        <v>1712</v>
+      <c r="C1" s="109" t="s">
+        <v>932</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Demo\Demo1\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="101" activeTab="103"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="1363">
   <si>
     <t>Description</t>
   </si>
@@ -4225,7 +4225,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5009,15 +5008,15 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5098,9 +5097,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5323,15 +5322,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5430,13 +5429,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5509,7 +5508,7 @@
 
 <file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -5517,17 +5516,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>355</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>17079905</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>1712</v>
       </c>
@@ -5815,51 +5814,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="65" max="65" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="15" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.25">
@@ -6150,15 +6149,15 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="3" max="9" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6390,8 +6389,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6533,7 +6532,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
@@ -6587,9 +6586,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6812,10 +6811,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="49" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="49" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="26.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="49" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6956,40 +6955,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="56" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -7336,41 +7335,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -7726,41 +7725,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -8116,41 +8115,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -8506,41 +8505,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -8896,41 +8895,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -9242,47 +9241,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -9540,11 +9539,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="26.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="36.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="51.7109375" collapsed="true"/>
-    <col min="4" max="167" customWidth="true" style="30" width="32.0" collapsed="true"/>
-    <col min="168" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="26" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="167" width="32" style="30" customWidth="1" collapsed="1"/>
+    <col min="168" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.25">
@@ -10007,8 +10006,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10115,16 +10114,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="59.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="51.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="51.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="30" width="58.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="57.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="30" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="30" width="45.28515625" collapsed="true"/>
-    <col min="10" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="59.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="58.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="57.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45.28515625" style="30" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10471,9 +10470,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10567,11 +10566,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="68.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
-    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11008,8 +11007,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11138,8 +11137,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11249,9 +11248,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -11379,11 +11378,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="8.5703125" collapsed="true"/>
-    <col min="5" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11441,9 +11440,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11500,9 +11499,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11559,7 +11558,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12877,9 +12876,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -12936,9 +12935,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -12995,9 +12994,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -13042,8 +13041,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13089,11 +13088,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13155,8 +13154,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13199,8 +13198,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13250,8 +13249,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13301,57 +13300,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="72" max="73" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="72" max="73" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.25">
@@ -13647,51 +13646,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="22" max="23" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="28" max="29" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="34" max="35" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="40" max="41" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="46" max="47" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="53" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="58" max="59" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="64" max="65" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="53" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="58" max="59" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="64" max="65" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
@@ -13923,7 +13922,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15977,52 +15976,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -16266,52 +16265,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -16555,52 +16554,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -16844,52 +16843,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -17133,52 +17132,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -17422,8 +17421,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17459,8 +17458,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17504,8 +17503,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17549,8 +17548,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17594,8 +17593,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17639,9 +17638,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -17718,8 +17716,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17763,8 +17761,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17800,8 +17798,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17895,10 +17893,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="12.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17968,8 +17966,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18039,8 +18037,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18110,8 +18108,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18181,11 +18179,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -18250,13 +18248,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -18333,13 +18331,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -18416,10 +18414,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="30" width="31.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="45.42578125" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.85546875" style="30" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.42578125" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18653,13 +18651,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -18736,7 +18734,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -18775,7 +18773,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18819,7 +18817,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18855,8 +18853,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18904,8 +18902,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18955,9 +18953,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="24.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19035,9 +19033,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19111,8 +19109,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19150,13 +19148,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="16.42578125" collapsed="true"/>
-    <col min="2" max="2" style="30" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="4" max="8" style="30" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="30" width="27.5703125" collapsed="true"/>
-    <col min="11" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="30" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="8" width="9.140625" style="30" collapsed="1"/>
+    <col min="9" max="9" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19242,9 +19240,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19470,10 +19468,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19559,9 +19557,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19639,8 +19637,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19710,11 +19708,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -19896,8 +19894,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20140,9 +20138,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -20328,9 +20326,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -20534,8 +20532,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20808,8 +20806,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21087,8 +21085,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21150,9 +21148,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -21378,8 +21376,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21457,8 +21455,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21538,8 +21536,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21635,8 +21633,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21722,8 +21720,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21793,8 +21791,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21840,8 +21838,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21903,8 +21901,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21966,8 +21964,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22013,8 +22011,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22076,9 +22074,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -22304,8 +22302,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22367,8 +22365,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22430,8 +22428,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22728,8 +22726,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22866,8 +22864,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22929,9 +22927,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="106" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="106" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="106" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="106" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22972,8 +22970,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -23024,8 +23022,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -23069,9 +23067,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="106" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="106" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="106" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="106" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -23115,17 +23113,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Music\GIT_ProjectLatest\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="99" activeTab="101"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="1389">
   <si>
     <t>Description</t>
   </si>
@@ -4029,9 +4029,6 @@
     <t>Invoice preparation Job</t>
   </si>
   <si>
-    <t>1707105390</t>
-  </si>
-  <si>
     <t>RB109</t>
   </si>
   <si>
@@ -4065,9 +4062,6 @@
     <t>Party Resource</t>
   </si>
   <si>
-    <t>1712100589</t>
-  </si>
-  <si>
     <t>JIRA Cycle Name</t>
   </si>
   <si>
@@ -4122,109 +4116,196 @@
     <t>1712 Senior Finance (TSTAUTO)</t>
   </si>
   <si>
+    <t>TotalBilling_1</t>
+  </si>
+  <si>
+    <t>Tax1_1</t>
+  </si>
+  <si>
+    <t>Tax2_1</t>
+  </si>
+  <si>
+    <t>Tax1currency_1</t>
+  </si>
+  <si>
+    <t>Tax2currency_1</t>
+  </si>
+  <si>
+    <t>Total_1</t>
+  </si>
+  <si>
+    <t>TotalBilling_2</t>
+  </si>
+  <si>
+    <t>Tax1_2</t>
+  </si>
+  <si>
+    <t>Tax2_2</t>
+  </si>
+  <si>
+    <t>Tax1currency_2</t>
+  </si>
+  <si>
+    <t>Tax2currency_2</t>
+  </si>
+  <si>
+    <t>Total_2</t>
+  </si>
+  <si>
+    <t>TotalBilling_3</t>
+  </si>
+  <si>
+    <t>Tax1_3</t>
+  </si>
+  <si>
+    <t>Tax2_3</t>
+  </si>
+  <si>
+    <t>Tax1currency_3</t>
+  </si>
+  <si>
+    <t>Tax2currency_3</t>
+  </si>
+  <si>
+    <t>Total_3</t>
+  </si>
+  <si>
+    <t>TOTAL EXC. TAX</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Client Invoice No</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>1753109825</t>
+  </si>
+  <si>
+    <t>1712109825</t>
+  </si>
+  <si>
+    <t>1712_AutoClient 24May2020 12:47:02</t>
+  </si>
+  <si>
+    <t>1753_AutoClient 24May2020 12:47:02</t>
+  </si>
+  <si>
+    <t>106431</t>
+  </si>
+  <si>
+    <t>108431</t>
+  </si>
+  <si>
+    <t>1753105379</t>
+  </si>
+  <si>
+    <t>1712105379</t>
+  </si>
+  <si>
+    <t>12/29/2020</t>
+  </si>
+  <si>
+    <t>18/29/2020</t>
+  </si>
+  <si>
+    <t>1707105401</t>
+  </si>
+  <si>
+    <t>1712100515</t>
+  </si>
+  <si>
+    <t>107763001001</t>
+  </si>
+  <si>
+    <t>106799</t>
+  </si>
+  <si>
+    <t>108799</t>
+  </si>
+  <si>
     <t>HSN Code: 998312:</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>TotalBilling_1</t>
-  </si>
-  <si>
-    <t>Tax1_1</t>
-  </si>
-  <si>
-    <t>Tax2_1</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>Tax1currency_1</t>
-  </si>
-  <si>
-    <t>Tax2currency_1</t>
-  </si>
-  <si>
-    <t>Total_1</t>
+    <t>3D Models</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>9,600.00</t>
+  </si>
+  <si>
+    <t>IN IGST 18%</t>
+  </si>
+  <si>
+    <t>1,728.00</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>ADAPTS</t>
+  </si>
+  <si>
+    <t>7,500.00</t>
+  </si>
+  <si>
+    <t>1,350.00</t>
+  </si>
+  <si>
+    <t>3078</t>
+  </si>
+  <si>
+    <t>17,100.00</t>
+  </si>
+  <si>
+    <t>20,178.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1712400468
+</t>
   </si>
   <si>
     <t>nan</t>
   </si>
   <si>
-    <t>Banners-Design only</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>12,500.00</t>
-  </si>
-  <si>
-    <t>TotalBilling_2</t>
-  </si>
-  <si>
-    <t>Tax1_2</t>
-  </si>
-  <si>
-    <t>Tax2_2</t>
-  </si>
-  <si>
-    <t>Tax1currency_2</t>
-  </si>
-  <si>
-    <t>Tax2currency_2</t>
-  </si>
-  <si>
-    <t>2,250.00</t>
-  </si>
-  <si>
-    <t>Total_2</t>
-  </si>
-  <si>
-    <t>6,000.00</t>
-  </si>
-  <si>
-    <t>TotalBilling_3</t>
-  </si>
-  <si>
-    <t>Tax1_3</t>
-  </si>
-  <si>
-    <t>Tax2_3</t>
-  </si>
-  <si>
-    <t>Tax1currency_3</t>
-  </si>
-  <si>
-    <t>Tax2currency_3</t>
-  </si>
-  <si>
-    <t>1,080.00</t>
-  </si>
-  <si>
-    <t>Total_3</t>
-  </si>
-  <si>
-    <t>TOTAL EXC. TAX</t>
-  </si>
-  <si>
-    <t>18,500.00</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>21,830.00</t>
-  </si>
-  <si>
-    <t>IN IGST 18%</t>
+    <t>Banners-Deliver Only</t>
+  </si>
+  <si>
+    <t>2,500.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>5,000.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>8,850.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1707403626
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4499,7 +4580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4722,6 +4803,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5006,17 +5093,17 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5038,7 +5125,7 @@
         <v>1155</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5046,15 +5133,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="114" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C3" s="116" t="s">
         <v>1314</v>
-      </c>
-      <c r="C3" s="116" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B4" s="93" t="s">
         <v>245</v>
@@ -5065,14 +5152,17 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>1317</v>
-      </c>
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="93"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5097,9 +5187,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5154,7 +5244,7 @@
         <v>842</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5165,10 +5255,10 @@
         <v>843</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
@@ -5198,7 +5288,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5209,7 +5299,7 @@
         <v>351</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5220,7 +5310,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5231,7 +5321,7 @@
         <v>352</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5242,7 +5332,7 @@
         <v>1267</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5253,7 +5343,7 @@
         <v>1268</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5271,7 +5361,7 @@
         <v>353</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5314,26 +5404,27 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
@@ -5367,8 +5458,98 @@
       <c r="K1" s="29" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="U1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>355</v>
       </c>
@@ -5396,22 +5577,43 @@
       <c r="I2" s="60" t="s">
         <v>1255</v>
       </c>
-      <c r="J2" s="59" t="s">
-        <v>1299</v>
-      </c>
+      <c r="J2" s="59"/>
       <c r="K2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>951</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5429,13 +5631,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5508,22 +5711,25 @@
 
 <file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5570,22 +5776,22 @@
         <v>218</v>
       </c>
       <c r="O1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="S1" t="s">
         <v>1332</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>1333</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1338</v>
       </c>
       <c r="U1" t="s">
         <v>131</v>
@@ -5597,22 +5803,22 @@
         <v>219</v>
       </c>
       <c r="X1" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="Y1" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="Z1" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="AA1" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="AB1" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="AC1" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="AD1" t="s">
         <v>135</v>
@@ -5624,28 +5830,28 @@
         <v>220</v>
       </c>
       <c r="AG1" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="AH1" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="AI1" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="AK1" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
       <c r="AL1" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="AM1" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="AN1" t="s">
-        <v>1360</v>
+        <v>1347</v>
       </c>
       <c r="AO1" t="s">
         <v>237</v>
@@ -5679,13 +5885,103 @@
       <c r="I2" s="60" t="s">
         <v>1284</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>17079905</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
-        <v>1712</v>
+      <c r="L2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="P2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="118" t="s">
+        <v>951</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>1262</v>
@@ -5702,100 +5998,117 @@
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
       <c r="J3" s="60" t="s">
-        <v>1311</v>
-      </c>
-      <c r="K3">
+        <v>1362</v>
+      </c>
+      <c r="K3" s="1">
         <v>17129905</v>
       </c>
       <c r="L3" t="s">
-        <v>1330</v>
+        <v>1366</v>
       </c>
       <c r="M3" t="s">
-        <v>1331</v>
+        <v>1348</v>
       </c>
       <c r="N3" t="s">
-        <v>1331</v>
+        <v>1348</v>
       </c>
       <c r="O3" t="s">
-        <v>1331</v>
+        <v>1348</v>
       </c>
       <c r="P3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="T3" t="s">
         <v>285</v>
       </c>
-      <c r="Q3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1339</v>
-      </c>
       <c r="U3" t="s">
-        <v>1340</v>
+        <v>1368</v>
       </c>
       <c r="V3" t="s">
-        <v>1341</v>
+        <v>1369</v>
       </c>
       <c r="W3" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="X3" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="Y3" t="s">
-        <v>1213</v>
+        <v>1371</v>
       </c>
       <c r="Z3" t="s">
         <v>1348</v>
       </c>
       <c r="AA3" t="s">
-        <v>1362</v>
+        <v>1372</v>
       </c>
       <c r="AB3" t="s">
-        <v>1331</v>
+        <v>1367</v>
       </c>
       <c r="AC3" t="s">
-        <v>1339</v>
+        <v>1373</v>
       </c>
       <c r="AD3" t="s">
-        <v>354</v>
+        <v>1374</v>
       </c>
       <c r="AE3" t="s">
-        <v>1341</v>
+        <v>1369</v>
       </c>
       <c r="AF3" t="s">
-        <v>1350</v>
+        <v>1375</v>
       </c>
       <c r="AG3" t="s">
-        <v>1350</v>
+        <v>1375</v>
       </c>
       <c r="AH3" t="s">
-        <v>1213</v>
+        <v>1371</v>
       </c>
       <c r="AI3" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="AK3" t="s">
-        <v>1331</v>
+        <v>1367</v>
       </c>
       <c r="AL3" t="s">
-        <v>1339</v>
+        <v>1377</v>
       </c>
       <c r="AM3" t="s">
-        <v>1359</v>
+        <v>1378</v>
       </c>
       <c r="AN3" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
       <c r="AO3" t="s">
         <v>870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="119" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K4" s="1">
+        <v>17539905</v>
       </c>
     </row>
   </sheetData>
@@ -5814,51 +6127,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="15" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.25">
@@ -6155,9 +6468,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="9" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="9" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6188,7 +6501,7 @@
         <v>1151</v>
       </c>
       <c r="C2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
@@ -6207,7 +6520,7 @@
         <v>1152</v>
       </c>
       <c r="C3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
@@ -6226,7 +6539,7 @@
         <v>1153</v>
       </c>
       <c r="C4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
@@ -6245,7 +6558,7 @@
         <v>1154</v>
       </c>
       <c r="C5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
@@ -6264,7 +6577,7 @@
         <v>1155</v>
       </c>
       <c r="C6" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
@@ -6283,7 +6596,7 @@
         <v>1156</v>
       </c>
       <c r="C7" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
@@ -6302,7 +6615,7 @@
         <v>1157</v>
       </c>
       <c r="C8" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
@@ -6321,7 +6634,7 @@
         <v>1158</v>
       </c>
       <c r="C9" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
@@ -6340,7 +6653,7 @@
         <v>1159</v>
       </c>
       <c r="C10" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
@@ -6359,7 +6672,7 @@
         <v>1160</v>
       </c>
       <c r="C11" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -6389,8 +6702,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6532,7 +6845,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
@@ -6586,9 +6899,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6643,7 +6956,7 @@
         <v>842</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6654,7 +6967,7 @@
         <v>843</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6687,7 +7000,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6698,7 +7011,7 @@
         <v>351</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6709,7 +7022,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,7 +7033,7 @@
         <v>352</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6731,7 +7044,7 @@
         <v>1267</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6742,7 +7055,7 @@
         <v>1268</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6760,7 +7073,7 @@
         <v>353</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6811,10 +7124,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="49" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="49" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="49" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="49" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="26.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6955,40 +7268,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="56" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -7298,10 +7611,10 @@
         <v>998312</v>
       </c>
       <c r="I3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J3" t="s">
         <v>1309</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1310</v>
       </c>
       <c r="K3">
         <v>25</v>
@@ -7335,41 +7648,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -7688,10 +8001,10 @@
         <v>998312</v>
       </c>
       <c r="J3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K3" t="s">
         <v>1309</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1310</v>
       </c>
       <c r="L3">
         <v>25</v>
@@ -7725,41 +8038,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -8078,10 +8391,10 @@
         <v>998312</v>
       </c>
       <c r="J3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K3" t="s">
         <v>1309</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1310</v>
       </c>
       <c r="L3">
         <v>25</v>
@@ -8115,41 +8428,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -8468,10 +8781,10 @@
         <v>998312</v>
       </c>
       <c r="J3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K3" t="s">
         <v>1309</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1310</v>
       </c>
       <c r="L3">
         <v>25</v>
@@ -8505,41 +8818,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -8858,10 +9171,10 @@
         <v>998312</v>
       </c>
       <c r="J3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K3" t="s">
         <v>1309</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1310</v>
       </c>
       <c r="L3">
         <v>25</v>
@@ -8895,41 +9208,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -9241,47 +9554,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -9531,19 +9844,20 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK41"/>
+  <dimension ref="A1:FK42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="167" width="32" style="30" customWidth="1" collapsed="1"/>
-    <col min="168" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="26.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="36.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="30" width="36.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="30" width="40.0" collapsed="true"/>
+    <col min="5" max="167" customWidth="true" style="30" width="32.0" collapsed="true"/>
+    <col min="168" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.25">
@@ -9556,7 +9870,9 @@
       <c r="C1" s="14">
         <v>1712</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="14">
+        <v>1753</v>
+      </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -9725,9 +10041,10 @@
       <c r="A2" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C2">
-        <v>1712100510</v>
-      </c>
+      <c r="B2" s="59" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C2" s="60"/>
       <c r="E2" s="59"/>
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
@@ -9739,6 +10056,10 @@
       <c r="A3" s="30" t="s">
         <v>200</v>
       </c>
+      <c r="B3" s="60" t="s">
+        <v>812</v>
+      </c>
+      <c r="C3" s="60"/>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -9752,36 +10073,52 @@
       <c r="B5" t="s">
         <v>1239</v>
       </c>
+      <c r="C5" s="59" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>806</v>
       </c>
       <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>807</v>
       </c>
       <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>816</v>
       </c>
       <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>817</v>
       </c>
       <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>818</v>
       </c>
       <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -9800,6 +10137,12 @@
       <c r="B13" t="s">
         <v>1179</v>
       </c>
+      <c r="C13" s="59" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>1365</v>
+      </c>
     </row>
     <row r="14" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
@@ -9808,6 +10151,12 @@
       <c r="B14" t="s">
         <v>1180</v>
       </c>
+      <c r="C14" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1354</v>
+      </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -9816,6 +10165,12 @@
       <c r="B15" t="s">
         <v>1181</v>
       </c>
+      <c r="C15" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1181</v>
+      </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
@@ -9824,110 +10179,163 @@
       <c r="B16" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>889</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>1191</v>
       </c>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="30" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>890</v>
       </c>
       <c r="B18" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>217</v>
       </c>
       <c r="B21" s="60" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="60" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>982</v>
       </c>
       <c r="B22"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>999</v>
       </c>
       <c r="B23"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>1007</v>
       </c>
       <c r="B25" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="59" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>1008</v>
       </c>
       <c r="B26" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1190</v>
       </c>
       <c r="B27"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1209</v>
       </c>
       <c r="B28" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="109" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1236</v>
       </c>
       <c r="B29" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>992</v>
       </c>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1240</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1241</v>
       </c>
@@ -9985,7 +10393,18 @@
       <c r="A41" s="30" t="s">
         <v>1298</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1380</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10006,8 +10425,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10114,16 +10533,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="59.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="58.140625" style="30" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="57.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.7109375" style="30" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="45.28515625" style="30" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="59.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="51.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="51.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="30" width="58.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="57.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="30" width="63.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="30" width="45.28515625" collapsed="true"/>
+    <col min="10" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10470,9 +10889,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.140625" style="30" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="30" width="23.140625" collapsed="true"/>
+    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10566,11 +10985,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="69.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="68.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
+    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11007,8 +11426,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11137,8 +11556,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11248,9 +11667,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -11378,11 +11797,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="30" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="8.5703125" collapsed="true"/>
+    <col min="5" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11440,9 +11859,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11499,9 +11918,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11558,7 +11977,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12876,9 +13295,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -12935,9 +13354,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -12994,9 +13413,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -13041,8 +13460,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13088,11 +13507,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13154,8 +13573,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13198,8 +13617,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13249,8 +13668,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13300,57 +13719,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="72" max="73" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="72" max="73" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.25">
@@ -13646,51 +14065,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="35" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="53" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="58" max="59" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="64" max="65" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="22" max="23" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="28" max="29" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="34" max="35" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="40" max="41" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="52" max="53" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="58" max="59" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="64" max="65" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
@@ -13922,7 +14341,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15976,52 +16395,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -16265,52 +16684,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -16554,52 +16973,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -16843,52 +17262,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -17132,52 +17551,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -17421,8 +17840,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17458,8 +17877,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17503,8 +17922,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17548,8 +17967,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17593,8 +18012,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17638,8 +18057,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -17661,7 +18080,7 @@
         <v>1199</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17683,7 +18102,7 @@
         <v>1203</v>
       </c>
       <c r="C4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17716,8 +18135,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17761,8 +18180,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17798,8 +18217,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17893,10 +18312,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="12.42578125" collapsed="true"/>
+    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17966,8 +18385,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18037,8 +18456,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18108,8 +18527,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18179,11 +18598,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -18248,13 +18667,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -18331,13 +18750,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -18414,10 +18833,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.85546875" style="30" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="30" width="31.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="45.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18476,7 +18895,7 @@
         <v>842</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -18488,7 +18907,7 @@
         <v>843</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -18524,7 +18943,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -18536,7 +18955,7 @@
         <v>351</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -18548,7 +18967,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -18560,7 +18979,7 @@
         <v>352</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -18572,7 +18991,7 @@
         <v>1148</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D13" s="7"/>
     </row>
@@ -18584,7 +19003,7 @@
         <v>1149</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D14" s="32"/>
     </row>
@@ -18604,7 +19023,7 @@
         <v>353</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D16" s="32"/>
     </row>
@@ -18651,13 +19070,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -18734,7 +19153,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -18773,7 +19192,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18817,7 +19236,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18853,8 +19272,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18902,8 +19321,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18953,9 +19372,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="24.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19033,9 +19452,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19109,8 +19528,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19148,13 +19567,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="30" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="8" width="9.140625" style="30" collapsed="1"/>
-    <col min="9" max="9" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" style="30" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
+    <col min="4" max="8" style="30" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="30" width="27.5703125" collapsed="true"/>
+    <col min="11" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19240,9 +19659,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19297,7 +19716,7 @@
         <v>842</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -19308,10 +19727,10 @@
         <v>843</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
@@ -19322,7 +19741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>56</v>
       </c>
@@ -19341,7 +19760,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -19352,7 +19771,7 @@
         <v>351</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -19363,10 +19782,10 @@
         <v>216</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
@@ -19374,7 +19793,7 @@
         <v>352</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -19385,10 +19804,10 @@
         <v>1267</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>57</v>
       </c>
@@ -19396,7 +19815,7 @@
         <v>1268</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -19414,7 +19833,7 @@
         <v>353</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -19468,10 +19887,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19557,9 +19976,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19637,8 +20056,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19708,11 +20127,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -19894,8 +20313,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20138,9 +20557,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -20326,9 +20745,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -20532,8 +20951,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20806,8 +21225,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21085,8 +21504,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21148,9 +21567,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -21205,7 +21624,7 @@
         <v>842</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -21216,10 +21635,10 @@
         <v>843</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
@@ -21230,7 +21649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>56</v>
       </c>
@@ -21249,7 +21668,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -21260,7 +21679,7 @@
         <v>351</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -21271,10 +21690,10 @@
         <v>216</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
@@ -21282,7 +21701,7 @@
         <v>352</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -21293,10 +21712,10 @@
         <v>1267</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>57</v>
       </c>
@@ -21304,7 +21723,7 @@
         <v>1268</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -21314,7 +21733,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
@@ -21322,7 +21741,7 @@
         <v>353</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -21376,8 +21795,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21455,8 +21874,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21536,8 +21955,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21633,8 +22052,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21720,8 +22139,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21791,8 +22210,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21838,8 +22257,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21901,8 +22320,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21964,8 +22383,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22011,8 +22430,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22074,9 +22493,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -22131,7 +22550,7 @@
         <v>842</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -22142,10 +22561,10 @@
         <v>843</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
@@ -22156,7 +22575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>56</v>
       </c>
@@ -22175,7 +22594,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -22186,7 +22605,7 @@
         <v>351</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -22197,10 +22616,10 @@
         <v>216</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
@@ -22208,7 +22627,7 @@
         <v>352</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -22219,10 +22638,10 @@
         <v>1267</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>57</v>
       </c>
@@ -22230,7 +22649,7 @@
         <v>1268</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -22240,7 +22659,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
@@ -22248,7 +22667,7 @@
         <v>353</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -22302,8 +22721,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22365,8 +22784,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22428,8 +22847,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22726,8 +23145,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22864,8 +23283,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22927,9 +23346,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="106" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="106" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="106" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="106" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22970,8 +23389,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -23022,8 +23441,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -23067,9 +23486,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="106" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="106" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="106" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="106" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -23113,17 +23532,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_IND_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Music\GIT_ProjectLatest\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\3D Objects\GIT_ProjectLatest\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="99" activeTab="101"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="102" activeTab="104"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -115,13 +115,16 @@
     <sheet name="InvoiceOnAccount" sheetId="77" r:id="rId101"/>
     <sheet name="InvoicingFromBudget" sheetId="78" r:id="rId102"/>
     <sheet name="InvoicingWriteOff" sheetId="79" r:id="rId103"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId104"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId105"/>
-    <sheet name="Sheet1" sheetId="75" r:id="rId106"/>
+    <sheet name="CreateAnAccrualJobByJob" sheetId="111" r:id="rId104"/>
+    <sheet name="TimeAndMaterialInvoicing" sheetId="113" r:id="rId105"/>
+    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="112" r:id="rId106"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId107"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId108"/>
+    <sheet name="Sheet1" sheetId="75" r:id="rId109"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -129,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1401">
   <si>
     <t>Description</t>
   </si>
@@ -4299,13 +4302,48 @@
   <si>
     <t xml:space="preserve">1707403626
 </t>
+  </si>
+  <si>
+    <t>1707103536</t>
+  </si>
+  <si>
+    <t>WorkCodeFrom</t>
+  </si>
+  <si>
+    <t>WorkCodeTo</t>
+  </si>
+  <si>
+    <t>EntryDate</t>
+  </si>
+  <si>
+    <t>NoForAccrual</t>
+  </si>
+  <si>
+    <t>PoNoFrom</t>
+  </si>
+  <si>
+    <t>PoNoTo</t>
+  </si>
+  <si>
+    <t>Job NumberFrom</t>
+  </si>
+  <si>
+    <t>Job NumberTo</t>
+  </si>
+  <si>
+    <t>E1003</t>
+  </si>
+  <si>
+    <t>3rd Party Resource</t>
+  </si>
+  <si>
+    <t>Write Off</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5101,9 +5139,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5187,9 +5225,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5412,16 +5450,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5631,14 +5669,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5713,23 +5751,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" width="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6127,51 +6165,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="65" max="65" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="15" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.25">
@@ -6456,6 +6494,394 @@
 </file>
 
 <file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B3" s="60"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>1216</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>1217</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>1218</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>1219</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI1" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ1" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL1" s="27" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AM1" s="27" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO1" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP1" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ1" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR1" s="27" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AS1" s="27" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AT1" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU1" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV1" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW1" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX1" s="27" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AY1" s="27" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AZ1" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA1" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB1" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="BC1" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD1" s="27" t="s">
+        <v>1230</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BF1" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="BG1" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH1" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI1" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ1" s="27" t="s">
+        <v>1232</v>
+      </c>
+      <c r="BK1" s="27" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1707</v>
+      </c>
+      <c r="B2">
+        <v>1707105377</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>812</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>2500</v>
+      </c>
+      <c r="H2">
+        <v>998312</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B4" s="60"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -6468,9 +6894,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="3" max="9" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6689,7 +7115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -6702,8 +7128,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6832,7 +7258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -6845,7 +7271,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
@@ -6899,9 +7325,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7124,10 +7550,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="49" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="49" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="26.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="49" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7268,40 +7694,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="56" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -7648,41 +8074,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -8038,41 +8464,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -8428,41 +8854,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -8818,41 +9244,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -9208,41 +9634,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="58" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -9554,47 +9980,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -9852,12 +10278,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="26.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="36.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="30" width="36.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="30" width="40.0" collapsed="true"/>
-    <col min="5" max="167" customWidth="true" style="30" width="32.0" collapsed="true"/>
-    <col min="168" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="26" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40" style="30" customWidth="1" collapsed="1"/>
+    <col min="5" max="167" width="32" style="30" customWidth="1" collapsed="1"/>
+    <col min="168" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.25">
@@ -10425,8 +10851,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10533,16 +10959,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="59.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="51.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="51.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="30" width="58.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="57.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="30" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="30" width="45.28515625" collapsed="true"/>
-    <col min="10" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="59.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="58.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="57.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45.28515625" style="30" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10889,9 +11315,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10985,11 +11411,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="68.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
-    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11426,8 +11852,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11556,8 +11982,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11667,9 +12093,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -11797,11 +12223,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="8.5703125" collapsed="true"/>
-    <col min="5" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11859,9 +12285,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11918,9 +12344,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11977,7 +12403,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13295,9 +13721,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -13354,9 +13780,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -13413,9 +13839,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -13460,8 +13886,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13507,11 +13933,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13573,8 +13999,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13617,8 +14043,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13668,8 +14094,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13719,57 +14145,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="72" max="73" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="72" max="73" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.25">
@@ -14065,51 +14491,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="22" max="23" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="28" max="29" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="34" max="35" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="40" max="41" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="46" max="47" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="53" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="58" max="59" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="64" max="65" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="53" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="58" max="59" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="64" max="65" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
@@ -14341,7 +14767,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16395,52 +16821,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -16684,52 +17110,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -16973,52 +17399,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="37" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="42" max="43" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="48" max="49" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="55" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="66" max="67" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="55" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="67" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -17262,52 +17688,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125